--- a/results/figures/table_S2.xlsx
+++ b/results/figures/table_S2.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="437" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="730" uniqueCount="47">
   <si>
     <t>Sample</t>
   </si>
@@ -23,16 +23,37 @@
     <t>n cells 1</t>
   </si>
   <si>
-    <t>fraction cells 1</t>
+    <t>frac cells 1</t>
   </si>
   <si>
-    <t>Median relative ova 1 (log10)</t>
+    <t>Median rel ova 1</t>
   </si>
   <si>
     <t>Cell type 2</t>
   </si>
   <si>
-    <t>Median relative ova 2 (log10)</t>
+    <t>Median rel ova 2</t>
+  </si>
+  <si>
+    <t>method</t>
+  </si>
+  <si>
+    <t>alternative</t>
+  </si>
+  <si>
+    <t>statistic</t>
+  </si>
+  <si>
+    <t>estimate</t>
+  </si>
+  <si>
+    <t>conf.low</t>
+  </si>
+  <si>
+    <t>conf.high</t>
+  </si>
+  <si>
+    <t>p.value</t>
   </si>
   <si>
     <t>p_adj</t>
@@ -56,13 +77,13 @@
     <t>Fibroblast/Stromal Cells (Day 14)</t>
   </si>
   <si>
-    <t>CCR7hi Mig cDC1</t>
-  </si>
-  <si>
-    <t>cDC2 Tbet-</t>
+    <t>B cell</t>
   </si>
   <si>
     <t>CCR7hi Langerhans</t>
+  </si>
+  <si>
+    <t>CCR7hi Mig cDC1</t>
   </si>
   <si>
     <t>CCR7hi Mig cDC2</t>
@@ -71,13 +92,10 @@
     <t>cDC1</t>
   </si>
   <si>
-    <t>T cell</t>
+    <t>cDC2 Tbet-</t>
   </si>
   <si>
-    <t>B cell</t>
-  </si>
-  <si>
-    <t>Siglec-H</t>
+    <t>T cell</t>
   </si>
   <si>
     <t>cDC2 Tbet+</t>
@@ -89,25 +107,28 @@
     <t>NK</t>
   </si>
   <si>
-    <t>Ptx3_LEC</t>
+    <t>Siglec-H</t>
   </si>
   <si>
     <t>cLEC</t>
   </si>
   <si>
+    <t>Epithelial</t>
+  </si>
+  <si>
     <t>Marco_LEC</t>
   </si>
   <si>
-    <t>Epithelial</t>
+    <t>Ptx3_LEC</t>
   </si>
   <si>
-    <t>fLEC</t>
+    <t>BEC</t>
   </si>
   <si>
     <t>Collecting</t>
   </si>
   <si>
-    <t>BEC</t>
+    <t>fLEC</t>
   </si>
   <si>
     <t>CD34+SC</t>
@@ -116,16 +137,22 @@
     <t>Cxcl9+TRC</t>
   </si>
   <si>
-    <t>Nr4a1+SC</t>
+    <t>FDC</t>
   </si>
   <si>
     <t>Fibroblast</t>
   </si>
   <si>
-    <t>FDC</t>
+    <t>Nr4a1+SC</t>
   </si>
   <si>
     <t>PvC</t>
+  </si>
+  <si>
+    <t>Wilcoxon rank sum test with continuity correction</t>
+  </si>
+  <si>
+    <t>two.sided</t>
   </si>
 </sst>
 </file>
@@ -201,2041 +228,3700 @@
       <c r="H1" t="s">
         <v>7</v>
       </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="B2" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="C2" t="n">
-        <v>593.0</v>
+        <v>124.0</v>
       </c>
       <c r="D2" t="n">
-        <v>0.07243190423842677</v>
+        <v>0.01514596311225113</v>
       </c>
       <c r="E2" t="n">
+        <v>-0.12493873660829993</v>
+      </c>
+      <c r="F2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2" t="n">
         <v>0.9105651195868222</v>
       </c>
-      <c r="F2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G2" t="n">
-        <v>-0.12493873660829993</v>
-      </c>
-      <c r="H2" t="n">
+      <c r="H2" t="s">
+        <v>45</v>
+      </c>
+      <c r="I2" t="s">
+        <v>46</v>
+      </c>
+      <c r="J2" t="n">
+        <v>8165.5</v>
+      </c>
+      <c r="K2" t="n">
+        <v>-0.977277964809728</v>
+      </c>
+      <c r="L2" t="n">
+        <v>-1.0889823470224063</v>
+      </c>
+      <c r="M2" t="n">
+        <v>-0.8691917029551821</v>
+      </c>
+      <c r="N2" t="n">
+        <v>2.467362939192017E-42</v>
+      </c>
+      <c r="O2" t="n">
         <v>5.181462172303236E-41</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="B3" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="C3" t="n">
-        <v>3680.0</v>
+        <v>124.0</v>
       </c>
       <c r="D3" t="n">
-        <v>0.44949309881519484</v>
+        <v>0.01514596311225113</v>
       </c>
       <c r="E3" t="n">
+        <v>-0.12493873660829993</v>
+      </c>
+      <c r="F3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G3" t="n">
         <v>0.9840269740235865</v>
       </c>
-      <c r="F3" t="s">
-        <v>20</v>
-      </c>
-      <c r="G3" t="n">
-        <v>-0.12493873660829993</v>
-      </c>
-      <c r="H3" t="n">
+      <c r="H3" t="s">
+        <v>45</v>
+      </c>
+      <c r="I3" t="s">
+        <v>46</v>
+      </c>
+      <c r="J3" t="n">
+        <v>76582.5</v>
+      </c>
+      <c r="K3" t="n">
+        <v>-1.0372111444625587</v>
+      </c>
+      <c r="L3" t="n">
+        <v>-1.1929527940181635</v>
+      </c>
+      <c r="M3" t="n">
+        <v>-0.8830466193646129</v>
+      </c>
+      <c r="N3" t="n">
+        <v>2.0748632002512937E-36</v>
+      </c>
+      <c r="O3" t="n">
         <v>4.357212720527717E-35</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="B4" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C4" t="n">
-        <v>285.0</v>
+        <v>124.0</v>
       </c>
       <c r="D4" t="n">
-        <v>0.0348112861854159</v>
+        <v>0.01514596311225113</v>
       </c>
       <c r="E4" t="n">
+        <v>-0.12493873660829993</v>
+      </c>
+      <c r="F4" t="s">
+        <v>22</v>
+      </c>
+      <c r="G4" t="n">
         <v>0.3413245905231541</v>
       </c>
-      <c r="F4" t="s">
-        <v>20</v>
-      </c>
-      <c r="G4" t="n">
-        <v>-0.12493873660829993</v>
-      </c>
-      <c r="H4" t="n">
+      <c r="H4" t="s">
+        <v>45</v>
+      </c>
+      <c r="I4" t="s">
+        <v>46</v>
+      </c>
+      <c r="J4" t="n">
+        <v>7841.0</v>
+      </c>
+      <c r="K4" t="n">
+        <v>-0.43193622229924533</v>
+      </c>
+      <c r="L4" t="n">
+        <v>-0.5098755193978151</v>
+      </c>
+      <c r="M4" t="n">
+        <v>-0.34542724518923273</v>
+      </c>
+      <c r="N4" t="n">
+        <v>3.6842593950552733E-19</v>
+      </c>
+      <c r="O4" t="n">
         <v>7.736944729616075E-18</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="B5" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C5" t="n">
-        <v>2554.0</v>
+        <v>124.0</v>
       </c>
       <c r="D5" t="n">
-        <v>0.3119579821668499</v>
+        <v>0.01514596311225113</v>
       </c>
       <c r="E5" t="n">
+        <v>-0.12493873660829993</v>
+      </c>
+      <c r="F5" t="s">
+        <v>24</v>
+      </c>
+      <c r="G5" t="n">
         <v>0.49677594271613246</v>
       </c>
-      <c r="F5" t="s">
-        <v>20</v>
-      </c>
-      <c r="G5" t="n">
-        <v>-0.12493873660829993</v>
-      </c>
-      <c r="H5" t="n">
+      <c r="H5" t="s">
+        <v>45</v>
+      </c>
+      <c r="I5" t="s">
+        <v>46</v>
+      </c>
+      <c r="J5" t="n">
+        <v>83988.5</v>
+      </c>
+      <c r="K5" t="n">
+        <v>-0.5771516335831163</v>
+      </c>
+      <c r="L5" t="n">
+        <v>-0.724693483021346</v>
+      </c>
+      <c r="M5" t="n">
+        <v>-0.4366955644794255</v>
+      </c>
+      <c r="N5" t="n">
+        <v>9.243088401023627E-19</v>
+      </c>
+      <c r="O5" t="n">
         <v>1.9410485642149617E-17</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="B6" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C6" t="n">
-        <v>272.0</v>
+        <v>124.0</v>
       </c>
       <c r="D6" t="n">
-        <v>0.0332234029559057</v>
+        <v>0.01514596311225113</v>
       </c>
       <c r="E6" t="n">
+        <v>-0.12493873660829993</v>
+      </c>
+      <c r="F6" t="s">
+        <v>25</v>
+      </c>
+      <c r="G6" t="n">
         <v>-0.19457466474969434</v>
       </c>
-      <c r="F6" t="s">
-        <v>20</v>
-      </c>
-      <c r="G6" t="n">
-        <v>-0.12493873660829993</v>
-      </c>
-      <c r="H6" t="n">
+      <c r="H6" t="s">
+        <v>45</v>
+      </c>
+      <c r="I6" t="s">
+        <v>46</v>
+      </c>
+      <c r="J6" t="n">
+        <v>18439.0</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0.08714565184302003</v>
+      </c>
+      <c r="L6" t="n">
+        <v>-0.02558373896699996</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0.1890291862784291</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0.1358626474193736</v>
+      </c>
+      <c r="O6" t="n">
         <v>1.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="B7" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="C7" t="n">
-        <v>593.0</v>
+        <v>285.0</v>
       </c>
       <c r="D7" t="n">
-        <v>0.07243190423842677</v>
+        <v>0.0348112861854159</v>
       </c>
       <c r="E7" t="n">
+        <v>0.3413245905231541</v>
+      </c>
+      <c r="F7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G7" t="n">
         <v>0.9105651195868222</v>
       </c>
-      <c r="F7" t="s">
-        <v>16</v>
-      </c>
-      <c r="G7" t="n">
-        <v>0.3413245905231541</v>
-      </c>
-      <c r="H7" t="n">
+      <c r="H7" t="s">
+        <v>45</v>
+      </c>
+      <c r="I7" t="s">
+        <v>46</v>
+      </c>
+      <c r="J7" t="n">
+        <v>41315.5</v>
+      </c>
+      <c r="K7" t="n">
+        <v>-0.5642339176110133</v>
+      </c>
+      <c r="L7" t="n">
+        <v>-0.6502329404489474</v>
+      </c>
+      <c r="M7" t="n">
+        <v>-0.4771925106682333</v>
+      </c>
+      <c r="N7" t="n">
+        <v>1.2425289389915409E-34</v>
+      </c>
+      <c r="O7" t="n">
         <v>2.609310771882236E-33</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="B8" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="C8" t="n">
-        <v>3680.0</v>
+        <v>285.0</v>
       </c>
       <c r="D8" t="n">
-        <v>0.44949309881519484</v>
+        <v>0.0348112861854159</v>
       </c>
       <c r="E8" t="n">
+        <v>0.3413245905231541</v>
+      </c>
+      <c r="F8" t="s">
+        <v>26</v>
+      </c>
+      <c r="G8" t="n">
         <v>0.9840269740235865</v>
       </c>
-      <c r="F8" t="s">
-        <v>16</v>
-      </c>
-      <c r="G8" t="n">
-        <v>0.3413245905231541</v>
-      </c>
-      <c r="H8" t="n">
+      <c r="H8" t="s">
+        <v>45</v>
+      </c>
+      <c r="I8" t="s">
+        <v>46</v>
+      </c>
+      <c r="J8" t="n">
+        <v>306064.5</v>
+      </c>
+      <c r="K8" t="n">
+        <v>-0.6328928408299445</v>
+      </c>
+      <c r="L8" t="n">
+        <v>-0.7382843040611572</v>
+      </c>
+      <c r="M8" t="n">
+        <v>-0.5271175654733727</v>
+      </c>
+      <c r="N8" t="n">
+        <v>9.239836219266599E-32</v>
+      </c>
+      <c r="O8" t="n">
         <v>1.9403656060459856E-30</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="B9" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="C9" t="n">
-        <v>272.0</v>
+        <v>285.0</v>
       </c>
       <c r="D9" t="n">
-        <v>0.0332234029559057</v>
+        <v>0.0348112861854159</v>
       </c>
       <c r="E9" t="n">
+        <v>0.3413245905231541</v>
+      </c>
+      <c r="F9" t="s">
+        <v>25</v>
+      </c>
+      <c r="G9" t="n">
         <v>-0.19457466474969434</v>
       </c>
-      <c r="F9" t="s">
-        <v>16</v>
-      </c>
-      <c r="G9" t="n">
-        <v>0.3413245905231541</v>
-      </c>
-      <c r="H9" t="n">
+      <c r="H9" t="s">
+        <v>45</v>
+      </c>
+      <c r="I9" t="s">
+        <v>46</v>
+      </c>
+      <c r="J9" t="n">
+        <v>54358.5</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0.4852977339769989</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0.3888339166135335</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0.5798104041388487</v>
+      </c>
+      <c r="N9" t="n">
+        <v>2.089180205233107E-16</v>
+      </c>
+      <c r="O9" t="n">
         <v>4.387278430989524E-15</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="B10" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="C10" t="n">
-        <v>679.0</v>
+        <v>285.0</v>
       </c>
       <c r="D10" t="n">
-        <v>0.08293636252595578</v>
+        <v>0.0348112861854159</v>
       </c>
       <c r="E10" t="n">
+        <v>0.3413245905231541</v>
+      </c>
+      <c r="F10" t="s">
+        <v>27</v>
+      </c>
+      <c r="G10" t="n">
         <v>0.03476210625921191</v>
       </c>
-      <c r="F10" t="s">
-        <v>16</v>
-      </c>
-      <c r="G10" t="n">
-        <v>0.3413245905231541</v>
-      </c>
-      <c r="H10" t="n">
+      <c r="H10" t="s">
+        <v>45</v>
+      </c>
+      <c r="I10" t="s">
+        <v>46</v>
+      </c>
+      <c r="J10" t="n">
+        <v>124386.0</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0.26529996530688127</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0.19480477983791725</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0.3335643011366611</v>
+      </c>
+      <c r="N10" t="n">
+        <v>2.4776706053677667E-12</v>
+      </c>
+      <c r="O10" t="n">
         <v>5.20310827127231E-11</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="B11" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="C11" t="n">
-        <v>2554.0</v>
+        <v>285.0</v>
       </c>
       <c r="D11" t="n">
-        <v>0.3119579821668499</v>
+        <v>0.0348112861854159</v>
       </c>
       <c r="E11" t="n">
+        <v>0.3413245905231541</v>
+      </c>
+      <c r="F11" t="s">
+        <v>24</v>
+      </c>
+      <c r="G11" t="n">
         <v>0.49677594271613246</v>
       </c>
-      <c r="F11" t="s">
-        <v>16</v>
-      </c>
-      <c r="G11" t="n">
-        <v>0.3413245905231541</v>
-      </c>
-      <c r="H11" t="n">
+      <c r="H11" t="s">
+        <v>45</v>
+      </c>
+      <c r="I11" t="s">
+        <v>46</v>
+      </c>
+      <c r="J11" t="n">
+        <v>314919.5</v>
+      </c>
+      <c r="K11" t="n">
+        <v>-0.18370605117782668</v>
+      </c>
+      <c r="L11" t="n">
+        <v>-0.28626411784794303</v>
+      </c>
+      <c r="M11" t="n">
+        <v>-0.08496259162822395</v>
+      </c>
+      <c r="N11" t="n">
+        <v>1.8741140585072131E-4</v>
+      </c>
+      <c r="O11" t="n">
         <v>0.003935639522865147</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="B12" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C12" t="n">
-        <v>679.0</v>
+        <v>593.0</v>
       </c>
       <c r="D12" t="n">
-        <v>0.08293636252595578</v>
+        <v>0.07243190423842677</v>
       </c>
       <c r="E12" t="n">
+        <v>0.9105651195868222</v>
+      </c>
+      <c r="F12" t="s">
+        <v>27</v>
+      </c>
+      <c r="G12" t="n">
         <v>0.03476210625921191</v>
       </c>
-      <c r="F12" t="s">
-        <v>14</v>
-      </c>
-      <c r="G12" t="n">
-        <v>0.9105651195868222</v>
-      </c>
-      <c r="H12" t="n">
+      <c r="H12" t="s">
+        <v>45</v>
+      </c>
+      <c r="I12" t="s">
+        <v>46</v>
+      </c>
+      <c r="J12" t="n">
+        <v>322240.0</v>
+      </c>
+      <c r="K12" t="n">
+        <v>0.805604585780902</v>
+      </c>
+      <c r="L12" t="n">
+        <v>0.7335233622298298</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0.8783508735075045</v>
+      </c>
+      <c r="N12" t="n">
+        <v>1.9828434387603752E-76</v>
+      </c>
+      <c r="O12" t="n">
         <v>4.1639712213967877E-75</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="B13" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C13" t="n">
-        <v>272.0</v>
+        <v>593.0</v>
       </c>
       <c r="D13" t="n">
-        <v>0.0332234029559057</v>
+        <v>0.07243190423842677</v>
       </c>
       <c r="E13" t="n">
+        <v>0.9105651195868222</v>
+      </c>
+      <c r="F13" t="s">
+        <v>25</v>
+      </c>
+      <c r="G13" t="n">
         <v>-0.19457466474969434</v>
       </c>
-      <c r="F13" t="s">
-        <v>14</v>
-      </c>
-      <c r="G13" t="n">
-        <v>0.9105651195868222</v>
-      </c>
-      <c r="H13" t="n">
+      <c r="H13" t="s">
+        <v>45</v>
+      </c>
+      <c r="I13" t="s">
+        <v>46</v>
+      </c>
+      <c r="J13" t="n">
+        <v>131095.0</v>
+      </c>
+      <c r="K13" t="n">
+        <v>1.0091478733788282</v>
+      </c>
+      <c r="L13" t="n">
+        <v>0.9072272119021084</v>
+      </c>
+      <c r="M13" t="n">
+        <v>1.1139376518620037</v>
+      </c>
+      <c r="N13" t="n">
+        <v>1.7861593062927984E-49</v>
+      </c>
+      <c r="O13" t="n">
         <v>3.750934543214877E-48</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="B14" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="C14" t="n">
-        <v>2554.0</v>
+        <v>593.0</v>
       </c>
       <c r="D14" t="n">
-        <v>0.3119579821668499</v>
+        <v>0.07243190423842677</v>
       </c>
       <c r="E14" t="n">
+        <v>0.9105651195868222</v>
+      </c>
+      <c r="F14" t="s">
+        <v>24</v>
+      </c>
+      <c r="G14" t="n">
         <v>0.49677594271613246</v>
       </c>
-      <c r="F14" t="s">
-        <v>14</v>
-      </c>
-      <c r="G14" t="n">
-        <v>0.9105651195868222</v>
-      </c>
-      <c r="H14" t="n">
+      <c r="H14" t="s">
+        <v>45</v>
+      </c>
+      <c r="I14" t="s">
+        <v>46</v>
+      </c>
+      <c r="J14" t="n">
+        <v>916193.0</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0.3454729076974495</v>
+      </c>
+      <c r="L14" t="n">
+        <v>0.2638468208643333</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0.42642342956591356</v>
+      </c>
+      <c r="N14" t="n">
+        <v>1.5396550347501198E-15</v>
+      </c>
+      <c r="O14" t="n">
         <v>3.233275572975251E-14</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="B15" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="C15" t="n">
-        <v>3680.0</v>
+        <v>593.0</v>
       </c>
       <c r="D15" t="n">
-        <v>0.44949309881519484</v>
+        <v>0.07243190423842677</v>
       </c>
       <c r="E15" t="n">
+        <v>0.9105651195868222</v>
+      </c>
+      <c r="F15" t="s">
+        <v>26</v>
+      </c>
+      <c r="G15" t="n">
         <v>0.9840269740235865</v>
       </c>
-      <c r="F15" t="s">
-        <v>14</v>
-      </c>
-      <c r="G15" t="n">
-        <v>0.9105651195868222</v>
-      </c>
-      <c r="H15" t="n">
+      <c r="H15" t="s">
+        <v>45</v>
+      </c>
+      <c r="I15" t="s">
+        <v>46</v>
+      </c>
+      <c r="J15" t="n">
+        <v>1050135.5</v>
+      </c>
+      <c r="K15" t="n">
+        <v>-0.06062527663483362</v>
+      </c>
+      <c r="L15" t="n">
+        <v>-0.14113226894785963</v>
+      </c>
+      <c r="M15" t="n">
+        <v>0.019775052199080843</v>
+      </c>
+      <c r="N15" t="n">
+        <v>0.14154038668442293</v>
+      </c>
+      <c r="O15" t="n">
         <v>1.0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="C16" t="n">
-        <v>3680.0</v>
+        <v>2554.0</v>
       </c>
       <c r="D16" t="n">
-        <v>0.44949309881519484</v>
+        <v>0.3119579821668499</v>
       </c>
       <c r="E16" t="n">
+        <v>0.49677594271613246</v>
+      </c>
+      <c r="F16" t="s">
+        <v>26</v>
+      </c>
+      <c r="G16" t="n">
         <v>0.9840269740235865</v>
       </c>
-      <c r="F16" t="s">
-        <v>17</v>
-      </c>
-      <c r="G16" t="n">
-        <v>0.49677594271613246</v>
-      </c>
-      <c r="H16" t="n">
+      <c r="H16" t="s">
+        <v>45</v>
+      </c>
+      <c r="I16" t="s">
+        <v>46</v>
+      </c>
+      <c r="J16" t="n">
+        <v>3771470.0</v>
+      </c>
+      <c r="K16" t="n">
+        <v>-0.3565731893678759</v>
+      </c>
+      <c r="L16" t="n">
+        <v>-0.4087222115345463</v>
+      </c>
+      <c r="M16" t="n">
+        <v>-0.3058612457338713</v>
+      </c>
+      <c r="N16" t="n">
+        <v>3.0912815870264123E-40</v>
+      </c>
+      <c r="O16" t="n">
         <v>6.491691332755466E-39</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="C17" t="n">
-        <v>679.0</v>
+        <v>2554.0</v>
       </c>
       <c r="D17" t="n">
-        <v>0.08293636252595578</v>
+        <v>0.3119579821668499</v>
       </c>
       <c r="E17" t="n">
+        <v>0.49677594271613246</v>
+      </c>
+      <c r="F17" t="s">
+        <v>27</v>
+      </c>
+      <c r="G17" t="n">
         <v>0.03476210625921191</v>
       </c>
-      <c r="F17" t="s">
-        <v>17</v>
-      </c>
-      <c r="G17" t="n">
-        <v>0.49677594271613246</v>
-      </c>
-      <c r="H17" t="n">
+      <c r="H17" t="s">
+        <v>45</v>
+      </c>
+      <c r="I17" t="s">
+        <v>46</v>
+      </c>
+      <c r="J17" t="n">
+        <v>1131458.5</v>
+      </c>
+      <c r="K17" t="n">
+        <v>0.4171909983718535</v>
+      </c>
+      <c r="L17" t="n">
+        <v>0.34841614171680085</v>
+      </c>
+      <c r="M17" t="n">
+        <v>0.488537945222249</v>
+      </c>
+      <c r="N17" t="n">
+        <v>2.1480696304275928E-34</v>
+      </c>
+      <c r="O17" t="n">
         <v>4.510946223897945E-33</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="B18" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="C18" t="n">
-        <v>272.0</v>
+        <v>2554.0</v>
       </c>
       <c r="D18" t="n">
-        <v>0.0332234029559057</v>
+        <v>0.3119579821668499</v>
       </c>
       <c r="E18" t="n">
+        <v>0.49677594271613246</v>
+      </c>
+      <c r="F18" t="s">
+        <v>25</v>
+      </c>
+      <c r="G18" t="n">
         <v>-0.19457466474969434</v>
       </c>
-      <c r="F18" t="s">
-        <v>17</v>
-      </c>
-      <c r="G18" t="n">
-        <v>0.49677594271613246</v>
-      </c>
-      <c r="H18" t="n">
+      <c r="H18" t="s">
+        <v>45</v>
+      </c>
+      <c r="I18" t="s">
+        <v>46</v>
+      </c>
+      <c r="J18" t="n">
+        <v>494981.0</v>
+      </c>
+      <c r="K18" t="n">
+        <v>0.6272041324996057</v>
+      </c>
+      <c r="L18" t="n">
+        <v>0.5195545519577376</v>
+      </c>
+      <c r="M18" t="n">
+        <v>0.7351937312041407</v>
+      </c>
+      <c r="N18" t="n">
+        <v>8.162785603479468E-31</v>
+      </c>
+      <c r="O18" t="n">
         <v>1.7141849767306883E-29</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="B19" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="C19" t="n">
-        <v>3680.0</v>
+        <v>272.0</v>
       </c>
       <c r="D19" t="n">
-        <v>0.44949309881519484</v>
+        <v>0.0332234029559057</v>
       </c>
       <c r="E19" t="n">
+        <v>-0.19457466474969434</v>
+      </c>
+      <c r="F19" t="s">
+        <v>26</v>
+      </c>
+      <c r="G19" t="n">
         <v>0.9840269740235865</v>
       </c>
-      <c r="F19" t="s">
-        <v>18</v>
-      </c>
-      <c r="G19" t="n">
-        <v>-0.19457466474969434</v>
-      </c>
-      <c r="H19" t="n">
+      <c r="H19" t="s">
+        <v>45</v>
+      </c>
+      <c r="I19" t="s">
+        <v>46</v>
+      </c>
+      <c r="J19" t="n">
+        <v>210002.5</v>
+      </c>
+      <c r="K19" t="n">
+        <v>-1.0268375600558666</v>
+      </c>
+      <c r="L19" t="n">
+        <v>-1.1445012771026903</v>
+      </c>
+      <c r="M19" t="n">
+        <v>-0.9107432122593404</v>
+      </c>
+      <c r="N19" t="n">
+        <v>1.3410685093641284E-57</v>
+      </c>
+      <c r="O19" t="n">
         <v>2.8162438696646695E-56</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="B20" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="C20" t="n">
-        <v>679.0</v>
+        <v>272.0</v>
       </c>
       <c r="D20" t="n">
-        <v>0.08293636252595578</v>
+        <v>0.0332234029559057</v>
       </c>
       <c r="E20" t="n">
+        <v>-0.19457466474969434</v>
+      </c>
+      <c r="F20" t="s">
+        <v>27</v>
+      </c>
+      <c r="G20" t="n">
         <v>0.03476210625921191</v>
       </c>
-      <c r="F20" t="s">
-        <v>18</v>
-      </c>
-      <c r="G20" t="n">
-        <v>-0.19457466474969434</v>
-      </c>
-      <c r="H20" t="n">
+      <c r="H20" t="s">
+        <v>45</v>
+      </c>
+      <c r="I20" t="s">
+        <v>46</v>
+      </c>
+      <c r="J20" t="n">
+        <v>73387.5</v>
+      </c>
+      <c r="K20" t="n">
+        <v>-0.22188117789005204</v>
+      </c>
+      <c r="L20" t="n">
+        <v>-0.3135905510432545</v>
+      </c>
+      <c r="M20" t="n">
+        <v>-0.13471398714301164</v>
+      </c>
+      <c r="N20" t="n">
+        <v>7.287954897974332E-7</v>
+      </c>
+      <c r="O20" t="n">
         <v>1.5304705285746097E-5</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="B21" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="C21" t="n">
-        <v>679.0</v>
+        <v>3680.0</v>
       </c>
       <c r="D21" t="n">
-        <v>0.08293636252595578</v>
+        <v>0.44949309881519484</v>
       </c>
       <c r="E21" t="n">
+        <v>0.9840269740235865</v>
+      </c>
+      <c r="F21" t="s">
+        <v>27</v>
+      </c>
+      <c r="G21" t="n">
         <v>0.03476210625921191</v>
       </c>
-      <c r="F21" t="s">
-        <v>15</v>
-      </c>
-      <c r="G21" t="n">
-        <v>0.9840269740235865</v>
-      </c>
-      <c r="H21" t="n">
+      <c r="H21" t="s">
+        <v>45</v>
+      </c>
+      <c r="I21" t="s">
+        <v>46</v>
+      </c>
+      <c r="J21" t="n">
+        <v>1896483.0</v>
+      </c>
+      <c r="K21" t="n">
+        <v>0.8451617691597779</v>
+      </c>
+      <c r="L21" t="n">
+        <v>0.7700836556359751</v>
+      </c>
+      <c r="M21" t="n">
+        <v>0.920451277947754</v>
+      </c>
+      <c r="N21" t="n">
+        <v>2.525695504035462E-102</v>
+      </c>
+      <c r="O21" t="n">
         <v>5.30396055847447E-101</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="B22" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="C22" t="n">
-        <v>124.0</v>
+        <v>679.0</v>
       </c>
       <c r="D22" t="n">
-        <v>0.01514596311225113</v>
+        <v>0.08293636252595578</v>
       </c>
       <c r="E22" t="n">
+        <v>0.03476210625921191</v>
+      </c>
+      <c r="F22" t="s">
+        <v>21</v>
+      </c>
+      <c r="G22" t="n">
         <v>-0.12493873660829993</v>
       </c>
-      <c r="F22" t="s">
-        <v>19</v>
-      </c>
-      <c r="G22" t="n">
-        <v>0.03476210625921191</v>
-      </c>
-      <c r="H22" t="n">
+      <c r="H22" t="s">
+        <v>45</v>
+      </c>
+      <c r="I22" t="s">
+        <v>46</v>
+      </c>
+      <c r="J22" t="n">
+        <v>50610.0</v>
+      </c>
+      <c r="K22" t="n">
+        <v>0.15256406312674337</v>
+      </c>
+      <c r="L22" t="n">
+        <v>0.06962972165629755</v>
+      </c>
+      <c r="M22" t="n">
+        <v>0.23554086875840605</v>
+      </c>
+      <c r="N22" t="n">
+        <v>3.3760637576605754E-4</v>
+      </c>
+      <c r="O22" t="n">
         <v>0.007089733891087208</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="B23" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="C23" t="n">
-        <v>177.0</v>
+        <v>72.0</v>
       </c>
       <c r="D23" t="n">
-        <v>0.036570247933884296</v>
+        <v>0.01487603305785124</v>
       </c>
       <c r="E23" t="n">
+        <v>0.0233306647794598</v>
+      </c>
+      <c r="F23" t="s">
+        <v>23</v>
+      </c>
+      <c r="G23" t="n">
         <v>0.829303772831025</v>
       </c>
-      <c r="F23" t="s">
-        <v>20</v>
-      </c>
-      <c r="G23" t="n">
-        <v>0.0233306647794598</v>
-      </c>
-      <c r="H23" t="n">
+      <c r="H23" t="s">
+        <v>45</v>
+      </c>
+      <c r="I23" t="s">
+        <v>46</v>
+      </c>
+      <c r="J23" t="n">
+        <v>2406.5</v>
+      </c>
+      <c r="K23" t="n">
+        <v>-0.8451077971997719</v>
+      </c>
+      <c r="L23" t="n">
+        <v>-1.1032789998976336</v>
+      </c>
+      <c r="M23" t="n">
+        <v>-0.599365342768094</v>
+      </c>
+      <c r="N23" t="n">
+        <v>1.4055339495364513E-14</v>
+      </c>
+      <c r="O23" t="n">
         <v>6.324902772914031E-13</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="B24" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="C24" t="n">
-        <v>1541.0</v>
+        <v>72.0</v>
       </c>
       <c r="D24" t="n">
-        <v>0.3183884297520661</v>
+        <v>0.01487603305785124</v>
       </c>
       <c r="E24" t="n">
+        <v>0.0233306647794598</v>
+      </c>
+      <c r="F24" t="s">
+        <v>26</v>
+      </c>
+      <c r="G24" t="n">
         <v>0.43046923349895755</v>
       </c>
-      <c r="F24" t="s">
-        <v>20</v>
-      </c>
-      <c r="G24" t="n">
-        <v>0.0233306647794598</v>
-      </c>
-      <c r="H24" t="n">
+      <c r="H24" t="s">
+        <v>45</v>
+      </c>
+      <c r="I24" t="s">
+        <v>46</v>
+      </c>
+      <c r="J24" t="n">
+        <v>26482.0</v>
+      </c>
+      <c r="K24" t="n">
+        <v>-0.4404552529096499</v>
+      </c>
+      <c r="L24" t="n">
+        <v>-0.5706662755009718</v>
+      </c>
+      <c r="M24" t="n">
+        <v>-0.32552601315869667</v>
+      </c>
+      <c r="N24" t="n">
+        <v>6.107326428822533E-14</v>
+      </c>
+      <c r="O24" t="n">
         <v>2.74829689297014E-12</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="B25" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C25" t="n">
-        <v>933.0</v>
+        <v>72.0</v>
       </c>
       <c r="D25" t="n">
-        <v>0.19276859504132232</v>
+        <v>0.01487603305785124</v>
       </c>
       <c r="E25" t="n">
+        <v>0.0233306647794598</v>
+      </c>
+      <c r="F25" t="s">
+        <v>24</v>
+      </c>
+      <c r="G25" t="n">
         <v>0.3413245905231541</v>
       </c>
-      <c r="F25" t="s">
-        <v>20</v>
-      </c>
-      <c r="G25" t="n">
-        <v>0.0233306647794598</v>
-      </c>
-      <c r="H25" t="n">
+      <c r="H25" t="s">
+        <v>45</v>
+      </c>
+      <c r="I25" t="s">
+        <v>46</v>
+      </c>
+      <c r="J25" t="n">
+        <v>18309.0</v>
+      </c>
+      <c r="K25" t="n">
+        <v>-0.3203530058879741</v>
+      </c>
+      <c r="L25" t="n">
+        <v>-0.4217946877223727</v>
+      </c>
+      <c r="M25" t="n">
+        <v>-0.22373659445509692</v>
+      </c>
+      <c r="N25" t="n">
+        <v>1.2043550302414292E-10</v>
+      </c>
+      <c r="O25" t="n">
         <v>5.4195976360864315E-9</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="B26" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C26" t="n">
-        <v>709.0</v>
+        <v>72.0</v>
       </c>
       <c r="D26" t="n">
-        <v>0.1464876033057851</v>
+        <v>0.01487603305785124</v>
       </c>
       <c r="E26" t="n">
+        <v>0.0233306647794598</v>
+      </c>
+      <c r="F26" t="s">
+        <v>25</v>
+      </c>
+      <c r="G26" t="n">
         <v>-0.09390450286833116</v>
       </c>
-      <c r="F26" t="s">
-        <v>20</v>
-      </c>
-      <c r="G26" t="n">
-        <v>0.0233306647794598</v>
-      </c>
-      <c r="H26" t="n">
+      <c r="H26" t="s">
+        <v>45</v>
+      </c>
+      <c r="I26" t="s">
+        <v>46</v>
+      </c>
+      <c r="J26" t="n">
+        <v>31491.5</v>
+      </c>
+      <c r="K26" t="n">
+        <v>0.1286881856047724</v>
+      </c>
+      <c r="L26" t="n">
+        <v>0.052114405036401676</v>
+      </c>
+      <c r="M26" t="n">
+        <v>0.19630730998946228</v>
+      </c>
+      <c r="N26" t="n">
+        <v>0.001062874842055345</v>
+      </c>
+      <c r="O26" t="n">
         <v>0.04782936789249053</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="B27" t="s">
         <v>21</v>
       </c>
       <c r="C27" t="n">
-        <v>124.0</v>
+        <v>72.0</v>
       </c>
       <c r="D27" t="n">
-        <v>0.0256198347107438</v>
+        <v>0.01487603305785124</v>
       </c>
       <c r="E27" t="n">
+        <v>0.0233306647794598</v>
+      </c>
+      <c r="F27" t="s">
+        <v>31</v>
+      </c>
+      <c r="G27" t="n">
         <v>-0.06494080693301456</v>
       </c>
-      <c r="F27" t="s">
-        <v>20</v>
-      </c>
-      <c r="G27" t="n">
-        <v>0.0233306647794598</v>
-      </c>
-      <c r="H27" t="n">
+      <c r="H27" t="s">
+        <v>45</v>
+      </c>
+      <c r="I27" t="s">
+        <v>46</v>
+      </c>
+      <c r="J27" t="n">
+        <v>5428.5</v>
+      </c>
+      <c r="K27" t="n">
+        <v>0.10695061348618279</v>
+      </c>
+      <c r="L27" t="n">
+        <v>0.028942016006025723</v>
+      </c>
+      <c r="M27" t="n">
+        <v>0.18680616097372676</v>
+      </c>
+      <c r="N27" t="n">
+        <v>0.011745850439663428</v>
+      </c>
+      <c r="O27" t="n">
         <v>0.5285632697848542</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="B28" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C28" t="n">
-        <v>430.0</v>
+        <v>72.0</v>
       </c>
       <c r="D28" t="n">
-        <v>0.08884297520661157</v>
+        <v>0.01487603305785124</v>
       </c>
       <c r="E28" t="n">
+        <v>0.0233306647794598</v>
+      </c>
+      <c r="F28" t="s">
+        <v>28</v>
+      </c>
+      <c r="G28" t="n">
         <v>0.01189922329970769</v>
       </c>
-      <c r="F28" t="s">
-        <v>20</v>
-      </c>
-      <c r="G28" t="n">
-        <v>0.0233306647794598</v>
-      </c>
-      <c r="H28" t="n">
+      <c r="H28" t="s">
+        <v>45</v>
+      </c>
+      <c r="I28" t="s">
+        <v>46</v>
+      </c>
+      <c r="J28" t="n">
+        <v>15359.0</v>
+      </c>
+      <c r="K28" t="n">
+        <v>-4.306211292792921E-5</v>
+      </c>
+      <c r="L28" t="n">
+        <v>-0.09542285587389684</v>
+      </c>
+      <c r="M28" t="n">
+        <v>0.0857102987255503</v>
+      </c>
+      <c r="N28" t="n">
+        <v>0.9157275552216846</v>
+      </c>
+      <c r="O28" t="n">
         <v>1.0</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="B29" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C29" t="n">
-        <v>401.0</v>
+        <v>72.0</v>
       </c>
       <c r="D29" t="n">
-        <v>0.08285123966942148</v>
+        <v>0.01487603305785124</v>
       </c>
       <c r="E29" t="n">
+        <v>0.0233306647794598</v>
+      </c>
+      <c r="F29" t="s">
+        <v>29</v>
+      </c>
+      <c r="G29" t="n">
         <v>0.07716595481229925</v>
       </c>
-      <c r="F29" t="s">
-        <v>20</v>
-      </c>
-      <c r="G29" t="n">
-        <v>0.0233306647794598</v>
-      </c>
-      <c r="H29" t="n">
+      <c r="H29" t="s">
+        <v>45</v>
+      </c>
+      <c r="I29" t="s">
+        <v>46</v>
+      </c>
+      <c r="J29" t="n">
+        <v>12337.0</v>
+      </c>
+      <c r="K29" t="n">
+        <v>-0.08713812092844382</v>
+      </c>
+      <c r="L29" t="n">
+        <v>-0.18165828485335062</v>
+      </c>
+      <c r="M29" t="n">
+        <v>-2.01301382556304E-5</v>
+      </c>
+      <c r="N29" t="n">
+        <v>0.04934667036329719</v>
+      </c>
+      <c r="O29" t="n">
         <v>1.0</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="B30" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C30" t="n">
-        <v>211.0</v>
+        <v>72.0</v>
       </c>
       <c r="D30" t="n">
-        <v>0.04359504132231405</v>
+        <v>0.01487603305785124</v>
       </c>
       <c r="E30" t="n">
+        <v>0.0233306647794598</v>
+      </c>
+      <c r="F30" t="s">
+        <v>30</v>
+      </c>
+      <c r="G30" t="n">
         <v>0.07716595481229925</v>
       </c>
-      <c r="F30" t="s">
-        <v>20</v>
-      </c>
-      <c r="G30" t="n">
-        <v>0.0233306647794598</v>
-      </c>
-      <c r="H30" t="n">
+      <c r="H30" t="s">
+        <v>45</v>
+      </c>
+      <c r="I30" t="s">
+        <v>46</v>
+      </c>
+      <c r="J30" t="n">
+        <v>6736.5</v>
+      </c>
+      <c r="K30" t="n">
+        <v>-0.05671726506457042</v>
+      </c>
+      <c r="L30" t="n">
+        <v>-0.13057713728110248</v>
+      </c>
+      <c r="M30" t="n">
+        <v>0.021730157668238187</v>
+      </c>
+      <c r="N30" t="n">
+        <v>0.1518017122541419</v>
+      </c>
+      <c r="O30" t="n">
         <v>1.0</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="B31" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C31" t="n">
-        <v>709.0</v>
+        <v>177.0</v>
       </c>
       <c r="D31" t="n">
-        <v>0.1464876033057851</v>
+        <v>0.036570247933884296</v>
       </c>
       <c r="E31" t="n">
+        <v>0.829303772831025</v>
+      </c>
+      <c r="F31" t="s">
+        <v>25</v>
+      </c>
+      <c r="G31" t="n">
         <v>-0.09390450286833116</v>
       </c>
-      <c r="F31" t="s">
-        <v>14</v>
-      </c>
-      <c r="G31" t="n">
-        <v>0.829303772831025</v>
-      </c>
-      <c r="H31" t="n">
+      <c r="H31" t="s">
+        <v>45</v>
+      </c>
+      <c r="I31" t="s">
+        <v>46</v>
+      </c>
+      <c r="J31" t="n">
+        <v>105606.5</v>
+      </c>
+      <c r="K31" t="n">
+        <v>0.9642263267342887</v>
+      </c>
+      <c r="L31" t="n">
+        <v>0.8161318506681947</v>
+      </c>
+      <c r="M31" t="n">
+        <v>1.1199125538331125</v>
+      </c>
+      <c r="N31" t="n">
+        <v>5.225283792279959E-45</v>
+      </c>
+      <c r="O31" t="n">
         <v>2.3513777065259816E-43</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="B32" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C32" t="n">
-        <v>242.0</v>
+        <v>177.0</v>
       </c>
       <c r="D32" t="n">
-        <v>0.05</v>
+        <v>0.036570247933884296</v>
       </c>
       <c r="E32" t="n">
+        <v>0.829303772831025</v>
+      </c>
+      <c r="F32" t="s">
+        <v>27</v>
+      </c>
+      <c r="G32" t="n">
         <v>0.01189922329970769</v>
       </c>
-      <c r="F32" t="s">
-        <v>14</v>
-      </c>
-      <c r="G32" t="n">
-        <v>0.829303772831025</v>
-      </c>
-      <c r="H32" t="n">
+      <c r="H32" t="s">
+        <v>45</v>
+      </c>
+      <c r="I32" t="s">
+        <v>46</v>
+      </c>
+      <c r="J32" t="n">
+        <v>34520.5</v>
+      </c>
+      <c r="K32" t="n">
+        <v>0.8400871395837158</v>
+      </c>
+      <c r="L32" t="n">
+        <v>0.6614323283899659</v>
+      </c>
+      <c r="M32" t="n">
+        <v>1.0209233432632536</v>
+      </c>
+      <c r="N32" t="n">
+        <v>9.821097879042933E-27</v>
+      </c>
+      <c r="O32" t="n">
         <v>4.41949404556932E-25</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="B33" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C33" t="n">
-        <v>430.0</v>
+        <v>177.0</v>
       </c>
       <c r="D33" t="n">
-        <v>0.08884297520661157</v>
+        <v>0.036570247933884296</v>
       </c>
       <c r="E33" t="n">
+        <v>0.829303772831025</v>
+      </c>
+      <c r="F33" t="s">
+        <v>28</v>
+      </c>
+      <c r="G33" t="n">
         <v>0.01189922329970769</v>
       </c>
-      <c r="F33" t="s">
-        <v>14</v>
-      </c>
-      <c r="G33" t="n">
-        <v>0.829303772831025</v>
-      </c>
-      <c r="H33" t="n">
+      <c r="H33" t="s">
+        <v>45</v>
+      </c>
+      <c r="I33" t="s">
+        <v>46</v>
+      </c>
+      <c r="J33" t="n">
+        <v>58835.0</v>
+      </c>
+      <c r="K33" t="n">
+        <v>0.7532812648028346</v>
+      </c>
+      <c r="L33" t="n">
+        <v>0.6010382837096095</v>
+      </c>
+      <c r="M33" t="n">
+        <v>0.9152188033135011</v>
+      </c>
+      <c r="N33" t="n">
+        <v>3.54559711172822E-26</v>
+      </c>
+      <c r="O33" t="n">
         <v>1.5955187002776992E-24</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="B34" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C34" t="n">
-        <v>124.0</v>
+        <v>177.0</v>
       </c>
       <c r="D34" t="n">
-        <v>0.0256198347107438</v>
+        <v>0.036570247933884296</v>
       </c>
       <c r="E34" t="n">
+        <v>0.829303772831025</v>
+      </c>
+      <c r="F34" t="s">
+        <v>31</v>
+      </c>
+      <c r="G34" t="n">
         <v>-0.06494080693301456</v>
       </c>
-      <c r="F34" t="s">
-        <v>14</v>
-      </c>
-      <c r="G34" t="n">
-        <v>0.829303772831025</v>
-      </c>
-      <c r="H34" t="n">
+      <c r="H34" t="s">
+        <v>45</v>
+      </c>
+      <c r="I34" t="s">
+        <v>46</v>
+      </c>
+      <c r="J34" t="n">
+        <v>18455.0</v>
+      </c>
+      <c r="K34" t="n">
+        <v>0.9339424257028615</v>
+      </c>
+      <c r="L34" t="n">
+        <v>0.727656028925632</v>
+      </c>
+      <c r="M34" t="n">
+        <v>1.1498322727110668</v>
+      </c>
+      <c r="N34" t="n">
+        <v>7.73838186672255E-24</v>
+      </c>
+      <c r="O34" t="n">
         <v>3.4822718400251476E-22</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="B35" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C35" t="n">
-        <v>211.0</v>
+        <v>177.0</v>
       </c>
       <c r="D35" t="n">
-        <v>0.04359504132231405</v>
+        <v>0.036570247933884296</v>
       </c>
       <c r="E35" t="n">
+        <v>0.829303772831025</v>
+      </c>
+      <c r="F35" t="s">
+        <v>30</v>
+      </c>
+      <c r="G35" t="n">
         <v>0.07716595481229925</v>
       </c>
-      <c r="F35" t="s">
-        <v>14</v>
-      </c>
-      <c r="G35" t="n">
-        <v>0.829303772831025</v>
-      </c>
-      <c r="H35" t="n">
+      <c r="H35" t="s">
+        <v>45</v>
+      </c>
+      <c r="I35" t="s">
+        <v>46</v>
+      </c>
+      <c r="J35" t="n">
+        <v>29169.5</v>
+      </c>
+      <c r="K35" t="n">
+        <v>0.791930356273263</v>
+      </c>
+      <c r="L35" t="n">
+        <v>0.6139243074771479</v>
+      </c>
+      <c r="M35" t="n">
+        <v>0.981025101343767</v>
+      </c>
+      <c r="N35" t="n">
+        <v>1.4286920180244712E-21</v>
+      </c>
+      <c r="O35" t="n">
         <v>6.42911408111012E-20</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="B36" t="s">
         <v>23</v>
       </c>
       <c r="C36" t="n">
-        <v>401.0</v>
+        <v>177.0</v>
       </c>
       <c r="D36" t="n">
-        <v>0.08285123966942148</v>
+        <v>0.036570247933884296</v>
       </c>
       <c r="E36" t="n">
+        <v>0.829303772831025</v>
+      </c>
+      <c r="F36" t="s">
+        <v>29</v>
+      </c>
+      <c r="G36" t="n">
         <v>0.07716595481229925</v>
       </c>
-      <c r="F36" t="s">
-        <v>14</v>
-      </c>
-      <c r="G36" t="n">
-        <v>0.829303772831025</v>
-      </c>
-      <c r="H36" t="n">
+      <c r="H36" t="s">
+        <v>45</v>
+      </c>
+      <c r="I36" t="s">
+        <v>46</v>
+      </c>
+      <c r="J36" t="n">
+        <v>52952.5</v>
+      </c>
+      <c r="K36" t="n">
+        <v>0.688171226885648</v>
+      </c>
+      <c r="L36" t="n">
+        <v>0.5315286203507685</v>
+      </c>
+      <c r="M36" t="n">
+        <v>0.8450701913214991</v>
+      </c>
+      <c r="N36" t="n">
+        <v>3.796879741720433E-21</v>
+      </c>
+      <c r="O36" t="n">
         <v>1.7085958837741947E-19</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="B37" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="C37" t="n">
-        <v>933.0</v>
+        <v>177.0</v>
       </c>
       <c r="D37" t="n">
-        <v>0.19276859504132232</v>
+        <v>0.036570247933884296</v>
       </c>
       <c r="E37" t="n">
+        <v>0.829303772831025</v>
+      </c>
+      <c r="F37" t="s">
+        <v>24</v>
+      </c>
+      <c r="G37" t="n">
         <v>0.3413245905231541</v>
       </c>
-      <c r="F37" t="s">
-        <v>14</v>
-      </c>
-      <c r="G37" t="n">
-        <v>0.829303772831025</v>
-      </c>
-      <c r="H37" t="n">
+      <c r="H37" t="s">
+        <v>45</v>
+      </c>
+      <c r="I37" t="s">
+        <v>46</v>
+      </c>
+      <c r="J37" t="n">
+        <v>110475.5</v>
+      </c>
+      <c r="K37" t="n">
+        <v>0.483722675032677</v>
+      </c>
+      <c r="L37" t="n">
+        <v>0.34379327111717245</v>
+      </c>
+      <c r="M37" t="n">
+        <v>0.6292728798287899</v>
+      </c>
+      <c r="N37" t="n">
+        <v>9.54908329745799E-13</v>
+      </c>
+      <c r="O37" t="n">
         <v>4.297087483856095E-11</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="B38" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="C38" t="n">
-        <v>1541.0</v>
+        <v>177.0</v>
       </c>
       <c r="D38" t="n">
-        <v>0.3183884297520661</v>
+        <v>0.036570247933884296</v>
       </c>
       <c r="E38" t="n">
+        <v>0.829303772831025</v>
+      </c>
+      <c r="F38" t="s">
+        <v>26</v>
+      </c>
+      <c r="G38" t="n">
         <v>0.43046923349895755</v>
       </c>
-      <c r="F38" t="s">
-        <v>14</v>
-      </c>
-      <c r="G38" t="n">
-        <v>0.829303772831025</v>
-      </c>
-      <c r="H38" t="n">
+      <c r="H38" t="s">
+        <v>45</v>
+      </c>
+      <c r="I38" t="s">
+        <v>46</v>
+      </c>
+      <c r="J38" t="n">
+        <v>168505.5</v>
+      </c>
+      <c r="K38" t="n">
+        <v>0.3416897829253042</v>
+      </c>
+      <c r="L38" t="n">
+        <v>0.20968429386877863</v>
+      </c>
+      <c r="M38" t="n">
+        <v>0.47718100206724806</v>
+      </c>
+      <c r="N38" t="n">
+        <v>2.7502980802501176E-7</v>
+      </c>
+      <c r="O38" t="n">
         <v>1.2376341361125529E-5</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="B39" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="C39" t="n">
-        <v>709.0</v>
+        <v>933.0</v>
       </c>
       <c r="D39" t="n">
-        <v>0.1464876033057851</v>
+        <v>0.19276859504132232</v>
       </c>
       <c r="E39" t="n">
+        <v>0.3413245905231541</v>
+      </c>
+      <c r="F39" t="s">
+        <v>25</v>
+      </c>
+      <c r="G39" t="n">
         <v>-0.09390450286833116</v>
       </c>
-      <c r="F39" t="s">
-        <v>17</v>
-      </c>
-      <c r="G39" t="n">
-        <v>0.3413245905231541</v>
-      </c>
-      <c r="H39" t="n">
+      <c r="H39" t="s">
+        <v>45</v>
+      </c>
+      <c r="I39" t="s">
+        <v>46</v>
+      </c>
+      <c r="J39" t="n">
+        <v>512875.5</v>
+      </c>
+      <c r="K39" t="n">
+        <v>0.44738299679411664</v>
+      </c>
+      <c r="L39" t="n">
+        <v>0.4045193713398213</v>
+      </c>
+      <c r="M39" t="n">
+        <v>0.4933204830539903</v>
+      </c>
+      <c r="N39" t="n">
+        <v>1.1589175612396227E-81</v>
+      </c>
+      <c r="O39" t="n">
         <v>5.2151290255783025E-80</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="B40" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="C40" t="n">
-        <v>242.0</v>
+        <v>933.0</v>
       </c>
       <c r="D40" t="n">
-        <v>0.05</v>
+        <v>0.19276859504132232</v>
       </c>
       <c r="E40" t="n">
+        <v>0.3413245905231541</v>
+      </c>
+      <c r="F40" t="s">
+        <v>27</v>
+      </c>
+      <c r="G40" t="n">
         <v>0.01189922329970769</v>
       </c>
-      <c r="F40" t="s">
-        <v>17</v>
-      </c>
-      <c r="G40" t="n">
-        <v>0.3413245905231541</v>
-      </c>
-      <c r="H40" t="n">
+      <c r="H40" t="s">
+        <v>45</v>
+      </c>
+      <c r="I40" t="s">
+        <v>46</v>
+      </c>
+      <c r="J40" t="n">
+        <v>162504.0</v>
+      </c>
+      <c r="K40" t="n">
+        <v>0.32257880062505484</v>
+      </c>
+      <c r="L40" t="n">
+        <v>0.2644919142236093</v>
+      </c>
+      <c r="M40" t="n">
+        <v>0.3823381952014047</v>
+      </c>
+      <c r="N40" t="n">
+        <v>5.203157607696326E-26</v>
+      </c>
+      <c r="O40" t="n">
         <v>2.341420923463347E-24</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="B41" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C41" t="n">
-        <v>430.0</v>
+        <v>933.0</v>
       </c>
       <c r="D41" t="n">
-        <v>0.08884297520661157</v>
+        <v>0.19276859504132232</v>
       </c>
       <c r="E41" t="n">
+        <v>0.3413245905231541</v>
+      </c>
+      <c r="F41" t="s">
+        <v>28</v>
+      </c>
+      <c r="G41" t="n">
         <v>0.01189922329970769</v>
       </c>
-      <c r="F41" t="s">
-        <v>17</v>
-      </c>
-      <c r="G41" t="n">
-        <v>0.3413245905231541</v>
-      </c>
-      <c r="H41" t="n">
+      <c r="H41" t="s">
+        <v>45</v>
+      </c>
+      <c r="I41" t="s">
+        <v>46</v>
+      </c>
+      <c r="J41" t="n">
+        <v>268826.5</v>
+      </c>
+      <c r="K41" t="n">
+        <v>0.29432917589596125</v>
+      </c>
+      <c r="L41" t="n">
+        <v>0.24131724338062693</v>
+      </c>
+      <c r="M41" t="n">
+        <v>0.3512573254228104</v>
+      </c>
+      <c r="N41" t="n">
+        <v>5.2488532159746215E-24</v>
+      </c>
+      <c r="O41" t="n">
         <v>2.3619839471885794E-22</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="B42" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C42" t="n">
-        <v>124.0</v>
+        <v>933.0</v>
       </c>
       <c r="D42" t="n">
-        <v>0.0256198347107438</v>
+        <v>0.19276859504132232</v>
       </c>
       <c r="E42" t="n">
+        <v>0.3413245905231541</v>
+      </c>
+      <c r="F42" t="s">
+        <v>31</v>
+      </c>
+      <c r="G42" t="n">
         <v>-0.06494080693301456</v>
       </c>
-      <c r="F42" t="s">
-        <v>17</v>
-      </c>
-      <c r="G42" t="n">
-        <v>0.3413245905231541</v>
-      </c>
-      <c r="H42" t="n">
+      <c r="H42" t="s">
+        <v>45</v>
+      </c>
+      <c r="I42" t="s">
+        <v>46</v>
+      </c>
+      <c r="J42" t="n">
+        <v>89719.5</v>
+      </c>
+      <c r="K42" t="n">
+        <v>0.4227055998939472</v>
+      </c>
+      <c r="L42" t="n">
+        <v>0.3462185594634475</v>
+      </c>
+      <c r="M42" t="n">
+        <v>0.5038639281412856</v>
+      </c>
+      <c r="N42" t="n">
+        <v>1.852605225647785E-23</v>
+      </c>
+      <c r="O42" t="n">
         <v>8.336723515415033E-22</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="B43" t="s">
         <v>24</v>
       </c>
       <c r="C43" t="n">
-        <v>211.0</v>
+        <v>933.0</v>
       </c>
       <c r="D43" t="n">
-        <v>0.04359504132231405</v>
+        <v>0.19276859504132232</v>
       </c>
       <c r="E43" t="n">
+        <v>0.3413245905231541</v>
+      </c>
+      <c r="F43" t="s">
+        <v>30</v>
+      </c>
+      <c r="G43" t="n">
         <v>0.07716595481229925</v>
       </c>
-      <c r="F43" t="s">
-        <v>17</v>
-      </c>
-      <c r="G43" t="n">
-        <v>0.3413245905231541</v>
-      </c>
-      <c r="H43" t="n">
+      <c r="H43" t="s">
+        <v>45</v>
+      </c>
+      <c r="I43" t="s">
+        <v>46</v>
+      </c>
+      <c r="J43" t="n">
+        <v>133852.5</v>
+      </c>
+      <c r="K43" t="n">
+        <v>0.2688079625983262</v>
+      </c>
+      <c r="L43" t="n">
+        <v>0.20337686327708604</v>
+      </c>
+      <c r="M43" t="n">
+        <v>0.3340058380970786</v>
+      </c>
+      <c r="N43" t="n">
+        <v>2.9980904696548704E-16</v>
+      </c>
+      <c r="O43" t="n">
         <v>1.3491407113446917E-14</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="B44" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C44" t="n">
-        <v>401.0</v>
+        <v>933.0</v>
       </c>
       <c r="D44" t="n">
-        <v>0.08285123966942148</v>
+        <v>0.19276859504132232</v>
       </c>
       <c r="E44" t="n">
+        <v>0.3413245905231541</v>
+      </c>
+      <c r="F44" t="s">
+        <v>29</v>
+      </c>
+      <c r="G44" t="n">
         <v>0.07716595481229925</v>
       </c>
-      <c r="F44" t="s">
-        <v>17</v>
-      </c>
-      <c r="G44" t="n">
-        <v>0.3413245905231541</v>
-      </c>
-      <c r="H44" t="n">
+      <c r="H44" t="s">
+        <v>45</v>
+      </c>
+      <c r="I44" t="s">
+        <v>46</v>
+      </c>
+      <c r="J44" t="n">
+        <v>234379.0</v>
+      </c>
+      <c r="K44" t="n">
+        <v>0.21829864147171</v>
+      </c>
+      <c r="L44" t="n">
+        <v>0.15976995905076163</v>
+      </c>
+      <c r="M44" t="n">
+        <v>0.27619715859231664</v>
+      </c>
+      <c r="N44" t="n">
+        <v>2.2314220390196305E-13</v>
+      </c>
+      <c r="O44" t="n">
         <v>1.0041399175588338E-11</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="B45" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="C45" t="n">
-        <v>1541.0</v>
+        <v>933.0</v>
       </c>
       <c r="D45" t="n">
-        <v>0.3183884297520661</v>
+        <v>0.19276859504132232</v>
       </c>
       <c r="E45" t="n">
+        <v>0.3413245905231541</v>
+      </c>
+      <c r="F45" t="s">
+        <v>26</v>
+      </c>
+      <c r="G45" t="n">
         <v>0.43046923349895755</v>
       </c>
-      <c r="F45" t="s">
-        <v>17</v>
-      </c>
-      <c r="G45" t="n">
-        <v>0.3413245905231541</v>
-      </c>
-      <c r="H45" t="n">
+      <c r="H45" t="s">
+        <v>45</v>
+      </c>
+      <c r="I45" t="s">
+        <v>46</v>
+      </c>
+      <c r="J45" t="n">
+        <v>631928.5</v>
+      </c>
+      <c r="K45" t="n">
+        <v>-0.12062182899506095</v>
+      </c>
+      <c r="L45" t="n">
+        <v>-0.16827323992781038</v>
+      </c>
+      <c r="M45" t="n">
+        <v>-0.07331526324689597</v>
+      </c>
+      <c r="N45" t="n">
+        <v>4.431849564369491E-7</v>
+      </c>
+      <c r="O45" t="n">
         <v>1.994332303966271E-5</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="B46" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="C46" t="n">
-        <v>1541.0</v>
+        <v>709.0</v>
       </c>
       <c r="D46" t="n">
-        <v>0.3183884297520661</v>
+        <v>0.1464876033057851</v>
       </c>
       <c r="E46" t="n">
+        <v>-0.09390450286833116</v>
+      </c>
+      <c r="F46" t="s">
+        <v>26</v>
+      </c>
+      <c r="G46" t="n">
         <v>0.43046923349895755</v>
       </c>
-      <c r="F46" t="s">
-        <v>18</v>
-      </c>
-      <c r="G46" t="n">
-        <v>-0.09390450286833116</v>
-      </c>
-      <c r="H46" t="n">
+      <c r="H46" t="s">
+        <v>45</v>
+      </c>
+      <c r="I46" t="s">
+        <v>46</v>
+      </c>
+      <c r="J46" t="n">
+        <v>214400.0</v>
+      </c>
+      <c r="K46" t="n">
+        <v>-0.5689692021180403</v>
+      </c>
+      <c r="L46" t="n">
+        <v>-0.6173839027813295</v>
+      </c>
+      <c r="M46" t="n">
+        <v>-0.5205057122190204</v>
+      </c>
+      <c r="N46" t="n">
+        <v>6.410956236766719E-119</v>
+      </c>
+      <c r="O46" t="n">
         <v>2.8849303065450234E-117</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="B47" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C47" t="n">
-        <v>401.0</v>
+        <v>709.0</v>
       </c>
       <c r="D47" t="n">
-        <v>0.08285123966942148</v>
+        <v>0.1464876033057851</v>
       </c>
       <c r="E47" t="n">
+        <v>-0.09390450286833116</v>
+      </c>
+      <c r="F47" t="s">
+        <v>29</v>
+      </c>
+      <c r="G47" t="n">
         <v>0.07716595481229925</v>
       </c>
-      <c r="F47" t="s">
-        <v>18</v>
-      </c>
-      <c r="G47" t="n">
-        <v>-0.09390450286833116</v>
-      </c>
-      <c r="H47" t="n">
+      <c r="H47" t="s">
+        <v>45</v>
+      </c>
+      <c r="I47" t="s">
+        <v>46</v>
+      </c>
+      <c r="J47" t="n">
+        <v>97704.0</v>
+      </c>
+      <c r="K47" t="n">
+        <v>-0.22182271114803492</v>
+      </c>
+      <c r="L47" t="n">
+        <v>-0.26886637620588627</v>
+      </c>
+      <c r="M47" t="n">
+        <v>-0.16917142851594416</v>
+      </c>
+      <c r="N47" t="n">
+        <v>4.419538690579893E-18</v>
+      </c>
+      <c r="O47" t="n">
         <v>1.988792410760952E-16</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="B48" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C48" t="n">
-        <v>211.0</v>
+        <v>709.0</v>
       </c>
       <c r="D48" t="n">
-        <v>0.04359504132231405</v>
+        <v>0.1464876033057851</v>
       </c>
       <c r="E48" t="n">
+        <v>-0.09390450286833116</v>
+      </c>
+      <c r="F48" t="s">
+        <v>30</v>
+      </c>
+      <c r="G48" t="n">
         <v>0.07716595481229925</v>
       </c>
-      <c r="F48" t="s">
-        <v>18</v>
-      </c>
-      <c r="G48" t="n">
-        <v>-0.09390450286833116</v>
-      </c>
-      <c r="H48" t="n">
+      <c r="H48" t="s">
+        <v>45</v>
+      </c>
+      <c r="I48" t="s">
+        <v>46</v>
+      </c>
+      <c r="J48" t="n">
+        <v>51925.0</v>
+      </c>
+      <c r="K48" t="n">
+        <v>-0.18230041896029262</v>
+      </c>
+      <c r="L48" t="n">
+        <v>-0.23190273612405743</v>
+      </c>
+      <c r="M48" t="n">
+        <v>-0.1296544452904708</v>
+      </c>
+      <c r="N48" t="n">
+        <v>1.4415528403026272E-11</v>
+      </c>
+      <c r="O48" t="n">
         <v>6.486987781361823E-10</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="B49" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C49" t="n">
-        <v>430.0</v>
+        <v>709.0</v>
       </c>
       <c r="D49" t="n">
-        <v>0.08884297520661157</v>
+        <v>0.1464876033057851</v>
       </c>
       <c r="E49" t="n">
+        <v>-0.09390450286833116</v>
+      </c>
+      <c r="F49" t="s">
+        <v>28</v>
+      </c>
+      <c r="G49" t="n">
         <v>0.01189922329970769</v>
       </c>
-      <c r="F49" t="s">
-        <v>18</v>
-      </c>
-      <c r="G49" t="n">
-        <v>-0.09390450286833116</v>
-      </c>
-      <c r="H49" t="n">
+      <c r="H49" t="s">
+        <v>45</v>
+      </c>
+      <c r="I49" t="s">
+        <v>46</v>
+      </c>
+      <c r="J49" t="n">
+        <v>121939.0</v>
+      </c>
+      <c r="K49" t="n">
+        <v>-0.1368781275254284</v>
+      </c>
+      <c r="L49" t="n">
+        <v>-0.18565327857347258</v>
+      </c>
+      <c r="M49" t="n">
+        <v>-0.08716673733582705</v>
+      </c>
+      <c r="N49" t="n">
+        <v>1.4344457599129518E-8</v>
+      </c>
+      <c r="O49" t="n">
         <v>6.455005919608283E-7</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="B50" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="C50" t="n">
-        <v>242.0</v>
+        <v>709.0</v>
       </c>
       <c r="D50" t="n">
-        <v>0.05</v>
+        <v>0.1464876033057851</v>
       </c>
       <c r="E50" t="n">
+        <v>-0.09390450286833116</v>
+      </c>
+      <c r="F50" t="s">
+        <v>27</v>
+      </c>
+      <c r="G50" t="n">
         <v>0.01189922329970769</v>
       </c>
-      <c r="F50" t="s">
-        <v>18</v>
-      </c>
-      <c r="G50" t="n">
-        <v>-0.09390450286833116</v>
-      </c>
-      <c r="H50" t="n">
+      <c r="H50" t="s">
+        <v>45</v>
+      </c>
+      <c r="I50" t="s">
+        <v>46</v>
+      </c>
+      <c r="J50" t="n">
+        <v>66880.5</v>
+      </c>
+      <c r="K50" t="n">
+        <v>-0.12191255174631668</v>
+      </c>
+      <c r="L50" t="n">
+        <v>-0.16914635269896916</v>
+      </c>
+      <c r="M50" t="n">
+        <v>-0.07743194712171206</v>
+      </c>
+      <c r="N50" t="n">
+        <v>2.936034717661335E-7</v>
+      </c>
+      <c r="O50" t="n">
         <v>1.3212156229476008E-5</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="B51" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="C51" t="n">
-        <v>124.0</v>
+        <v>709.0</v>
       </c>
       <c r="D51" t="n">
-        <v>0.0256198347107438</v>
+        <v>0.1464876033057851</v>
       </c>
       <c r="E51" t="n">
+        <v>-0.09390450286833116</v>
+      </c>
+      <c r="F51" t="s">
+        <v>31</v>
+      </c>
+      <c r="G51" t="n">
         <v>-0.06494080693301456</v>
       </c>
-      <c r="F51" t="s">
-        <v>18</v>
-      </c>
-      <c r="G51" t="n">
-        <v>-0.09390450286833116</v>
-      </c>
-      <c r="H51" t="n">
+      <c r="H51" t="s">
+        <v>45</v>
+      </c>
+      <c r="I51" t="s">
+        <v>46</v>
+      </c>
+      <c r="J51" t="n">
+        <v>42285.0</v>
+      </c>
+      <c r="K51" t="n">
+        <v>-0.02069637408551101</v>
+      </c>
+      <c r="L51" t="n">
+        <v>-0.08502235231592813</v>
+      </c>
+      <c r="M51" t="n">
+        <v>0.04342417869075421</v>
+      </c>
+      <c r="N51" t="n">
+        <v>0.49839479937867925</v>
+      </c>
+      <c r="O51" t="n">
         <v>1.0</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="B52" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C52" t="n">
-        <v>430.0</v>
+        <v>1541.0</v>
       </c>
       <c r="D52" t="n">
-        <v>0.08884297520661157</v>
+        <v>0.3183884297520661</v>
       </c>
       <c r="E52" t="n">
+        <v>0.43046923349895755</v>
+      </c>
+      <c r="F52" t="s">
+        <v>28</v>
+      </c>
+      <c r="G52" t="n">
         <v>0.01189922329970769</v>
       </c>
-      <c r="F52" t="s">
-        <v>15</v>
-      </c>
-      <c r="G52" t="n">
-        <v>0.43046923349895755</v>
-      </c>
-      <c r="H52" t="n">
+      <c r="H52" t="s">
+        <v>45</v>
+      </c>
+      <c r="I52" t="s">
+        <v>46</v>
+      </c>
+      <c r="J52" t="n">
+        <v>469705.5</v>
+      </c>
+      <c r="K52" t="n">
+        <v>0.4075342837547527</v>
+      </c>
+      <c r="L52" t="n">
+        <v>0.34846571438971474</v>
+      </c>
+      <c r="M52" t="n">
+        <v>0.4682707328432225</v>
+      </c>
+      <c r="N52" t="n">
+        <v>3.802105934232744E-40</v>
+      </c>
+      <c r="O52" t="n">
         <v>1.710947670404735E-38</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="B53" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="C53" t="n">
-        <v>242.0</v>
+        <v>1541.0</v>
       </c>
       <c r="D53" t="n">
-        <v>0.05</v>
+        <v>0.3183884297520661</v>
       </c>
       <c r="E53" t="n">
+        <v>0.43046923349895755</v>
+      </c>
+      <c r="F53" t="s">
+        <v>27</v>
+      </c>
+      <c r="G53" t="n">
         <v>0.01189922329970769</v>
       </c>
-      <c r="F53" t="s">
-        <v>15</v>
-      </c>
-      <c r="G53" t="n">
-        <v>0.43046923349895755</v>
-      </c>
-      <c r="H53" t="n">
+      <c r="H53" t="s">
+        <v>45</v>
+      </c>
+      <c r="I53" t="s">
+        <v>46</v>
+      </c>
+      <c r="J53" t="n">
+        <v>281507.5</v>
+      </c>
+      <c r="K53" t="n">
+        <v>0.4416763202218636</v>
+      </c>
+      <c r="L53" t="n">
+        <v>0.37197944914911824</v>
+      </c>
+      <c r="M53" t="n">
+        <v>0.5134894875172703</v>
+      </c>
+      <c r="N53" t="n">
+        <v>2.5459708447388405E-37</v>
+      </c>
+      <c r="O53" t="n">
         <v>1.1456868801324782E-35</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="B54" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="C54" t="n">
-        <v>124.0</v>
+        <v>1541.0</v>
       </c>
       <c r="D54" t="n">
-        <v>0.0256198347107438</v>
+        <v>0.3183884297520661</v>
       </c>
       <c r="E54" t="n">
+        <v>0.43046923349895755</v>
+      </c>
+      <c r="F54" t="s">
+        <v>31</v>
+      </c>
+      <c r="G54" t="n">
         <v>-0.06494080693301456</v>
       </c>
-      <c r="F54" t="s">
-        <v>15</v>
-      </c>
-      <c r="G54" t="n">
-        <v>0.43046923349895755</v>
-      </c>
-      <c r="H54" t="n">
+      <c r="H54" t="s">
+        <v>45</v>
+      </c>
+      <c r="I54" t="s">
+        <v>46</v>
+      </c>
+      <c r="J54" t="n">
+        <v>153631.5</v>
+      </c>
+      <c r="K54" t="n">
+        <v>0.5428051670270938</v>
+      </c>
+      <c r="L54" t="n">
+        <v>0.44894501724626795</v>
+      </c>
+      <c r="M54" t="n">
+        <v>0.6424418557571151</v>
+      </c>
+      <c r="N54" t="n">
+        <v>1.6713429844671472E-29</v>
+      </c>
+      <c r="O54" t="n">
         <v>7.521043430102162E-28</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="B55" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C55" t="n">
-        <v>401.0</v>
+        <v>1541.0</v>
       </c>
       <c r="D55" t="n">
-        <v>0.08285123966942148</v>
+        <v>0.3183884297520661</v>
       </c>
       <c r="E55" t="n">
+        <v>0.43046923349895755</v>
+      </c>
+      <c r="F55" t="s">
+        <v>29</v>
+      </c>
+      <c r="G55" t="n">
         <v>0.07716595481229925</v>
       </c>
-      <c r="F55" t="s">
-        <v>15</v>
-      </c>
-      <c r="G55" t="n">
-        <v>0.43046923349895755</v>
-      </c>
-      <c r="H55" t="n">
+      <c r="H55" t="s">
+        <v>45</v>
+      </c>
+      <c r="I55" t="s">
+        <v>46</v>
+      </c>
+      <c r="J55" t="n">
+        <v>414635.0</v>
+      </c>
+      <c r="K55" t="n">
+        <v>0.33101330612719176</v>
+      </c>
+      <c r="L55" t="n">
+        <v>0.27173108098774545</v>
+      </c>
+      <c r="M55" t="n">
+        <v>0.3935955344316165</v>
+      </c>
+      <c r="N55" t="n">
+        <v>4.368132236398206E-26</v>
+      </c>
+      <c r="O55" t="n">
         <v>1.9656595063791928E-24</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="B56" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C56" t="n">
-        <v>211.0</v>
+        <v>1541.0</v>
       </c>
       <c r="D56" t="n">
-        <v>0.04359504132231405</v>
+        <v>0.3183884297520661</v>
       </c>
       <c r="E56" t="n">
+        <v>0.43046923349895755</v>
+      </c>
+      <c r="F56" t="s">
+        <v>30</v>
+      </c>
+      <c r="G56" t="n">
         <v>0.07716595481229925</v>
       </c>
-      <c r="F56" t="s">
-        <v>15</v>
-      </c>
-      <c r="G56" t="n">
-        <v>0.43046923349895755</v>
-      </c>
-      <c r="H56" t="n">
+      <c r="H56" t="s">
+        <v>45</v>
+      </c>
+      <c r="I56" t="s">
+        <v>46</v>
+      </c>
+      <c r="J56" t="n">
+        <v>234443.5</v>
+      </c>
+      <c r="K56" t="n">
+        <v>0.3899157781958633</v>
+      </c>
+      <c r="L56" t="n">
+        <v>0.3146232301269324</v>
+      </c>
+      <c r="M56" t="n">
+        <v>0.46967874284846045</v>
+      </c>
+      <c r="N56" t="n">
+        <v>1.8404507224860606E-25</v>
+      </c>
+      <c r="O56" t="n">
         <v>8.282028251187273E-24</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="B57" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="C57" t="n">
-        <v>124.0</v>
+        <v>430.0</v>
       </c>
       <c r="D57" t="n">
-        <v>0.0256198347107438</v>
+        <v>0.08884297520661157</v>
       </c>
       <c r="E57" t="n">
+        <v>0.01189922329970769</v>
+      </c>
+      <c r="F57" t="s">
+        <v>31</v>
+      </c>
+      <c r="G57" t="n">
         <v>-0.06494080693301456</v>
       </c>
-      <c r="F57" t="s">
-        <v>22</v>
-      </c>
-      <c r="G57" t="n">
-        <v>0.01189922329970769</v>
-      </c>
-      <c r="H57" t="n">
+      <c r="H57" t="s">
+        <v>45</v>
+      </c>
+      <c r="I57" t="s">
+        <v>46</v>
+      </c>
+      <c r="J57" t="n">
+        <v>31335.5</v>
+      </c>
+      <c r="K57" t="n">
+        <v>0.11499612569683251</v>
+      </c>
+      <c r="L57" t="n">
+        <v>0.03952441531733779</v>
+      </c>
+      <c r="M57" t="n">
+        <v>0.18914923741470413</v>
+      </c>
+      <c r="N57" t="n">
+        <v>0.0028988572561038143</v>
+      </c>
+      <c r="O57" t="n">
         <v>0.13044857652467165</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="B58" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="C58" t="n">
-        <v>401.0</v>
+        <v>430.0</v>
       </c>
       <c r="D58" t="n">
-        <v>0.08285123966942148</v>
+        <v>0.08884297520661157</v>
       </c>
       <c r="E58" t="n">
+        <v>0.01189922329970769</v>
+      </c>
+      <c r="F58" t="s">
+        <v>29</v>
+      </c>
+      <c r="G58" t="n">
         <v>0.07716595481229925</v>
       </c>
-      <c r="F58" t="s">
-        <v>22</v>
-      </c>
-      <c r="G58" t="n">
-        <v>0.01189922329970769</v>
-      </c>
-      <c r="H58" t="n">
+      <c r="H58" t="s">
+        <v>45</v>
+      </c>
+      <c r="I58" t="s">
+        <v>46</v>
+      </c>
+      <c r="J58" t="n">
+        <v>77292.5</v>
+      </c>
+      <c r="K58" t="n">
+        <v>-0.07981406702750272</v>
+      </c>
+      <c r="L58" t="n">
+        <v>-0.13938855246293397</v>
+      </c>
+      <c r="M58" t="n">
+        <v>-0.019744411761685877</v>
+      </c>
+      <c r="N58" t="n">
+        <v>0.009847911812716582</v>
+      </c>
+      <c r="O58" t="n">
         <v>0.4431560315722462</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="B59" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="C59" t="n">
-        <v>211.0</v>
+        <v>430.0</v>
       </c>
       <c r="D59" t="n">
-        <v>0.04359504132231405</v>
+        <v>0.08884297520661157</v>
       </c>
       <c r="E59" t="n">
+        <v>0.01189922329970769</v>
+      </c>
+      <c r="F59" t="s">
+        <v>30</v>
+      </c>
+      <c r="G59" t="n">
         <v>0.07716595481229925</v>
       </c>
-      <c r="F59" t="s">
-        <v>22</v>
-      </c>
-      <c r="G59" t="n">
-        <v>0.01189922329970769</v>
-      </c>
-      <c r="H59" t="n">
+      <c r="H59" t="s">
+        <v>45</v>
+      </c>
+      <c r="I59" t="s">
+        <v>46</v>
+      </c>
+      <c r="J59" t="n">
+        <v>42225.5</v>
+      </c>
+      <c r="K59" t="n">
+        <v>-0.04708282725049846</v>
+      </c>
+      <c r="L59" t="n">
+        <v>-0.10912543466738336</v>
+      </c>
+      <c r="M59" t="n">
+        <v>0.019790940799771194</v>
+      </c>
+      <c r="N59" t="n">
+        <v>0.1541058790448918</v>
+      </c>
+      <c r="O59" t="n">
         <v>1.0</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="B60" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="C60" t="n">
-        <v>242.0</v>
+        <v>430.0</v>
       </c>
       <c r="D60" t="n">
-        <v>0.05</v>
+        <v>0.08884297520661157</v>
       </c>
       <c r="E60" t="n">
         <v>0.01189922329970769</v>
       </c>
       <c r="F60" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="G60" t="n">
         <v>0.01189922329970769</v>
       </c>
-      <c r="H60" t="n">
+      <c r="H60" t="s">
+        <v>45</v>
+      </c>
+      <c r="I60" t="s">
+        <v>46</v>
+      </c>
+      <c r="J60" t="n">
+        <v>52723.5</v>
+      </c>
+      <c r="K60" t="n">
+        <v>4.673859023853985E-5</v>
+      </c>
+      <c r="L60" t="n">
+        <v>-0.04968355012025019</v>
+      </c>
+      <c r="M60" t="n">
+        <v>0.068763451053479</v>
+      </c>
+      <c r="N60" t="n">
+        <v>0.7741389383137218</v>
+      </c>
+      <c r="O60" t="n">
         <v>1.0</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="B61" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="C61" t="n">
-        <v>124.0</v>
+        <v>401.0</v>
       </c>
       <c r="D61" t="n">
-        <v>0.0256198347107438</v>
+        <v>0.08285123966942148</v>
       </c>
       <c r="E61" t="n">
+        <v>0.07716595481229925</v>
+      </c>
+      <c r="F61" t="s">
+        <v>31</v>
+      </c>
+      <c r="G61" t="n">
         <v>-0.06494080693301456</v>
       </c>
-      <c r="F61" t="s">
-        <v>23</v>
-      </c>
-      <c r="G61" t="n">
-        <v>0.07716595481229925</v>
-      </c>
-      <c r="H61" t="n">
+      <c r="H61" t="s">
+        <v>45</v>
+      </c>
+      <c r="I61" t="s">
+        <v>46</v>
+      </c>
+      <c r="J61" t="n">
+        <v>32170.5</v>
+      </c>
+      <c r="K61" t="n">
+        <v>0.1962423207428443</v>
+      </c>
+      <c r="L61" t="n">
+        <v>0.11919246684873407</v>
+      </c>
+      <c r="M61" t="n">
+        <v>0.27449820855978346</v>
+      </c>
+      <c r="N61" t="n">
+        <v>7.357560907183128E-7</v>
+      </c>
+      <c r="O61" t="n">
         <v>3.310902408232408E-5</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="B62" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="C62" t="n">
-        <v>242.0</v>
+        <v>401.0</v>
       </c>
       <c r="D62" t="n">
-        <v>0.05</v>
+        <v>0.08285123966942148</v>
       </c>
       <c r="E62" t="n">
+        <v>0.07716595481229925</v>
+      </c>
+      <c r="F62" t="s">
+        <v>27</v>
+      </c>
+      <c r="G62" t="n">
         <v>0.01189922329970769</v>
       </c>
-      <c r="F62" t="s">
-        <v>23</v>
-      </c>
-      <c r="G62" t="n">
-        <v>0.07716595481229925</v>
-      </c>
-      <c r="H62" t="n">
+      <c r="H62" t="s">
+        <v>45</v>
+      </c>
+      <c r="I62" t="s">
+        <v>46</v>
+      </c>
+      <c r="J62" t="n">
+        <v>55445.0</v>
+      </c>
+      <c r="K62" t="n">
+        <v>0.09040186995529106</v>
+      </c>
+      <c r="L62" t="n">
+        <v>0.031004060102825144</v>
+      </c>
+      <c r="M62" t="n">
+        <v>0.15188683866468317</v>
+      </c>
+      <c r="N62" t="n">
+        <v>0.0024072205338393216</v>
+      </c>
+      <c r="O62" t="n">
         <v>0.10832492402276947</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="B63" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C63" t="n">
-        <v>211.0</v>
+        <v>401.0</v>
       </c>
       <c r="D63" t="n">
-        <v>0.04359504132231405</v>
+        <v>0.08285123966942148</v>
       </c>
       <c r="E63" t="n">
         <v>0.07716595481229925</v>
       </c>
       <c r="F63" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="G63" t="n">
         <v>0.07716595481229925</v>
       </c>
-      <c r="H63" t="n">
+      <c r="H63" t="s">
+        <v>45</v>
+      </c>
+      <c r="I63" t="s">
+        <v>46</v>
+      </c>
+      <c r="J63" t="n">
+        <v>44647.0</v>
+      </c>
+      <c r="K63" t="n">
+        <v>0.036985554093784456</v>
+      </c>
+      <c r="L63" t="n">
+        <v>-0.027193166153260985</v>
+      </c>
+      <c r="M63" t="n">
+        <v>0.10386852965957935</v>
+      </c>
+      <c r="N63" t="n">
+        <v>0.26003998282472784</v>
+      </c>
+      <c r="O63" t="n">
         <v>1.0</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="B64" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="C64" t="n">
-        <v>124.0</v>
+        <v>211.0</v>
       </c>
       <c r="D64" t="n">
-        <v>0.0256198347107438</v>
+        <v>0.04359504132231405</v>
       </c>
       <c r="E64" t="n">
+        <v>0.07716595481229925</v>
+      </c>
+      <c r="F64" t="s">
+        <v>31</v>
+      </c>
+      <c r="G64" t="n">
         <v>-0.06494080693301456</v>
       </c>
-      <c r="F64" t="s">
-        <v>24</v>
-      </c>
-      <c r="G64" t="n">
-        <v>0.07716595481229925</v>
-      </c>
-      <c r="H64" t="n">
+      <c r="H64" t="s">
+        <v>45</v>
+      </c>
+      <c r="I64" t="s">
+        <v>46</v>
+      </c>
+      <c r="J64" t="n">
+        <v>16902.0</v>
+      </c>
+      <c r="K64" t="n">
+        <v>0.16109235760082344</v>
+      </c>
+      <c r="L64" t="n">
+        <v>0.09343528081106175</v>
+      </c>
+      <c r="M64" t="n">
+        <v>0.2299046091529467</v>
+      </c>
+      <c r="N64" t="n">
+        <v>8.032097871446184E-6</v>
+      </c>
+      <c r="O64" t="n">
         <v>3.614444042150783E-4</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="B65" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="C65" t="n">
-        <v>242.0</v>
+        <v>211.0</v>
       </c>
       <c r="D65" t="n">
-        <v>0.05</v>
+        <v>0.04359504132231405</v>
       </c>
       <c r="E65" t="n">
+        <v>0.07716595481229925</v>
+      </c>
+      <c r="F65" t="s">
+        <v>27</v>
+      </c>
+      <c r="G65" t="n">
         <v>0.01189922329970769</v>
       </c>
-      <c r="F65" t="s">
-        <v>24</v>
-      </c>
-      <c r="G65" t="n">
-        <v>0.07716595481229925</v>
-      </c>
-      <c r="H65" t="n">
+      <c r="H65" t="s">
+        <v>45</v>
+      </c>
+      <c r="I65" t="s">
+        <v>46</v>
+      </c>
+      <c r="J65" t="n">
+        <v>28376.0</v>
+      </c>
+      <c r="K65" t="n">
+        <v>0.059302238458621696</v>
+      </c>
+      <c r="L65" t="n">
+        <v>4.6166267034661505E-5</v>
+      </c>
+      <c r="M65" t="n">
+        <v>0.10917818267812114</v>
+      </c>
+      <c r="N65" t="n">
+        <v>0.040626952709887046</v>
+      </c>
+      <c r="O65" t="n">
         <v>1.0</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="B66" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="C66" t="n">
-        <v>242.0</v>
+        <v>124.0</v>
       </c>
       <c r="D66" t="n">
-        <v>0.05</v>
+        <v>0.0256198347107438</v>
       </c>
       <c r="E66" t="n">
+        <v>-0.06494080693301456</v>
+      </c>
+      <c r="F66" t="s">
+        <v>27</v>
+      </c>
+      <c r="G66" t="n">
         <v>0.01189922329970769</v>
       </c>
-      <c r="F66" t="s">
-        <v>21</v>
-      </c>
-      <c r="G66" t="n">
-        <v>-0.06494080693301456</v>
-      </c>
-      <c r="H66" t="n">
+      <c r="H66" t="s">
+        <v>45</v>
+      </c>
+      <c r="I66" t="s">
+        <v>46</v>
+      </c>
+      <c r="J66" t="n">
+        <v>12013.5</v>
+      </c>
+      <c r="K66" t="n">
+        <v>-0.10269194456504889</v>
+      </c>
+      <c r="L66" t="n">
+        <v>-0.16919746080735487</v>
+      </c>
+      <c r="M66" t="n">
+        <v>-0.03949806204052675</v>
+      </c>
+      <c r="N66" t="n">
+        <v>0.001791920113231525</v>
+      </c>
+      <c r="O66" t="n">
         <v>0.08063640509541863</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="B67" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="C67" t="n">
-        <v>72.0</v>
+        <v>242.0</v>
       </c>
       <c r="D67" t="n">
-        <v>0.01487603305785124</v>
+        <v>0.05</v>
       </c>
       <c r="E67" t="n">
+        <v>0.01189922329970769</v>
+      </c>
+      <c r="F67" t="s">
+        <v>21</v>
+      </c>
+      <c r="G67" t="n">
         <v>0.0233306647794598</v>
       </c>
-      <c r="F67" t="s">
-        <v>19</v>
-      </c>
-      <c r="G67" t="n">
-        <v>0.01189922329970769</v>
-      </c>
-      <c r="H67" t="n">
+      <c r="H67" t="s">
+        <v>45</v>
+      </c>
+      <c r="I67" t="s">
+        <v>46</v>
+      </c>
+      <c r="J67" t="n">
+        <v>8653.5</v>
+      </c>
+      <c r="K67" t="n">
+        <v>-1.8993724285013624E-5</v>
+      </c>
+      <c r="L67" t="n">
+        <v>-0.07110224606073547</v>
+      </c>
+      <c r="M67" t="n">
+        <v>0.06874716790840309</v>
+      </c>
+      <c r="N67" t="n">
+        <v>0.9316204034661192</v>
+      </c>
+      <c r="O67" t="n">
         <v>1.0</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="B68" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C68" t="n">
-        <v>67.0</v>
+        <v>78.0</v>
       </c>
       <c r="D68" t="n">
-        <v>0.12617702448210924</v>
+        <v>0.14689265536723164</v>
       </c>
       <c r="E68" t="n">
+        <v>-0.027152246043614825</v>
+      </c>
+      <c r="F68" t="s">
+        <v>35</v>
+      </c>
+      <c r="G68" t="n">
         <v>2.3987989740013247</v>
       </c>
-      <c r="F68" t="s">
-        <v>20</v>
-      </c>
-      <c r="G68" t="n">
-        <v>-0.027152246043614825</v>
-      </c>
-      <c r="H68" t="n">
+      <c r="H68" t="s">
+        <v>45</v>
+      </c>
+      <c r="I68" t="s">
+        <v>46</v>
+      </c>
+      <c r="J68" t="n">
+        <v>40.0</v>
+      </c>
+      <c r="K68" t="n">
+        <v>-2.422507415908728</v>
+      </c>
+      <c r="L68" t="n">
+        <v>-2.579952777414392</v>
+      </c>
+      <c r="M68" t="n">
+        <v>-2.2321141936946978</v>
+      </c>
+      <c r="N68" t="n">
+        <v>1.9369021002517134E-24</v>
+      </c>
+      <c r="O68" t="n">
         <v>2.90535315037757E-23</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="B69" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="C69" t="n">
-        <v>75.0</v>
+        <v>78.0</v>
       </c>
       <c r="D69" t="n">
-        <v>0.14124293785310735</v>
+        <v>0.14689265536723164</v>
       </c>
       <c r="E69" t="n">
+        <v>-0.027152246043614825</v>
+      </c>
+      <c r="F69" t="s">
+        <v>32</v>
+      </c>
+      <c r="G69" t="n">
         <v>1.9671601752596832</v>
       </c>
-      <c r="F69" t="s">
-        <v>20</v>
-      </c>
-      <c r="G69" t="n">
-        <v>-0.027152246043614825</v>
-      </c>
-      <c r="H69" t="n">
+      <c r="H69" t="s">
+        <v>45</v>
+      </c>
+      <c r="I69" t="s">
+        <v>46</v>
+      </c>
+      <c r="J69" t="n">
+        <v>164.0</v>
+      </c>
+      <c r="K69" t="n">
+        <v>-1.9819786200675849</v>
+      </c>
+      <c r="L69" t="n">
+        <v>-2.1190644942533448</v>
+      </c>
+      <c r="M69" t="n">
+        <v>-1.8193552869313503</v>
+      </c>
+      <c r="N69" t="n">
+        <v>7.114875182198938E-24</v>
+      </c>
+      <c r="O69" t="n">
         <v>1.0672312773298408E-22</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="B70" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="C70" t="n">
-        <v>67.0</v>
+        <v>78.0</v>
       </c>
       <c r="D70" t="n">
-        <v>0.12617702448210924</v>
+        <v>0.14689265536723164</v>
       </c>
       <c r="E70" t="n">
+        <v>-0.027152246043614825</v>
+      </c>
+      <c r="F70" t="s">
+        <v>34</v>
+      </c>
+      <c r="G70" t="n">
         <v>0.8297909231702731</v>
       </c>
-      <c r="F70" t="s">
-        <v>20</v>
-      </c>
-      <c r="G70" t="n">
-        <v>-0.027152246043614825</v>
-      </c>
-      <c r="H70" t="n">
+      <c r="H70" t="s">
+        <v>45</v>
+      </c>
+      <c r="I70" t="s">
+        <v>46</v>
+      </c>
+      <c r="J70" t="n">
+        <v>1119.0</v>
+      </c>
+      <c r="K70" t="n">
+        <v>-0.9644689715672534</v>
+      </c>
+      <c r="L70" t="n">
+        <v>-2.018580092794297</v>
+      </c>
+      <c r="M70" t="n">
+        <v>-0.5632302250379028</v>
+      </c>
+      <c r="N70" t="n">
+        <v>3.1564374127766623E-9</v>
+      </c>
+      <c r="O70" t="n">
         <v>4.7346561191649935E-8</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="B71" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="C71" t="n">
-        <v>150.0</v>
+        <v>78.0</v>
       </c>
       <c r="D71" t="n">
-        <v>0.2824858757062147</v>
+        <v>0.14689265536723164</v>
       </c>
       <c r="E71" t="n">
+        <v>-0.027152246043614825</v>
+      </c>
+      <c r="F71" t="s">
+        <v>33</v>
+      </c>
+      <c r="G71" t="n">
         <v>-0.10357628636608832</v>
       </c>
-      <c r="F71" t="s">
-        <v>20</v>
-      </c>
-      <c r="G71" t="n">
-        <v>-0.027152246043614825</v>
-      </c>
-      <c r="H71" t="n">
+      <c r="H71" t="s">
+        <v>45</v>
+      </c>
+      <c r="I71" t="s">
+        <v>46</v>
+      </c>
+      <c r="J71" t="n">
+        <v>6753.5</v>
+      </c>
+      <c r="K71" t="n">
+        <v>0.08981699001643081</v>
+      </c>
+      <c r="L71" t="n">
+        <v>-4.0960698871898437E-5</v>
+      </c>
+      <c r="M71" t="n">
+        <v>0.18144353338703192</v>
+      </c>
+      <c r="N71" t="n">
+        <v>0.05596537222596104</v>
+      </c>
+      <c r="O71" t="n">
         <v>0.8394805833894157</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="B72" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="C72" t="n">
-        <v>150.0</v>
+        <v>75.0</v>
       </c>
       <c r="D72" t="n">
-        <v>0.2824858757062147</v>
+        <v>0.14124293785310735</v>
       </c>
       <c r="E72" t="n">
+        <v>1.9671601752596832</v>
+      </c>
+      <c r="F72" t="s">
+        <v>33</v>
+      </c>
+      <c r="G72" t="n">
         <v>-0.10357628636608832</v>
       </c>
-      <c r="F72" t="s">
-        <v>26</v>
-      </c>
-      <c r="G72" t="n">
-        <v>1.9671601752596832</v>
-      </c>
-      <c r="H72" t="n">
+      <c r="H72" t="s">
+        <v>45</v>
+      </c>
+      <c r="I72" t="s">
+        <v>46</v>
+      </c>
+      <c r="J72" t="n">
+        <v>11011.5</v>
+      </c>
+      <c r="K72" t="n">
+        <v>2.070295172428799</v>
+      </c>
+      <c r="L72" t="n">
+        <v>1.9471145375943315</v>
+      </c>
+      <c r="M72" t="n">
+        <v>2.1917133831580067</v>
+      </c>
+      <c r="N72" t="n">
+        <v>1.2439742793132583E-31</v>
+      </c>
+      <c r="O72" t="n">
         <v>1.8659614189698876E-30</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="B73" t="s">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="C73" t="n">
-        <v>94.0</v>
+        <v>75.0</v>
       </c>
       <c r="D73" t="n">
-        <v>0.17702448210922786</v>
+        <v>0.14124293785310735</v>
       </c>
       <c r="E73" t="n">
+        <v>1.9671601752596832</v>
+      </c>
+      <c r="F73" t="s">
+        <v>27</v>
+      </c>
+      <c r="G73" t="n">
         <v>0.025554104472388227</v>
       </c>
-      <c r="F73" t="s">
-        <v>26</v>
-      </c>
-      <c r="G73" t="n">
-        <v>1.9671601752596832</v>
-      </c>
-      <c r="H73" t="n">
+      <c r="H73" t="s">
+        <v>45</v>
+      </c>
+      <c r="I73" t="s">
+        <v>46</v>
+      </c>
+      <c r="J73" t="n">
+        <v>6858.0</v>
+      </c>
+      <c r="K73" t="n">
+        <v>1.9483502430970567</v>
+      </c>
+      <c r="L73" t="n">
+        <v>1.8203775046529476</v>
+      </c>
+      <c r="M73" t="n">
+        <v>2.0842562698479488</v>
+      </c>
+      <c r="N73" t="n">
+        <v>5.34492161282192E-26</v>
+      </c>
+      <c r="O73" t="n">
         <v>8.01738241923288E-25</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="B74" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="C74" t="n">
-        <v>67.0</v>
+        <v>75.0</v>
       </c>
       <c r="D74" t="n">
-        <v>0.12617702448210924</v>
+        <v>0.14124293785310735</v>
       </c>
       <c r="E74" t="n">
+        <v>1.9671601752596832</v>
+      </c>
+      <c r="F74" t="s">
+        <v>35</v>
+      </c>
+      <c r="G74" t="n">
         <v>2.3987989740013247</v>
       </c>
-      <c r="F74" t="s">
-        <v>26</v>
-      </c>
-      <c r="G74" t="n">
-        <v>1.9671601752596832</v>
-      </c>
-      <c r="H74" t="n">
+      <c r="H74" t="s">
+        <v>45</v>
+      </c>
+      <c r="I74" t="s">
+        <v>46</v>
+      </c>
+      <c r="J74" t="n">
+        <v>1501.5</v>
+      </c>
+      <c r="K74" t="n">
+        <v>-0.4497699166328988</v>
+      </c>
+      <c r="L74" t="n">
+        <v>-0.6421246470200217</v>
+      </c>
+      <c r="M74" t="n">
+        <v>-0.26460336790008665</v>
+      </c>
+      <c r="N74" t="n">
+        <v>3.6364511951914434E-5</v>
+      </c>
+      <c r="O74" t="n">
         <v>5.454676792787165E-4</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="B75" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C75" t="n">
-        <v>67.0</v>
+        <v>75.0</v>
       </c>
       <c r="D75" t="n">
-        <v>0.12617702448210924</v>
+        <v>0.14124293785310735</v>
       </c>
       <c r="E75" t="n">
+        <v>1.9671601752596832</v>
+      </c>
+      <c r="F75" t="s">
+        <v>34</v>
+      </c>
+      <c r="G75" t="n">
         <v>0.8297909231702731</v>
       </c>
-      <c r="F75" t="s">
-        <v>26</v>
-      </c>
-      <c r="G75" t="n">
-        <v>1.9671601752596832</v>
-      </c>
-      <c r="H75" t="n">
+      <c r="H75" t="s">
+        <v>45</v>
+      </c>
+      <c r="I75" t="s">
+        <v>46</v>
+      </c>
+      <c r="J75" t="n">
+        <v>2874.0</v>
+      </c>
+      <c r="K75" t="n">
+        <v>0.5195561160575541</v>
+      </c>
+      <c r="L75" t="n">
+        <v>-0.12056636154792669</v>
+      </c>
+      <c r="M75" t="n">
+        <v>1.206606114246895</v>
+      </c>
+      <c r="N75" t="n">
+        <v>0.14014844291770362</v>
+      </c>
+      <c r="O75" t="n">
         <v>1.0</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="B76" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="C76" t="n">
-        <v>67.0</v>
+        <v>150.0</v>
       </c>
       <c r="D76" t="n">
-        <v>0.12617702448210924</v>
+        <v>0.2824858757062147</v>
       </c>
       <c r="E76" t="n">
+        <v>-0.10357628636608832</v>
+      </c>
+      <c r="F76" t="s">
+        <v>35</v>
+      </c>
+      <c r="G76" t="n">
         <v>2.3987989740013247</v>
       </c>
-      <c r="F76" t="s">
-        <v>28</v>
-      </c>
-      <c r="G76" t="n">
-        <v>-0.10357628636608832</v>
-      </c>
-      <c r="H76" t="n">
+      <c r="H76" t="s">
+        <v>45</v>
+      </c>
+      <c r="I76" t="s">
+        <v>46</v>
+      </c>
+      <c r="J76" t="n">
+        <v>60.0</v>
+      </c>
+      <c r="K76" t="n">
+        <v>-2.514453528985412</v>
+      </c>
+      <c r="L76" t="n">
+        <v>-2.6557060676861166</v>
+      </c>
+      <c r="M76" t="n">
+        <v>-2.3525205634879174</v>
+      </c>
+      <c r="N76" t="n">
+        <v>3.275333477554596E-31</v>
+      </c>
+      <c r="O76" t="n">
         <v>4.9130002163318944E-30</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="B77" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="C77" t="n">
-        <v>67.0</v>
+        <v>150.0</v>
       </c>
       <c r="D77" t="n">
-        <v>0.12617702448210924</v>
+        <v>0.2824858757062147</v>
       </c>
       <c r="E77" t="n">
+        <v>-0.10357628636608832</v>
+      </c>
+      <c r="F77" t="s">
+        <v>34</v>
+      </c>
+      <c r="G77" t="n">
         <v>0.8297909231702731</v>
       </c>
-      <c r="F77" t="s">
-        <v>28</v>
-      </c>
-      <c r="G77" t="n">
-        <v>-0.10357628636608832</v>
-      </c>
-      <c r="H77" t="n">
+      <c r="H77" t="s">
+        <v>45</v>
+      </c>
+      <c r="I77" t="s">
+        <v>46</v>
+      </c>
+      <c r="J77" t="n">
+        <v>1778.0</v>
+      </c>
+      <c r="K77" t="n">
+        <v>-1.0698754719749535</v>
+      </c>
+      <c r="L77" t="n">
+        <v>-2.079575603124322</v>
+      </c>
+      <c r="M77" t="n">
+        <v>-0.6820872452462576</v>
+      </c>
+      <c r="N77" t="n">
+        <v>2.990240119189427E-14</v>
+      </c>
+      <c r="O77" t="n">
         <v>4.4853601787841407E-13</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="B78" t="s">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="C78" t="n">
-        <v>94.0</v>
+        <v>150.0</v>
       </c>
       <c r="D78" t="n">
-        <v>0.17702448210922786</v>
+        <v>0.2824858757062147</v>
       </c>
       <c r="E78" t="n">
+        <v>-0.10357628636608832</v>
+      </c>
+      <c r="F78" t="s">
+        <v>27</v>
+      </c>
+      <c r="G78" t="n">
         <v>0.025554104472388227</v>
       </c>
-      <c r="F78" t="s">
-        <v>28</v>
-      </c>
-      <c r="G78" t="n">
-        <v>-0.10357628636608832</v>
-      </c>
-      <c r="H78" t="n">
+      <c r="H78" t="s">
+        <v>45</v>
+      </c>
+      <c r="I78" t="s">
+        <v>46</v>
+      </c>
+      <c r="J78" t="n">
+        <v>5475.0</v>
+      </c>
+      <c r="K78" t="n">
+        <v>-0.11533851768951187</v>
+      </c>
+      <c r="L78" t="n">
+        <v>-0.19440337705161367</v>
+      </c>
+      <c r="M78" t="n">
+        <v>-0.04073371662054055</v>
+      </c>
+      <c r="N78" t="n">
+        <v>0.0033354413017219336</v>
+      </c>
+      <c r="O78" t="n">
         <v>0.050031619525829005</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="B79" t="s">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="C79" t="n">
-        <v>94.0</v>
+        <v>67.0</v>
       </c>
       <c r="D79" t="n">
-        <v>0.17702448210922786</v>
+        <v>0.12617702448210924</v>
       </c>
       <c r="E79" t="n">
-        <v>0.025554104472388227</v>
+        <v>0.8297909231702731</v>
       </c>
       <c r="F79" t="s">
         <v>27</v>
       </c>
       <c r="G79" t="n">
-        <v>0.8297909231702731</v>
-      </c>
-      <c r="H79" t="n">
+        <v>0.025554104472388227</v>
+      </c>
+      <c r="H79" t="s">
+        <v>45</v>
+      </c>
+      <c r="I79" t="s">
+        <v>46</v>
+      </c>
+      <c r="J79" t="n">
+        <v>4914.0</v>
+      </c>
+      <c r="K79" t="n">
+        <v>0.9076924984267379</v>
+      </c>
+      <c r="L79" t="n">
+        <v>0.5145408172765168</v>
+      </c>
+      <c r="M79" t="n">
+        <v>2.032546369501545</v>
+      </c>
+      <c r="N79" t="n">
+        <v>1.4330458664110134E-9</v>
+      </c>
+      <c r="O79" t="n">
         <v>2.14956879961652E-8</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="B80" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="C80" t="n">
         <v>67.0</v>
@@ -2244,336 +3930,609 @@
         <v>0.12617702448210924</v>
       </c>
       <c r="E80" t="n">
+        <v>0.8297909231702731</v>
+      </c>
+      <c r="F80" t="s">
+        <v>35</v>
+      </c>
+      <c r="G80" t="n">
         <v>2.3987989740013247</v>
       </c>
-      <c r="F80" t="s">
-        <v>27</v>
-      </c>
-      <c r="G80" t="n">
-        <v>0.8297909231702731</v>
-      </c>
-      <c r="H80" t="n">
+      <c r="H80" t="s">
+        <v>45</v>
+      </c>
+      <c r="I80" t="s">
+        <v>46</v>
+      </c>
+      <c r="J80" t="n">
+        <v>1351.0</v>
+      </c>
+      <c r="K80" t="n">
+        <v>-0.9659671162124726</v>
+      </c>
+      <c r="L80" t="n">
+        <v>-1.6548378067800942</v>
+      </c>
+      <c r="M80" t="n">
+        <v>-0.3523768548648359</v>
+      </c>
+      <c r="N80" t="n">
+        <v>7.074874791863647E-5</v>
+      </c>
+      <c r="O80" t="n">
         <v>0.001061231218779547</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="B81" t="s">
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="C81" t="n">
-        <v>94.0</v>
+        <v>67.0</v>
       </c>
       <c r="D81" t="n">
-        <v>0.17702448210922786</v>
+        <v>0.12617702448210924</v>
       </c>
       <c r="E81" t="n">
+        <v>2.3987989740013247</v>
+      </c>
+      <c r="F81" t="s">
+        <v>27</v>
+      </c>
+      <c r="G81" t="n">
         <v>0.025554104472388227</v>
       </c>
-      <c r="F81" t="s">
-        <v>25</v>
-      </c>
-      <c r="G81" t="n">
-        <v>2.3987989740013247</v>
-      </c>
-      <c r="H81" t="n">
+      <c r="H81" t="s">
+        <v>45</v>
+      </c>
+      <c r="I81" t="s">
+        <v>46</v>
+      </c>
+      <c r="J81" t="n">
+        <v>6247.0</v>
+      </c>
+      <c r="K81" t="n">
+        <v>2.393346786735045</v>
+      </c>
+      <c r="L81" t="n">
+        <v>2.224527080353541</v>
+      </c>
+      <c r="M81" t="n">
+        <v>2.54896248095851</v>
+      </c>
+      <c r="N81" t="n">
+        <v>2.3228684637635536E-26</v>
+      </c>
+      <c r="O81" t="n">
         <v>3.4843026956453306E-25</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="B82" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="C82" t="n">
-        <v>78.0</v>
+        <v>94.0</v>
       </c>
       <c r="D82" t="n">
-        <v>0.14689265536723164</v>
+        <v>0.17702448210922786</v>
       </c>
       <c r="E82" t="n">
+        <v>0.025554104472388227</v>
+      </c>
+      <c r="F82" t="s">
+        <v>21</v>
+      </c>
+      <c r="G82" t="n">
         <v>-0.027152246043614825</v>
       </c>
-      <c r="F82" t="s">
-        <v>19</v>
-      </c>
-      <c r="G82" t="n">
-        <v>0.025554104472388227</v>
-      </c>
-      <c r="H82" t="n">
+      <c r="H82" t="s">
+        <v>45</v>
+      </c>
+      <c r="I82" t="s">
+        <v>46</v>
+      </c>
+      <c r="J82" t="n">
+        <v>3827.0</v>
+      </c>
+      <c r="K82" t="n">
+        <v>0.02713541204167177</v>
+      </c>
+      <c r="L82" t="n">
+        <v>-0.07496426913167302</v>
+      </c>
+      <c r="M82" t="n">
+        <v>0.13022016515252263</v>
+      </c>
+      <c r="N82" t="n">
+        <v>0.6215024313697044</v>
+      </c>
+      <c r="O82" t="n">
         <v>1.0</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="B83" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="C83" t="n">
-        <v>1344.0</v>
+        <v>394.0</v>
       </c>
       <c r="D83" t="n">
-        <v>0.2933857236411264</v>
+        <v>0.08600742196027068</v>
       </c>
       <c r="E83" t="n">
+        <v>0.012837224705172217</v>
+      </c>
+      <c r="F83" t="s">
+        <v>32</v>
+      </c>
+      <c r="G83" t="n">
         <v>1.9188155824516362</v>
       </c>
-      <c r="F83" t="s">
-        <v>20</v>
-      </c>
-      <c r="G83" t="n">
-        <v>0.012837224705172217</v>
-      </c>
-      <c r="H83" t="n">
+      <c r="H83" t="s">
+        <v>45</v>
+      </c>
+      <c r="I83" t="s">
+        <v>46</v>
+      </c>
+      <c r="J83" t="n">
+        <v>7421.0</v>
+      </c>
+      <c r="K83" t="n">
+        <v>-1.8518828787629895</v>
+      </c>
+      <c r="L83" t="n">
+        <v>-1.9000484905611066</v>
+      </c>
+      <c r="M83" t="n">
+        <v>-1.8017407602848632</v>
+      </c>
+      <c r="N83" t="n">
+        <v>1.0705290194367086E-189</v>
+      </c>
+      <c r="O83" t="n">
         <v>2.997481254422784E-188</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="B84" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C84" t="n">
-        <v>1667.0</v>
+        <v>394.0</v>
       </c>
       <c r="D84" t="n">
-        <v>0.36389434621261735</v>
+        <v>0.08600742196027068</v>
       </c>
       <c r="E84" t="n">
+        <v>0.012837224705172217</v>
+      </c>
+      <c r="F84" t="s">
+        <v>35</v>
+      </c>
+      <c r="G84" t="n">
         <v>0.9185545305502735</v>
       </c>
-      <c r="F84" t="s">
-        <v>20</v>
-      </c>
-      <c r="G84" t="n">
-        <v>0.012837224705172217</v>
-      </c>
-      <c r="H84" t="n">
+      <c r="H84" t="s">
+        <v>45</v>
+      </c>
+      <c r="I84" t="s">
+        <v>46</v>
+      </c>
+      <c r="J84" t="n">
+        <v>91053.0</v>
+      </c>
+      <c r="K84" t="n">
+        <v>-0.8981377474307619</v>
+      </c>
+      <c r="L84" t="n">
+        <v>-1.011683114976437</v>
+      </c>
+      <c r="M84" t="n">
+        <v>-0.7933387089527951</v>
+      </c>
+      <c r="N84" t="n">
+        <v>1.4579889767353456E-110</v>
+      </c>
+      <c r="O84" t="n">
         <v>4.0823691348589674E-109</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="B85" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="C85" t="n">
-        <v>90.0</v>
+        <v>394.0</v>
       </c>
       <c r="D85" t="n">
-        <v>0.019646365422396856</v>
+        <v>0.08600742196027068</v>
       </c>
       <c r="E85" t="n">
+        <v>0.012837224705172217</v>
+      </c>
+      <c r="F85" t="s">
+        <v>38</v>
+      </c>
+      <c r="G85" t="n">
         <v>2.255224246809487</v>
       </c>
-      <c r="F85" t="s">
-        <v>20</v>
-      </c>
-      <c r="G85" t="n">
-        <v>0.012837224705172217</v>
-      </c>
-      <c r="H85" t="n">
+      <c r="H85" t="s">
+        <v>45</v>
+      </c>
+      <c r="I85" t="s">
+        <v>46</v>
+      </c>
+      <c r="J85" t="n">
+        <v>17.0</v>
+      </c>
+      <c r="K85" t="n">
+        <v>-2.20808780071147</v>
+      </c>
+      <c r="L85" t="n">
+        <v>-2.2811697927110335</v>
+      </c>
+      <c r="M85" t="n">
+        <v>-2.132238862873949</v>
+      </c>
+      <c r="N85" t="n">
+        <v>1.5447315019648325E-49</v>
+      </c>
+      <c r="O85" t="n">
         <v>4.325248205501531E-48</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="B86" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="C86" t="n">
-        <v>84.0</v>
+        <v>394.0</v>
       </c>
       <c r="D86" t="n">
-        <v>0.0183366077275704</v>
+        <v>0.08600742196027068</v>
       </c>
       <c r="E86" t="n">
+        <v>0.012837224705172217</v>
+      </c>
+      <c r="F86" t="s">
+        <v>37</v>
+      </c>
+      <c r="G86" t="n">
         <v>2.090538950389023</v>
       </c>
-      <c r="F86" t="s">
-        <v>20</v>
-      </c>
-      <c r="G86" t="n">
-        <v>0.012837224705172217</v>
-      </c>
-      <c r="H86" t="n">
+      <c r="H86" t="s">
+        <v>45</v>
+      </c>
+      <c r="I86" t="s">
+        <v>46</v>
+      </c>
+      <c r="J86" t="n">
+        <v>2940.0</v>
+      </c>
+      <c r="K86" t="n">
+        <v>-1.99772784763114</v>
+      </c>
+      <c r="L86" t="n">
+        <v>-2.104883791942705</v>
+      </c>
+      <c r="M86" t="n">
+        <v>-1.8723093755915448</v>
+      </c>
+      <c r="N86" t="n">
+        <v>2.4304684007857462E-32</v>
+      </c>
+      <c r="O86" t="n">
         <v>6.805311522200089E-31</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="B87" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="C87" t="n">
-        <v>333.0</v>
+        <v>394.0</v>
       </c>
       <c r="D87" t="n">
-        <v>0.07269155206286837</v>
+        <v>0.08600742196027068</v>
       </c>
       <c r="E87" t="n">
+        <v>0.012837224705172217</v>
+      </c>
+      <c r="F87" t="s">
+        <v>33</v>
+      </c>
+      <c r="G87" t="n">
         <v>-0.031517051446064856</v>
       </c>
-      <c r="F87" t="s">
-        <v>20</v>
-      </c>
-      <c r="G87" t="n">
-        <v>0.012837224705172217</v>
-      </c>
-      <c r="H87" t="n">
+      <c r="H87" t="s">
+        <v>45</v>
+      </c>
+      <c r="I87" t="s">
+        <v>46</v>
+      </c>
+      <c r="J87" t="n">
+        <v>73224.5</v>
+      </c>
+      <c r="K87" t="n">
+        <v>0.05739366476149231</v>
+      </c>
+      <c r="L87" t="n">
+        <v>0.015661123726651637</v>
+      </c>
+      <c r="M87" t="n">
+        <v>0.09848298958210477</v>
+      </c>
+      <c r="N87" t="n">
+        <v>0.006888573707471122</v>
+      </c>
+      <c r="O87" t="n">
         <v>0.19288006380919143</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="B88" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="C88" t="n">
-        <v>333.0</v>
+        <v>394.0</v>
       </c>
       <c r="D88" t="n">
-        <v>0.07269155206286837</v>
+        <v>0.08600742196027068</v>
       </c>
       <c r="E88" t="n">
+        <v>0.012837224705172217</v>
+      </c>
+      <c r="F88" t="s">
+        <v>36</v>
+      </c>
+      <c r="G88" t="n">
         <v>0.053078443483419765</v>
       </c>
-      <c r="F88" t="s">
-        <v>20</v>
-      </c>
-      <c r="G88" t="n">
-        <v>0.012837224705172217</v>
-      </c>
-      <c r="H88" t="n">
+      <c r="H88" t="s">
+        <v>45</v>
+      </c>
+      <c r="I88" t="s">
+        <v>46</v>
+      </c>
+      <c r="J88" t="n">
+        <v>61283.0</v>
+      </c>
+      <c r="K88" t="n">
+        <v>-0.03263145934182196</v>
+      </c>
+      <c r="L88" t="n">
+        <v>-0.07431086991660389</v>
+      </c>
+      <c r="M88" t="n">
+        <v>0.009841885873824651</v>
+      </c>
+      <c r="N88" t="n">
+        <v>0.1259062860220125</v>
+      </c>
+      <c r="O88" t="n">
         <v>1.0</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="B89" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="C89" t="n">
-        <v>1344.0</v>
+        <v>333.0</v>
       </c>
       <c r="D89" t="n">
-        <v>0.2933857236411264</v>
+        <v>0.07269155206286837</v>
       </c>
       <c r="E89" t="n">
+        <v>0.053078443483419765</v>
+      </c>
+      <c r="F89" t="s">
+        <v>32</v>
+      </c>
+      <c r="G89" t="n">
         <v>1.9188155824516362</v>
       </c>
-      <c r="F89" t="s">
-        <v>31</v>
-      </c>
-      <c r="G89" t="n">
-        <v>0.053078443483419765</v>
-      </c>
-      <c r="H89" t="n">
+      <c r="H89" t="s">
+        <v>45</v>
+      </c>
+      <c r="I89" t="s">
+        <v>46</v>
+      </c>
+      <c r="J89" t="n">
+        <v>14624.5</v>
+      </c>
+      <c r="K89" t="n">
+        <v>-1.8037727293896149</v>
+      </c>
+      <c r="L89" t="n">
+        <v>-1.8602888221996556</v>
+      </c>
+      <c r="M89" t="n">
+        <v>-1.7445995889851351</v>
+      </c>
+      <c r="N89" t="n">
+        <v>4.976508782465732E-154</v>
+      </c>
+      <c r="O89" t="n">
         <v>1.3934224590904048E-152</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="B90" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="C90" t="n">
-        <v>1667.0</v>
+        <v>333.0</v>
       </c>
       <c r="D90" t="n">
-        <v>0.36389434621261735</v>
+        <v>0.07269155206286837</v>
       </c>
       <c r="E90" t="n">
+        <v>0.053078443483419765</v>
+      </c>
+      <c r="F90" t="s">
+        <v>35</v>
+      </c>
+      <c r="G90" t="n">
         <v>0.9185545305502735</v>
       </c>
-      <c r="F90" t="s">
-        <v>31</v>
-      </c>
-      <c r="G90" t="n">
-        <v>0.053078443483419765</v>
-      </c>
-      <c r="H90" t="n">
+      <c r="H90" t="s">
+        <v>45</v>
+      </c>
+      <c r="I90" t="s">
+        <v>46</v>
+      </c>
+      <c r="J90" t="n">
+        <v>95103.0</v>
+      </c>
+      <c r="K90" t="n">
+        <v>-0.8409433105977272</v>
+      </c>
+      <c r="L90" t="n">
+        <v>-0.9571833291600389</v>
+      </c>
+      <c r="M90" t="n">
+        <v>-0.7335670598301066</v>
+      </c>
+      <c r="N90" t="n">
+        <v>3.390224986073378E-80</v>
+      </c>
+      <c r="O90" t="n">
         <v>9.492629961005458E-79</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="B91" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="C91" t="n">
-        <v>90.0</v>
+        <v>333.0</v>
       </c>
       <c r="D91" t="n">
-        <v>0.019646365422396856</v>
+        <v>0.07269155206286837</v>
       </c>
       <c r="E91" t="n">
+        <v>0.053078443483419765</v>
+      </c>
+      <c r="F91" t="s">
+        <v>38</v>
+      </c>
+      <c r="G91" t="n">
         <v>2.255224246809487</v>
       </c>
-      <c r="F91" t="s">
-        <v>31</v>
-      </c>
-      <c r="G91" t="n">
-        <v>0.053078443483419765</v>
-      </c>
-      <c r="H91" t="n">
+      <c r="H91" t="s">
+        <v>45</v>
+      </c>
+      <c r="I91" t="s">
+        <v>46</v>
+      </c>
+      <c r="J91" t="n">
+        <v>280.0</v>
+      </c>
+      <c r="K91" t="n">
+        <v>-2.1698711165598126</v>
+      </c>
+      <c r="L91" t="n">
+        <v>-2.2502260441121957</v>
+      </c>
+      <c r="M91" t="n">
+        <v>-2.0827366048245053</v>
+      </c>
+      <c r="N91" t="n">
+        <v>2.5272231136151075E-46</v>
+      </c>
+      <c r="O91" t="n">
         <v>7.076224718122302E-45</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="B92" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="C92" t="n">
-        <v>84.0</v>
+        <v>333.0</v>
       </c>
       <c r="D92" t="n">
-        <v>0.0183366077275704</v>
+        <v>0.07269155206286837</v>
       </c>
       <c r="E92" t="n">
+        <v>0.053078443483419765</v>
+      </c>
+      <c r="F92" t="s">
+        <v>37</v>
+      </c>
+      <c r="G92" t="n">
         <v>2.090538950389023</v>
       </c>
-      <c r="F92" t="s">
-        <v>31</v>
-      </c>
-      <c r="G92" t="n">
-        <v>0.053078443483419765</v>
-      </c>
-      <c r="H92" t="n">
+      <c r="H92" t="s">
+        <v>45</v>
+      </c>
+      <c r="I92" t="s">
+        <v>46</v>
+      </c>
+      <c r="J92" t="n">
+        <v>2919.0</v>
+      </c>
+      <c r="K92" t="n">
+        <v>-1.9445896352367615</v>
+      </c>
+      <c r="L92" t="n">
+        <v>-2.063117135008315</v>
+      </c>
+      <c r="M92" t="n">
+        <v>-1.7979965487140384</v>
+      </c>
+      <c r="N92" t="n">
+        <v>3.574305988808808E-29</v>
+      </c>
+      <c r="O92" t="n">
         <v>1.0008056768664662E-27</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="B93" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="C93" t="n">
         <v>333.0</v>
@@ -2582,1341 +4541,2433 @@
         <v>0.07269155206286837</v>
       </c>
       <c r="E93" t="n">
+        <v>0.053078443483419765</v>
+      </c>
+      <c r="F93" t="s">
+        <v>33</v>
+      </c>
+      <c r="G93" t="n">
         <v>-0.031517051446064856</v>
       </c>
-      <c r="F93" t="s">
-        <v>31</v>
-      </c>
-      <c r="G93" t="n">
-        <v>0.053078443483419765</v>
-      </c>
-      <c r="H93" t="n">
+      <c r="H93" t="s">
+        <v>45</v>
+      </c>
+      <c r="I93" t="s">
+        <v>46</v>
+      </c>
+      <c r="J93" t="n">
+        <v>64438.5</v>
+      </c>
+      <c r="K93" t="n">
+        <v>0.08965931615537509</v>
+      </c>
+      <c r="L93" t="n">
+        <v>0.042343002095821924</v>
+      </c>
+      <c r="M93" t="n">
+        <v>0.13898474859438725</v>
+      </c>
+      <c r="N93" t="n">
+        <v>2.9145812941376445E-4</v>
+      </c>
+      <c r="O93" t="n">
         <v>0.008160827623585405</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="B94" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="C94" t="n">
-        <v>336.0</v>
+        <v>333.0</v>
       </c>
       <c r="D94" t="n">
-        <v>0.0733464309102816</v>
+        <v>0.07269155206286837</v>
       </c>
       <c r="E94" t="n">
+        <v>0.053078443483419765</v>
+      </c>
+      <c r="F94" t="s">
+        <v>27</v>
+      </c>
+      <c r="G94" t="n">
         <v>-0.01322826573375516</v>
       </c>
-      <c r="F94" t="s">
-        <v>31</v>
-      </c>
-      <c r="G94" t="n">
-        <v>0.053078443483419765</v>
-      </c>
-      <c r="H94" t="n">
+      <c r="H94" t="s">
+        <v>45</v>
+      </c>
+      <c r="I94" t="s">
+        <v>46</v>
+      </c>
+      <c r="J94" t="n">
+        <v>63007.0</v>
+      </c>
+      <c r="K94" t="n">
+        <v>0.06473964504778133</v>
+      </c>
+      <c r="L94" t="n">
+        <v>0.019207571061386677</v>
+      </c>
+      <c r="M94" t="n">
+        <v>0.107954024374177</v>
+      </c>
+      <c r="N94" t="n">
+        <v>0.004715124287559814</v>
+      </c>
+      <c r="O94" t="n">
         <v>0.1320234800516748</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="B95" t="s">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="C95" t="n">
-        <v>336.0</v>
+        <v>1344.0</v>
       </c>
       <c r="D95" t="n">
-        <v>0.0733464309102816</v>
+        <v>0.2933857236411264</v>
       </c>
       <c r="E95" t="n">
+        <v>1.9188155824516362</v>
+      </c>
+      <c r="F95" t="s">
+        <v>27</v>
+      </c>
+      <c r="G95" t="n">
         <v>-0.01322826573375516</v>
       </c>
-      <c r="F95" t="s">
-        <v>26</v>
-      </c>
-      <c r="G95" t="n">
-        <v>1.9188155824516362</v>
-      </c>
-      <c r="H95" t="n">
+      <c r="H95" t="s">
+        <v>45</v>
+      </c>
+      <c r="I95" t="s">
+        <v>46</v>
+      </c>
+      <c r="J95" t="n">
+        <v>442911.5</v>
+      </c>
+      <c r="K95" t="n">
+        <v>1.8835285145031395</v>
+      </c>
+      <c r="L95" t="n">
+        <v>1.829083535373696</v>
+      </c>
+      <c r="M95" t="n">
+        <v>1.936058247084272</v>
+      </c>
+      <c r="N95" t="n">
+        <v>4.4415824063845985E-164</v>
+      </c>
+      <c r="O95" t="n">
         <v>1.2436430737876876E-162</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="B96" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="C96" t="n">
-        <v>333.0</v>
+        <v>1344.0</v>
       </c>
       <c r="D96" t="n">
-        <v>0.07269155206286837</v>
+        <v>0.2933857236411264</v>
       </c>
       <c r="E96" t="n">
+        <v>1.9188155824516362</v>
+      </c>
+      <c r="F96" t="s">
+        <v>33</v>
+      </c>
+      <c r="G96" t="n">
         <v>-0.031517051446064856</v>
       </c>
-      <c r="F96" t="s">
-        <v>26</v>
-      </c>
-      <c r="G96" t="n">
-        <v>1.9188155824516362</v>
-      </c>
-      <c r="H96" t="n">
+      <c r="H96" t="s">
+        <v>45</v>
+      </c>
+      <c r="I96" t="s">
+        <v>46</v>
+      </c>
+      <c r="J96" t="n">
+        <v>436230.0</v>
+      </c>
+      <c r="K96" t="n">
+        <v>1.8964791146250226</v>
+      </c>
+      <c r="L96" t="n">
+        <v>1.8389675859255437</v>
+      </c>
+      <c r="M96" t="n">
+        <v>1.9516253933980896</v>
+      </c>
+      <c r="N96" t="n">
+        <v>7.227279766677778E-159</v>
+      </c>
+      <c r="O96" t="n">
         <v>2.0236383346697777E-157</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="B97" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="C97" t="n">
-        <v>1667.0</v>
+        <v>1344.0</v>
       </c>
       <c r="D97" t="n">
-        <v>0.36389434621261735</v>
+        <v>0.2933857236411264</v>
       </c>
       <c r="E97" t="n">
+        <v>1.9188155824516362</v>
+      </c>
+      <c r="F97" t="s">
+        <v>35</v>
+      </c>
+      <c r="G97" t="n">
         <v>0.9185545305502735</v>
       </c>
-      <c r="F97" t="s">
-        <v>26</v>
-      </c>
-      <c r="G97" t="n">
-        <v>1.9188155824516362</v>
-      </c>
-      <c r="H97" t="n">
+      <c r="H97" t="s">
+        <v>45</v>
+      </c>
+      <c r="I97" t="s">
+        <v>46</v>
+      </c>
+      <c r="J97" t="n">
+        <v>1656583.5</v>
+      </c>
+      <c r="K97" t="n">
+        <v>0.79760993677286</v>
+      </c>
+      <c r="L97" t="n">
+        <v>0.7272186614667295</v>
+      </c>
+      <c r="M97" t="n">
+        <v>0.867942344599372</v>
+      </c>
+      <c r="N97" t="n">
+        <v>2.891764041696828E-113</v>
+      </c>
+      <c r="O97" t="n">
         <v>8.096939316751118E-112</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="B98" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="C98" t="n">
-        <v>90.0</v>
+        <v>1344.0</v>
       </c>
       <c r="D98" t="n">
-        <v>0.019646365422396856</v>
+        <v>0.2933857236411264</v>
       </c>
       <c r="E98" t="n">
+        <v>1.9188155824516362</v>
+      </c>
+      <c r="F98" t="s">
+        <v>38</v>
+      </c>
+      <c r="G98" t="n">
         <v>2.255224246809487</v>
       </c>
-      <c r="F98" t="s">
-        <v>26</v>
-      </c>
-      <c r="G98" t="n">
-        <v>1.9188155824516362</v>
-      </c>
-      <c r="H98" t="n">
+      <c r="H98" t="s">
+        <v>45</v>
+      </c>
+      <c r="I98" t="s">
+        <v>46</v>
+      </c>
+      <c r="J98" t="n">
+        <v>34067.0</v>
+      </c>
+      <c r="K98" t="n">
+        <v>-0.34222743120247623</v>
+      </c>
+      <c r="L98" t="n">
+        <v>-0.4414154723005046</v>
+      </c>
+      <c r="M98" t="n">
+        <v>-0.24706468624760783</v>
+      </c>
+      <c r="N98" t="n">
+        <v>3.7927223056835904E-12</v>
+      </c>
+      <c r="O98" t="n">
         <v>1.0619622455914054E-10</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="B99" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C99" t="n">
-        <v>84.0</v>
+        <v>1344.0</v>
       </c>
       <c r="D99" t="n">
-        <v>0.0183366077275704</v>
+        <v>0.2933857236411264</v>
       </c>
       <c r="E99" t="n">
+        <v>1.9188155824516362</v>
+      </c>
+      <c r="F99" t="s">
+        <v>37</v>
+      </c>
+      <c r="G99" t="n">
         <v>2.090538950389023</v>
       </c>
-      <c r="F99" t="s">
-        <v>26</v>
-      </c>
-      <c r="G99" t="n">
-        <v>1.9188155824516362</v>
-      </c>
-      <c r="H99" t="n">
+      <c r="H99" t="s">
+        <v>45</v>
+      </c>
+      <c r="I99" t="s">
+        <v>46</v>
+      </c>
+      <c r="J99" t="n">
+        <v>50167.5</v>
+      </c>
+      <c r="K99" t="n">
+        <v>-0.10475200210609319</v>
+      </c>
+      <c r="L99" t="n">
+        <v>-0.22133177818894256</v>
+      </c>
+      <c r="M99" t="n">
+        <v>0.01535830178837519</v>
+      </c>
+      <c r="N99" t="n">
+        <v>0.08675786291651644</v>
+      </c>
+      <c r="O99" t="n">
         <v>1.0</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="B100" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="C100" t="n">
-        <v>333.0</v>
+        <v>84.0</v>
       </c>
       <c r="D100" t="n">
-        <v>0.07269155206286837</v>
+        <v>0.0183366077275704</v>
       </c>
       <c r="E100" t="n">
+        <v>2.090538950389023</v>
+      </c>
+      <c r="F100" t="s">
+        <v>33</v>
+      </c>
+      <c r="G100" t="n">
         <v>-0.031517051446064856</v>
       </c>
-      <c r="F100" t="s">
-        <v>30</v>
-      </c>
-      <c r="G100" t="n">
-        <v>2.090538950389023</v>
-      </c>
-      <c r="H100" t="n">
+      <c r="H100" t="s">
+        <v>45</v>
+      </c>
+      <c r="I100" t="s">
+        <v>46</v>
+      </c>
+      <c r="J100" t="n">
+        <v>25597.0</v>
+      </c>
+      <c r="K100" t="n">
+        <v>2.035584924811531</v>
+      </c>
+      <c r="L100" t="n">
+        <v>1.8990776275829795</v>
+      </c>
+      <c r="M100" t="n">
+        <v>2.156881628167989</v>
+      </c>
+      <c r="N100" t="n">
+        <v>6.062413738308164E-32</v>
+      </c>
+      <c r="O100" t="n">
         <v>1.697475846726286E-30</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="B101" t="s">
-        <v>19</v>
+        <v>37</v>
       </c>
       <c r="C101" t="n">
-        <v>336.0</v>
+        <v>84.0</v>
       </c>
       <c r="D101" t="n">
-        <v>0.0733464309102816</v>
+        <v>0.0183366077275704</v>
       </c>
       <c r="E101" t="n">
+        <v>2.090538950389023</v>
+      </c>
+      <c r="F101" t="s">
+        <v>27</v>
+      </c>
+      <c r="G101" t="n">
         <v>-0.01322826573375516</v>
       </c>
-      <c r="F101" t="s">
-        <v>30</v>
-      </c>
-      <c r="G101" t="n">
-        <v>2.090538950389023</v>
-      </c>
-      <c r="H101" t="n">
+      <c r="H101" t="s">
+        <v>45</v>
+      </c>
+      <c r="I101" t="s">
+        <v>46</v>
+      </c>
+      <c r="J101" t="n">
+        <v>25780.0</v>
+      </c>
+      <c r="K101" t="n">
+        <v>2.026894984570942</v>
+      </c>
+      <c r="L101" t="n">
+        <v>1.8959180932780413</v>
+      </c>
+      <c r="M101" t="n">
+        <v>2.137694399569797</v>
+      </c>
+      <c r="N101" t="n">
+        <v>9.38697204853095E-32</v>
+      </c>
+      <c r="O101" t="n">
         <v>2.628352173588666E-30</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="B102" t="s">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="C102" t="n">
-        <v>1667.0</v>
+        <v>84.0</v>
       </c>
       <c r="D102" t="n">
-        <v>0.36389434621261735</v>
+        <v>0.0183366077275704</v>
       </c>
       <c r="E102" t="n">
+        <v>2.090538950389023</v>
+      </c>
+      <c r="F102" t="s">
+        <v>35</v>
+      </c>
+      <c r="G102" t="n">
         <v>0.9185545305502735</v>
       </c>
-      <c r="F102" t="s">
-        <v>30</v>
-      </c>
-      <c r="G102" t="n">
-        <v>2.090538950389023</v>
-      </c>
-      <c r="H102" t="n">
+      <c r="H102" t="s">
+        <v>45</v>
+      </c>
+      <c r="I102" t="s">
+        <v>46</v>
+      </c>
+      <c r="J102" t="n">
+        <v>99910.0</v>
+      </c>
+      <c r="K102" t="n">
+        <v>0.7854174329862569</v>
+      </c>
+      <c r="L102" t="n">
+        <v>0.5191162758993599</v>
+      </c>
+      <c r="M102" t="n">
+        <v>1.0511272146634834</v>
+      </c>
+      <c r="N102" t="n">
+        <v>3.7955084967975926E-11</v>
+      </c>
+      <c r="O102" t="n">
         <v>1.062742379103326E-9</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="B103" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="C103" t="n">
-        <v>90.0</v>
+        <v>84.0</v>
       </c>
       <c r="D103" t="n">
-        <v>0.019646365422396856</v>
+        <v>0.0183366077275704</v>
       </c>
       <c r="E103" t="n">
+        <v>2.090538950389023</v>
+      </c>
+      <c r="F103" t="s">
+        <v>38</v>
+      </c>
+      <c r="G103" t="n">
         <v>2.255224246809487</v>
       </c>
-      <c r="F103" t="s">
-        <v>30</v>
-      </c>
-      <c r="G103" t="n">
-        <v>2.090538950389023</v>
-      </c>
-      <c r="H103" t="n">
+      <c r="H103" t="s">
+        <v>45</v>
+      </c>
+      <c r="I103" t="s">
+        <v>46</v>
+      </c>
+      <c r="J103" t="n">
+        <v>2725.0</v>
+      </c>
+      <c r="K103" t="n">
+        <v>-0.20675008437055756</v>
+      </c>
+      <c r="L103" t="n">
+        <v>-0.3614807174707758</v>
+      </c>
+      <c r="M103" t="n">
+        <v>-0.07936557900447537</v>
+      </c>
+      <c r="N103" t="n">
+        <v>0.0014940740428166165</v>
+      </c>
+      <c r="O103" t="n">
         <v>0.041834073198865264</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="B104" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="C104" t="n">
-        <v>1667.0</v>
+        <v>333.0</v>
       </c>
       <c r="D104" t="n">
-        <v>0.36389434621261735</v>
+        <v>0.07269155206286837</v>
       </c>
       <c r="E104" t="n">
+        <v>-0.031517051446064856</v>
+      </c>
+      <c r="F104" t="s">
+        <v>35</v>
+      </c>
+      <c r="G104" t="n">
         <v>0.9185545305502735</v>
       </c>
-      <c r="F104" t="s">
-        <v>28</v>
-      </c>
-      <c r="G104" t="n">
-        <v>-0.031517051446064856</v>
-      </c>
-      <c r="H104" t="n">
+      <c r="H104" t="s">
+        <v>45</v>
+      </c>
+      <c r="I104" t="s">
+        <v>46</v>
+      </c>
+      <c r="J104" t="n">
+        <v>75807.0</v>
+      </c>
+      <c r="K104" t="n">
+        <v>-0.9301162421897922</v>
+      </c>
+      <c r="L104" t="n">
+        <v>-1.0456886163271122</v>
+      </c>
+      <c r="M104" t="n">
+        <v>-0.8235379976767249</v>
+      </c>
+      <c r="N104" t="n">
+        <v>1.2452051497658856E-97</v>
+      </c>
+      <c r="O104" t="n">
         <v>3.4865744193444796E-96</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="B105" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="C105" t="n">
-        <v>90.0</v>
+        <v>333.0</v>
       </c>
       <c r="D105" t="n">
-        <v>0.019646365422396856</v>
+        <v>0.07269155206286837</v>
       </c>
       <c r="E105" t="n">
+        <v>-0.031517051446064856</v>
+      </c>
+      <c r="F105" t="s">
+        <v>38</v>
+      </c>
+      <c r="G105" t="n">
         <v>2.255224246809487</v>
       </c>
-      <c r="F105" t="s">
-        <v>28</v>
-      </c>
-      <c r="G105" t="n">
-        <v>-0.031517051446064856</v>
-      </c>
-      <c r="H105" t="n">
+      <c r="H105" t="s">
+        <v>45</v>
+      </c>
+      <c r="I105" t="s">
+        <v>46</v>
+      </c>
+      <c r="J105" t="n">
+        <v>216.0</v>
+      </c>
+      <c r="K105" t="n">
+        <v>-2.260722063443258</v>
+      </c>
+      <c r="L105" t="n">
+        <v>-2.343607851663786</v>
+      </c>
+      <c r="M105" t="n">
+        <v>-2.173784589320046</v>
+      </c>
+      <c r="N105" t="n">
+        <v>1.031428125499475E-46</v>
+      </c>
+      <c r="O105" t="n">
         <v>2.88799875139853E-45</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="B106" t="s">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="C106" t="n">
-        <v>336.0</v>
+        <v>333.0</v>
       </c>
       <c r="D106" t="n">
-        <v>0.0733464309102816</v>
+        <v>0.07269155206286837</v>
       </c>
       <c r="E106" t="n">
+        <v>-0.031517051446064856</v>
+      </c>
+      <c r="F106" t="s">
+        <v>27</v>
+      </c>
+      <c r="G106" t="n">
         <v>-0.01322826573375516</v>
       </c>
-      <c r="F106" t="s">
-        <v>28</v>
-      </c>
-      <c r="G106" t="n">
-        <v>-0.031517051446064856</v>
-      </c>
-      <c r="H106" t="n">
+      <c r="H106" t="s">
+        <v>45</v>
+      </c>
+      <c r="I106" t="s">
+        <v>46</v>
+      </c>
+      <c r="J106" t="n">
+        <v>53177.0</v>
+      </c>
+      <c r="K106" t="n">
+        <v>-0.024431477513919355</v>
+      </c>
+      <c r="L106" t="n">
+        <v>-0.06796475318016351</v>
+      </c>
+      <c r="M106" t="n">
+        <v>0.01832333381052171</v>
+      </c>
+      <c r="N106" t="n">
+        <v>0.2683138977446207</v>
+      </c>
+      <c r="O106" t="n">
         <v>1.0</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="B107" t="s">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="C107" t="n">
-        <v>336.0</v>
+        <v>90.0</v>
       </c>
       <c r="D107" t="n">
-        <v>0.0733464309102816</v>
+        <v>0.019646365422396856</v>
       </c>
       <c r="E107" t="n">
+        <v>2.255224246809487</v>
+      </c>
+      <c r="F107" t="s">
+        <v>27</v>
+      </c>
+      <c r="G107" t="n">
         <v>-0.01322826573375516</v>
       </c>
-      <c r="F107" t="s">
-        <v>29</v>
-      </c>
-      <c r="G107" t="n">
-        <v>2.255224246809487</v>
-      </c>
-      <c r="H107" t="n">
+      <c r="H107" t="s">
+        <v>45</v>
+      </c>
+      <c r="I107" t="s">
+        <v>46</v>
+      </c>
+      <c r="J107" t="n">
+        <v>30120.0</v>
+      </c>
+      <c r="K107" t="n">
+        <v>2.239028008592033</v>
+      </c>
+      <c r="L107" t="n">
+        <v>2.1614873486043518</v>
+      </c>
+      <c r="M107" t="n">
+        <v>2.315668367609943</v>
+      </c>
+      <c r="N107" t="n">
+        <v>2.1479963434622582E-47</v>
+      </c>
+      <c r="O107" t="n">
         <v>6.014389761694323E-46</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="B108" t="s">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="C108" t="n">
-        <v>1667.0</v>
+        <v>90.0</v>
       </c>
       <c r="D108" t="n">
-        <v>0.36389434621261735</v>
+        <v>0.019646365422396856</v>
       </c>
       <c r="E108" t="n">
+        <v>2.255224246809487</v>
+      </c>
+      <c r="F108" t="s">
+        <v>35</v>
+      </c>
+      <c r="G108" t="n">
         <v>0.9185545305502735</v>
       </c>
-      <c r="F108" t="s">
-        <v>29</v>
-      </c>
-      <c r="G108" t="n">
-        <v>2.255224246809487</v>
-      </c>
-      <c r="H108" t="n">
+      <c r="H108" t="s">
+        <v>45</v>
+      </c>
+      <c r="I108" t="s">
+        <v>46</v>
+      </c>
+      <c r="J108" t="n">
+        <v>129047.0</v>
+      </c>
+      <c r="K108" t="n">
+        <v>1.2135268459215387</v>
+      </c>
+      <c r="L108" t="n">
+        <v>1.0045758244235108</v>
+      </c>
+      <c r="M108" t="n">
+        <v>1.4102451286994064</v>
+      </c>
+      <c r="N108" t="n">
+        <v>9.874072236611186E-31</v>
+      </c>
+      <c r="O108" t="n">
         <v>2.764740226251132E-29</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="B109" t="s">
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="C109" t="n">
-        <v>336.0</v>
+        <v>1667.0</v>
       </c>
       <c r="D109" t="n">
-        <v>0.0733464309102816</v>
+        <v>0.36389434621261735</v>
       </c>
       <c r="E109" t="n">
+        <v>0.9185545305502735</v>
+      </c>
+      <c r="F109" t="s">
+        <v>27</v>
+      </c>
+      <c r="G109" t="n">
         <v>-0.01322826573375516</v>
       </c>
-      <c r="F109" t="s">
-        <v>25</v>
-      </c>
-      <c r="G109" t="n">
-        <v>0.9185545305502735</v>
-      </c>
-      <c r="H109" t="n">
+      <c r="H109" t="s">
+        <v>45</v>
+      </c>
+      <c r="I109" t="s">
+        <v>46</v>
+      </c>
+      <c r="J109" t="n">
+        <v>485665.5</v>
+      </c>
+      <c r="K109" t="n">
+        <v>0.9266843028861472</v>
+      </c>
+      <c r="L109" t="n">
+        <v>0.814101742174673</v>
+      </c>
+      <c r="M109" t="n">
+        <v>1.0486226994038779</v>
+      </c>
+      <c r="N109" t="n">
+        <v>2.705007214772672E-100</v>
+      </c>
+      <c r="O109" t="n">
         <v>7.574020201363482E-99</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="B110" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="C110" t="n">
-        <v>394.0</v>
+        <v>336.0</v>
       </c>
       <c r="D110" t="n">
-        <v>0.08600742196027068</v>
+        <v>0.0733464309102816</v>
       </c>
       <c r="E110" t="n">
+        <v>-0.01322826573375516</v>
+      </c>
+      <c r="F110" t="s">
+        <v>21</v>
+      </c>
+      <c r="G110" t="n">
         <v>0.012837224705172217</v>
       </c>
-      <c r="F110" t="s">
-        <v>19</v>
-      </c>
-      <c r="G110" t="n">
-        <v>-0.01322826573375516</v>
-      </c>
-      <c r="H110" t="n">
+      <c r="H110" t="s">
+        <v>45</v>
+      </c>
+      <c r="I110" t="s">
+        <v>46</v>
+      </c>
+      <c r="J110" t="n">
+        <v>61658.0</v>
+      </c>
+      <c r="K110" t="n">
+        <v>-0.03032086117200064</v>
+      </c>
+      <c r="L110" t="n">
+        <v>-0.06808357761290613</v>
+      </c>
+      <c r="M110" t="n">
+        <v>0.008224894691031699</v>
+      </c>
+      <c r="N110" t="n">
+        <v>0.11036107900412086</v>
+      </c>
+      <c r="O110" t="n">
         <v>1.0</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="B111" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="C111" t="n">
-        <v>193.0</v>
+        <v>78.0</v>
       </c>
       <c r="D111" t="n">
-        <v>0.48737373737373735</v>
+        <v>0.19696969696969696</v>
       </c>
       <c r="E111" t="n">
+        <v>-0.027152246043614825</v>
+      </c>
+      <c r="F111" t="s">
+        <v>39</v>
+      </c>
+      <c r="G111" t="n">
         <v>1.1324408180711654</v>
       </c>
-      <c r="F111" t="s">
-        <v>20</v>
-      </c>
-      <c r="G111" t="n">
-        <v>-0.027152246043614825</v>
-      </c>
-      <c r="H111" t="n">
+      <c r="H111" t="s">
+        <v>45</v>
+      </c>
+      <c r="I111" t="s">
+        <v>46</v>
+      </c>
+      <c r="J111" t="n">
+        <v>1108.0</v>
+      </c>
+      <c r="K111" t="n">
+        <v>-1.2060694992348828</v>
+      </c>
+      <c r="L111" t="n">
+        <v>-1.3597679872220052</v>
+      </c>
+      <c r="M111" t="n">
+        <v>-1.0597180137303093</v>
+      </c>
+      <c r="N111" t="n">
+        <v>4.366328731575549E-28</v>
+      </c>
+      <c r="O111" t="n">
         <v>2.6197972389453295E-27</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="B112" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="C112" t="n">
-        <v>31.0</v>
+        <v>78.0</v>
       </c>
       <c r="D112" t="n">
-        <v>0.07828282828282829</v>
+        <v>0.19696969696969696</v>
       </c>
       <c r="E112" t="n">
+        <v>-0.027152246043614825</v>
+      </c>
+      <c r="F112" t="s">
+        <v>40</v>
+      </c>
+      <c r="G112" t="n">
         <v>1.0824589558088609</v>
       </c>
-      <c r="F112" t="s">
-        <v>20</v>
-      </c>
-      <c r="G112" t="n">
-        <v>-0.027152246043614825</v>
-      </c>
-      <c r="H112" t="n">
+      <c r="H112" t="s">
+        <v>45</v>
+      </c>
+      <c r="I112" t="s">
+        <v>46</v>
+      </c>
+      <c r="J112" t="n">
+        <v>483.0</v>
+      </c>
+      <c r="K112" t="n">
+        <v>-1.0352179537315762</v>
+      </c>
+      <c r="L112" t="n">
+        <v>-1.331196354042428</v>
+      </c>
+      <c r="M112" t="n">
+        <v>-0.570752618603164</v>
+      </c>
+      <c r="N112" t="n">
+        <v>1.0958930510488775E-6</v>
+      </c>
+      <c r="O112" t="n">
         <v>6.575358306293265E-6</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="B113" t="s">
-        <v>19</v>
+        <v>39</v>
       </c>
       <c r="C113" t="n">
-        <v>94.0</v>
+        <v>193.0</v>
       </c>
       <c r="D113" t="n">
-        <v>0.23737373737373738</v>
+        <v>0.48737373737373735</v>
       </c>
       <c r="E113" t="n">
+        <v>1.1324408180711654</v>
+      </c>
+      <c r="F113" t="s">
+        <v>27</v>
+      </c>
+      <c r="G113" t="n">
         <v>0.025554104472388227</v>
       </c>
-      <c r="F113" t="s">
-        <v>32</v>
-      </c>
-      <c r="G113" t="n">
-        <v>1.1324408180711654</v>
-      </c>
-      <c r="H113" t="n">
+      <c r="H113" t="s">
+        <v>45</v>
+      </c>
+      <c r="I113" t="s">
+        <v>46</v>
+      </c>
+      <c r="J113" t="n">
+        <v>16802.5</v>
+      </c>
+      <c r="K113" t="n">
+        <v>1.180785713650641</v>
+      </c>
+      <c r="L113" t="n">
+        <v>1.0404046954463644</v>
+      </c>
+      <c r="M113" t="n">
+        <v>1.3154902684244922</v>
+      </c>
+      <c r="N113" t="n">
+        <v>1.0509854559254977E-31</v>
+      </c>
+      <c r="O113" t="n">
         <v>6.305912735552986E-31</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="B114" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="C114" t="n">
-        <v>31.0</v>
+        <v>193.0</v>
       </c>
       <c r="D114" t="n">
-        <v>0.07828282828282829</v>
+        <v>0.48737373737373735</v>
       </c>
       <c r="E114" t="n">
+        <v>1.1324408180711654</v>
+      </c>
+      <c r="F114" t="s">
+        <v>40</v>
+      </c>
+      <c r="G114" t="n">
         <v>1.0824589558088609</v>
       </c>
-      <c r="F114" t="s">
-        <v>32</v>
-      </c>
-      <c r="G114" t="n">
-        <v>1.1324408180711654</v>
-      </c>
-      <c r="H114" t="n">
+      <c r="H114" t="s">
+        <v>45</v>
+      </c>
+      <c r="I114" t="s">
+        <v>46</v>
+      </c>
+      <c r="J114" t="n">
+        <v>3412.0</v>
+      </c>
+      <c r="K114" t="n">
+        <v>0.2229414789536317</v>
+      </c>
+      <c r="L114" t="n">
+        <v>-0.11844423923831664</v>
+      </c>
+      <c r="M114" t="n">
+        <v>0.5986384855788773</v>
+      </c>
+      <c r="N114" t="n">
+        <v>0.2098497091105936</v>
+      </c>
+      <c r="O114" t="n">
         <v>1.0</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="B115" t="s">
-        <v>19</v>
+        <v>40</v>
       </c>
       <c r="C115" t="n">
-        <v>94.0</v>
+        <v>31.0</v>
       </c>
       <c r="D115" t="n">
-        <v>0.23737373737373738</v>
+        <v>0.07828282828282829</v>
       </c>
       <c r="E115" t="n">
+        <v>1.0824589558088609</v>
+      </c>
+      <c r="F115" t="s">
+        <v>27</v>
+      </c>
+      <c r="G115" t="n">
         <v>0.025554104472388227</v>
       </c>
-      <c r="F115" t="s">
-        <v>33</v>
-      </c>
-      <c r="G115" t="n">
-        <v>1.0824589558088609</v>
-      </c>
-      <c r="H115" t="n">
+      <c r="H115" t="s">
+        <v>45</v>
+      </c>
+      <c r="I115" t="s">
+        <v>46</v>
+      </c>
+      <c r="J115" t="n">
+        <v>2306.5</v>
+      </c>
+      <c r="K115" t="n">
+        <v>1.0243172271161007</v>
+      </c>
+      <c r="L115" t="n">
+        <v>0.5378056980997044</v>
+      </c>
+      <c r="M115" t="n">
+        <v>1.3112683903434756</v>
+      </c>
+      <c r="N115" t="n">
+        <v>1.2096033094904328E-6</v>
+      </c>
+      <c r="O115" t="n">
         <v>7.257619856942597E-6</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="B116" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="C116" t="n">
-        <v>78.0</v>
+        <v>94.0</v>
       </c>
       <c r="D116" t="n">
-        <v>0.19696969696969696</v>
+        <v>0.23737373737373738</v>
       </c>
       <c r="E116" t="n">
+        <v>0.025554104472388227</v>
+      </c>
+      <c r="F116" t="s">
+        <v>21</v>
+      </c>
+      <c r="G116" t="n">
         <v>-0.027152246043614825</v>
       </c>
-      <c r="F116" t="s">
-        <v>19</v>
-      </c>
-      <c r="G116" t="n">
-        <v>0.025554104472388227</v>
-      </c>
-      <c r="H116" t="n">
+      <c r="H116" t="s">
+        <v>45</v>
+      </c>
+      <c r="I116" t="s">
+        <v>46</v>
+      </c>
+      <c r="J116" t="n">
+        <v>3827.0</v>
+      </c>
+      <c r="K116" t="n">
+        <v>0.02713541204167177</v>
+      </c>
+      <c r="L116" t="n">
+        <v>-0.07496426913167302</v>
+      </c>
+      <c r="M116" t="n">
+        <v>0.13022016515252263</v>
+      </c>
+      <c r="N116" t="n">
+        <v>0.6215024313697044</v>
+      </c>
+      <c r="O116" t="n">
         <v>1.0</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="B117" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="C117" t="n">
-        <v>1035.0</v>
+        <v>394.0</v>
       </c>
       <c r="D117" t="n">
-        <v>0.4261012762453685</v>
+        <v>0.16220666941128037</v>
       </c>
       <c r="E117" t="n">
+        <v>0.012837224705172217</v>
+      </c>
+      <c r="F117" t="s">
+        <v>39</v>
+      </c>
+      <c r="G117" t="n">
         <v>0.26245108973042947</v>
       </c>
-      <c r="F117" t="s">
-        <v>20</v>
-      </c>
-      <c r="G117" t="n">
-        <v>0.012837224705172217</v>
-      </c>
-      <c r="H117" t="n">
+      <c r="H117" t="s">
+        <v>45</v>
+      </c>
+      <c r="I117" t="s">
+        <v>46</v>
+      </c>
+      <c r="J117" t="n">
+        <v>128606.0</v>
+      </c>
+      <c r="K117" t="n">
+        <v>-0.24026732145659416</v>
+      </c>
+      <c r="L117" t="n">
+        <v>-0.2858332897229084</v>
+      </c>
+      <c r="M117" t="n">
+        <v>-0.19635811203713183</v>
+      </c>
+      <c r="N117" t="n">
+        <v>3.422714040943628E-27</v>
+      </c>
+      <c r="O117" t="n">
         <v>9.583599314642158E-26</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="B118" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="C118" t="n">
-        <v>174.0</v>
+        <v>394.0</v>
       </c>
       <c r="D118" t="n">
-        <v>0.0716344174557431</v>
+        <v>0.16220666941128037</v>
       </c>
       <c r="E118" t="n">
+        <v>0.012837224705172217</v>
+      </c>
+      <c r="F118" t="s">
+        <v>43</v>
+      </c>
+      <c r="G118" t="n">
         <v>0.35602585719312263</v>
       </c>
-      <c r="F118" t="s">
-        <v>20</v>
-      </c>
-      <c r="G118" t="n">
-        <v>0.012837224705172217</v>
-      </c>
-      <c r="H118" t="n">
+      <c r="H118" t="s">
+        <v>45</v>
+      </c>
+      <c r="I118" t="s">
+        <v>46</v>
+      </c>
+      <c r="J118" t="n">
+        <v>19589.5</v>
+      </c>
+      <c r="K118" t="n">
+        <v>-0.34719340128327625</v>
+      </c>
+      <c r="L118" t="n">
+        <v>-0.45101179247385825</v>
+      </c>
+      <c r="M118" t="n">
+        <v>-0.25307935751302296</v>
+      </c>
+      <c r="N118" t="n">
+        <v>3.7281350550277635E-16</v>
+      </c>
+      <c r="O118" t="n">
         <v>1.0438778154077737E-14</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="B119" t="s">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="C119" t="n">
-        <v>108.0</v>
+        <v>394.0</v>
       </c>
       <c r="D119" t="n">
-        <v>0.044462741869081925</v>
+        <v>0.16220666941128037</v>
       </c>
       <c r="E119" t="n">
+        <v>0.012837224705172217</v>
+      </c>
+      <c r="F119" t="s">
+        <v>42</v>
+      </c>
+      <c r="G119" t="n">
         <v>-0.11350927482751812</v>
       </c>
-      <c r="F119" t="s">
-        <v>20</v>
-      </c>
-      <c r="G119" t="n">
-        <v>0.012837224705172217</v>
-      </c>
-      <c r="H119" t="n">
+      <c r="H119" t="s">
+        <v>45</v>
+      </c>
+      <c r="I119" t="s">
+        <v>46</v>
+      </c>
+      <c r="J119" t="n">
+        <v>27102.5</v>
+      </c>
+      <c r="K119" t="n">
+        <v>0.1267683763214048</v>
+      </c>
+      <c r="L119" t="n">
+        <v>0.07089892105919313</v>
+      </c>
+      <c r="M119" t="n">
+        <v>0.18438459669498652</v>
+      </c>
+      <c r="N119" t="n">
+        <v>1.2841918941056522E-5</v>
+      </c>
+      <c r="O119" t="n">
         <v>3.5957373034958265E-4</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="B120" t="s">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="C120" t="n">
-        <v>129.0</v>
+        <v>394.0</v>
       </c>
       <c r="D120" t="n">
-        <v>0.0531082750102923</v>
+        <v>0.16220666941128037</v>
       </c>
       <c r="E120" t="n">
+        <v>0.012837224705172217</v>
+      </c>
+      <c r="F120" t="s">
+        <v>41</v>
+      </c>
+      <c r="G120" t="n">
         <v>-0.040958607678906384</v>
       </c>
-      <c r="F120" t="s">
-        <v>20</v>
-      </c>
-      <c r="G120" t="n">
-        <v>0.012837224705172217</v>
-      </c>
-      <c r="H120" t="n">
+      <c r="H120" t="s">
+        <v>45</v>
+      </c>
+      <c r="I120" t="s">
+        <v>46</v>
+      </c>
+      <c r="J120" t="n">
+        <v>28464.5</v>
+      </c>
+      <c r="K120" t="n">
+        <v>0.056064817106210064</v>
+      </c>
+      <c r="L120" t="n">
+        <v>2.1732920252697505E-7</v>
+      </c>
+      <c r="M120" t="n">
+        <v>0.11007317668196515</v>
+      </c>
+      <c r="N120" t="n">
+        <v>0.040540285305224535</v>
+      </c>
+      <c r="O120" t="n">
         <v>1.0</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="B121" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C121" t="n">
-        <v>158.0</v>
+        <v>394.0</v>
       </c>
       <c r="D121" t="n">
-        <v>0.06504734458624949</v>
+        <v>0.16220666941128037</v>
       </c>
       <c r="E121" t="n">
+        <v>0.012837224705172217</v>
+      </c>
+      <c r="F121" t="s">
+        <v>30</v>
+      </c>
+      <c r="G121" t="n">
         <v>0.021189299069938092</v>
       </c>
-      <c r="F121" t="s">
-        <v>20</v>
-      </c>
-      <c r="G121" t="n">
-        <v>0.012837224705172217</v>
-      </c>
-      <c r="H121" t="n">
+      <c r="H121" t="s">
+        <v>45</v>
+      </c>
+      <c r="I121" t="s">
+        <v>46</v>
+      </c>
+      <c r="J121" t="n">
+        <v>30295.5</v>
+      </c>
+      <c r="K121" t="n">
+        <v>-0.011168536795780129</v>
+      </c>
+      <c r="L121" t="n">
+        <v>-0.05835268799118769</v>
+      </c>
+      <c r="M121" t="n">
+        <v>0.03520913064689762</v>
+      </c>
+      <c r="N121" t="n">
+        <v>0.6240712061893525</v>
+      </c>
+      <c r="O121" t="n">
         <v>1.0</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="B122" t="s">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="C122" t="n">
-        <v>95.0</v>
+        <v>394.0</v>
       </c>
       <c r="D122" t="n">
-        <v>0.03911074516261836</v>
+        <v>0.16220666941128037</v>
       </c>
       <c r="E122" t="n">
+        <v>0.012837224705172217</v>
+      </c>
+      <c r="F122" t="s">
+        <v>44</v>
+      </c>
+      <c r="G122" t="n">
         <v>0.029383777685209667</v>
       </c>
-      <c r="F122" t="s">
-        <v>20</v>
-      </c>
-      <c r="G122" t="n">
-        <v>0.012837224705172217</v>
-      </c>
-      <c r="H122" t="n">
+      <c r="H122" t="s">
+        <v>45</v>
+      </c>
+      <c r="I122" t="s">
+        <v>46</v>
+      </c>
+      <c r="J122" t="n">
+        <v>18149.0</v>
+      </c>
+      <c r="K122" t="n">
+        <v>-0.016538220579850573</v>
+      </c>
+      <c r="L122" t="n">
+        <v>-0.08614909193298897</v>
+      </c>
+      <c r="M122" t="n">
+        <v>0.05076077257545301</v>
+      </c>
+      <c r="N122" t="n">
+        <v>0.6473372524570647</v>
+      </c>
+      <c r="O122" t="n">
         <v>1.0</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="B123" t="s">
-        <v>19</v>
+        <v>39</v>
       </c>
       <c r="C123" t="n">
-        <v>336.0</v>
+        <v>1035.0</v>
       </c>
       <c r="D123" t="n">
-        <v>0.138328530259366</v>
+        <v>0.4261012762453685</v>
       </c>
       <c r="E123" t="n">
+        <v>0.26245108973042947</v>
+      </c>
+      <c r="F123" t="s">
+        <v>27</v>
+      </c>
+      <c r="G123" t="n">
         <v>-0.01322826573375516</v>
       </c>
-      <c r="F123" t="s">
-        <v>32</v>
-      </c>
-      <c r="G123" t="n">
-        <v>0.26245108973042947</v>
-      </c>
-      <c r="H123" t="n">
+      <c r="H123" t="s">
+        <v>45</v>
+      </c>
+      <c r="I123" t="s">
+        <v>46</v>
+      </c>
+      <c r="J123" t="n">
+        <v>244698.0</v>
+      </c>
+      <c r="K123" t="n">
+        <v>0.27396307854419594</v>
+      </c>
+      <c r="L123" t="n">
+        <v>0.22565790908731997</v>
+      </c>
+      <c r="M123" t="n">
+        <v>0.3215109202772978</v>
+      </c>
+      <c r="N123" t="n">
+        <v>2.8662525285608894E-29</v>
+      </c>
+      <c r="O123" t="n">
         <v>8.025507079970491E-28</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="B124" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="C124" t="n">
-        <v>108.0</v>
+        <v>1035.0</v>
       </c>
       <c r="D124" t="n">
-        <v>0.044462741869081925</v>
+        <v>0.4261012762453685</v>
       </c>
       <c r="E124" t="n">
+        <v>0.26245108973042947</v>
+      </c>
+      <c r="F124" t="s">
+        <v>42</v>
+      </c>
+      <c r="G124" t="n">
         <v>-0.11350927482751812</v>
       </c>
-      <c r="F124" t="s">
-        <v>32</v>
-      </c>
-      <c r="G124" t="n">
-        <v>0.26245108973042947</v>
-      </c>
-      <c r="H124" t="n">
+      <c r="H124" t="s">
+        <v>45</v>
+      </c>
+      <c r="I124" t="s">
+        <v>46</v>
+      </c>
+      <c r="J124" t="n">
+        <v>85070.0</v>
+      </c>
+      <c r="K124" t="n">
+        <v>0.36617946634674875</v>
+      </c>
+      <c r="L124" t="n">
+        <v>0.29020300579481206</v>
+      </c>
+      <c r="M124" t="n">
+        <v>0.4453181499497252</v>
+      </c>
+      <c r="N124" t="n">
+        <v>3.9316582606164374E-19</v>
+      </c>
+      <c r="O124" t="n">
         <v>1.1008643129726024E-17</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="B125" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="C125" t="n">
-        <v>129.0</v>
+        <v>1035.0</v>
       </c>
       <c r="D125" t="n">
-        <v>0.0531082750102923</v>
+        <v>0.4261012762453685</v>
       </c>
       <c r="E125" t="n">
+        <v>0.26245108973042947</v>
+      </c>
+      <c r="F125" t="s">
+        <v>41</v>
+      </c>
+      <c r="G125" t="n">
         <v>-0.040958607678906384</v>
       </c>
-      <c r="F125" t="s">
-        <v>32</v>
-      </c>
-      <c r="G125" t="n">
-        <v>0.26245108973042947</v>
-      </c>
-      <c r="H125" t="n">
+      <c r="H125" t="s">
+        <v>45</v>
+      </c>
+      <c r="I125" t="s">
+        <v>46</v>
+      </c>
+      <c r="J125" t="n">
+        <v>94860.5</v>
+      </c>
+      <c r="K125" t="n">
+        <v>0.29711104011023304</v>
+      </c>
+      <c r="L125" t="n">
+        <v>0.22185314455737926</v>
+      </c>
+      <c r="M125" t="n">
+        <v>0.371234313964079</v>
+      </c>
+      <c r="N125" t="n">
+        <v>5.912983374450396E-15</v>
+      </c>
+      <c r="O125" t="n">
         <v>1.655635344846111E-13</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="B126" t="s">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="C126" t="n">
-        <v>158.0</v>
+        <v>1035.0</v>
       </c>
       <c r="D126" t="n">
-        <v>0.06504734458624949</v>
+        <v>0.4261012762453685</v>
       </c>
       <c r="E126" t="n">
+        <v>0.26245108973042947</v>
+      </c>
+      <c r="F126" t="s">
+        <v>30</v>
+      </c>
+      <c r="G126" t="n">
         <v>0.021189299069938092</v>
       </c>
-      <c r="F126" t="s">
-        <v>32</v>
-      </c>
-      <c r="G126" t="n">
-        <v>0.26245108973042947</v>
-      </c>
-      <c r="H126" t="n">
+      <c r="H126" t="s">
+        <v>45</v>
+      </c>
+      <c r="I126" t="s">
+        <v>46</v>
+      </c>
+      <c r="J126" t="n">
+        <v>109955.5</v>
+      </c>
+      <c r="K126" t="n">
+        <v>0.22754418482224126</v>
+      </c>
+      <c r="L126" t="n">
+        <v>0.16412103494126823</v>
+      </c>
+      <c r="M126" t="n">
+        <v>0.29232734545984396</v>
+      </c>
+      <c r="N126" t="n">
+        <v>2.7750791409893518E-12</v>
+      </c>
+      <c r="O126" t="n">
         <v>7.770221594770185E-11</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="B127" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C127" t="n">
-        <v>95.0</v>
+        <v>1035.0</v>
       </c>
       <c r="D127" t="n">
-        <v>0.03911074516261836</v>
+        <v>0.4261012762453685</v>
       </c>
       <c r="E127" t="n">
+        <v>0.26245108973042947</v>
+      </c>
+      <c r="F127" t="s">
+        <v>44</v>
+      </c>
+      <c r="G127" t="n">
         <v>0.029383777685209667</v>
       </c>
-      <c r="F127" t="s">
-        <v>32</v>
-      </c>
-      <c r="G127" t="n">
-        <v>0.26245108973042947</v>
-      </c>
-      <c r="H127" t="n">
+      <c r="H127" t="s">
+        <v>45</v>
+      </c>
+      <c r="I127" t="s">
+        <v>46</v>
+      </c>
+      <c r="J127" t="n">
+        <v>63877.5</v>
+      </c>
+      <c r="K127" t="n">
+        <v>0.2199642150553197</v>
+      </c>
+      <c r="L127" t="n">
+        <v>0.1312363840531739</v>
+      </c>
+      <c r="M127" t="n">
+        <v>0.3101642976809</v>
+      </c>
+      <c r="N127" t="n">
+        <v>1.3400739161758882E-6</v>
+      </c>
+      <c r="O127" t="n">
         <v>3.752206965292487E-5</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="B128" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="C128" t="n">
-        <v>174.0</v>
+        <v>1035.0</v>
       </c>
       <c r="D128" t="n">
-        <v>0.0716344174557431</v>
+        <v>0.4261012762453685</v>
       </c>
       <c r="E128" t="n">
+        <v>0.26245108973042947</v>
+      </c>
+      <c r="F128" t="s">
+        <v>43</v>
+      </c>
+      <c r="G128" t="n">
         <v>0.35602585719312263</v>
       </c>
-      <c r="F128" t="s">
-        <v>32</v>
-      </c>
-      <c r="G128" t="n">
-        <v>0.26245108973042947</v>
-      </c>
-      <c r="H128" t="n">
+      <c r="H128" t="s">
+        <v>45</v>
+      </c>
+      <c r="I128" t="s">
+        <v>46</v>
+      </c>
+      <c r="J128" t="n">
+        <v>79349.5</v>
+      </c>
+      <c r="K128" t="n">
+        <v>-0.11949058312879389</v>
+      </c>
+      <c r="L128" t="n">
+        <v>-0.21719928588094875</v>
+      </c>
+      <c r="M128" t="n">
+        <v>-0.02610892391289497</v>
+      </c>
+      <c r="N128" t="n">
+        <v>0.012079550371857777</v>
+      </c>
+      <c r="O128" t="n">
         <v>0.33822741041201776</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="B129" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="C129" t="n">
-        <v>174.0</v>
+        <v>129.0</v>
       </c>
       <c r="D129" t="n">
-        <v>0.0716344174557431</v>
+        <v>0.0531082750102923</v>
       </c>
       <c r="E129" t="n">
+        <v>-0.040958607678906384</v>
+      </c>
+      <c r="F129" t="s">
+        <v>43</v>
+      </c>
+      <c r="G129" t="n">
         <v>0.35602585719312263</v>
       </c>
-      <c r="F129" t="s">
-        <v>36</v>
-      </c>
-      <c r="G129" t="n">
-        <v>-0.040958607678906384</v>
-      </c>
-      <c r="H129" t="n">
+      <c r="H129" t="s">
+        <v>45</v>
+      </c>
+      <c r="I129" t="s">
+        <v>46</v>
+      </c>
+      <c r="J129" t="n">
+        <v>5979.0</v>
+      </c>
+      <c r="K129" t="n">
+        <v>-0.40479544004078094</v>
+      </c>
+      <c r="L129" t="n">
+        <v>-0.542874011404572</v>
+      </c>
+      <c r="M129" t="n">
+        <v>-0.2784614679207482</v>
+      </c>
+      <c r="N129" t="n">
+        <v>3.5521228098291057E-12</v>
+      </c>
+      <c r="O129" t="n">
         <v>9.945943867521496E-11</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="B130" t="s">
-        <v>24</v>
+        <v>41</v>
       </c>
       <c r="C130" t="n">
-        <v>158.0</v>
+        <v>129.0</v>
       </c>
       <c r="D130" t="n">
-        <v>0.06504734458624949</v>
+        <v>0.0531082750102923</v>
       </c>
       <c r="E130" t="n">
+        <v>-0.040958607678906384</v>
+      </c>
+      <c r="F130" t="s">
+        <v>30</v>
+      </c>
+      <c r="G130" t="n">
         <v>0.021189299069938092</v>
       </c>
-      <c r="F130" t="s">
-        <v>36</v>
-      </c>
-      <c r="G130" t="n">
-        <v>-0.040958607678906384</v>
-      </c>
-      <c r="H130" t="n">
+      <c r="H130" t="s">
+        <v>45</v>
+      </c>
+      <c r="I130" t="s">
+        <v>46</v>
+      </c>
+      <c r="J130" t="n">
+        <v>8720.0</v>
+      </c>
+      <c r="K130" t="n">
+        <v>-0.06579317611973011</v>
+      </c>
+      <c r="L130" t="n">
+        <v>-0.128991330239404</v>
+      </c>
+      <c r="M130" t="n">
+        <v>-0.005718957525624154</v>
+      </c>
+      <c r="N130" t="n">
+        <v>0.035489489590031266</v>
+      </c>
+      <c r="O130" t="n">
         <v>0.9937057085208755</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="B131" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="C131" t="n">
-        <v>108.0</v>
+        <v>129.0</v>
       </c>
       <c r="D131" t="n">
-        <v>0.044462741869081925</v>
+        <v>0.0531082750102923</v>
       </c>
       <c r="E131" t="n">
+        <v>-0.040958607678906384</v>
+      </c>
+      <c r="F131" t="s">
+        <v>42</v>
+      </c>
+      <c r="G131" t="n">
         <v>-0.11350927482751812</v>
       </c>
-      <c r="F131" t="s">
-        <v>36</v>
-      </c>
-      <c r="G131" t="n">
-        <v>-0.040958607678906384</v>
-      </c>
-      <c r="H131" t="n">
+      <c r="H131" t="s">
+        <v>45</v>
+      </c>
+      <c r="I131" t="s">
+        <v>46</v>
+      </c>
+      <c r="J131" t="n">
+        <v>7999.0</v>
+      </c>
+      <c r="K131" t="n">
+        <v>0.0696193899959739</v>
+      </c>
+      <c r="L131" t="n">
+        <v>6.70144953883967E-5</v>
+      </c>
+      <c r="M131" t="n">
+        <v>0.14252035592811113</v>
+      </c>
+      <c r="N131" t="n">
+        <v>0.04946561849054176</v>
+      </c>
+      <c r="O131" t="n">
         <v>1.0</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="B132" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="C132" t="n">
-        <v>95.0</v>
+        <v>129.0</v>
       </c>
       <c r="D132" t="n">
-        <v>0.03911074516261836</v>
+        <v>0.0531082750102923</v>
       </c>
       <c r="E132" t="n">
+        <v>-0.040958607678906384</v>
+      </c>
+      <c r="F132" t="s">
+        <v>44</v>
+      </c>
+      <c r="G132" t="n">
         <v>0.029383777685209667</v>
       </c>
-      <c r="F132" t="s">
-        <v>36</v>
-      </c>
-      <c r="G132" t="n">
-        <v>-0.040958607678906384</v>
-      </c>
-      <c r="H132" t="n">
+      <c r="H132" t="s">
+        <v>45</v>
+      </c>
+      <c r="I132" t="s">
+        <v>46</v>
+      </c>
+      <c r="J132" t="n">
+        <v>5365.5</v>
+      </c>
+      <c r="K132" t="n">
+        <v>-0.07126472253582282</v>
+      </c>
+      <c r="L132" t="n">
+        <v>-0.16219584892966707</v>
+      </c>
+      <c r="M132" t="n">
+        <v>0.01600078881418566</v>
+      </c>
+      <c r="N132" t="n">
+        <v>0.112108747268069</v>
+      </c>
+      <c r="O132" t="n">
         <v>1.0</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="B133" t="s">
-        <v>19</v>
+        <v>41</v>
       </c>
       <c r="C133" t="n">
-        <v>336.0</v>
+        <v>129.0</v>
       </c>
       <c r="D133" t="n">
-        <v>0.138328530259366</v>
+        <v>0.0531082750102923</v>
       </c>
       <c r="E133" t="n">
+        <v>-0.040958607678906384</v>
+      </c>
+      <c r="F133" t="s">
+        <v>27</v>
+      </c>
+      <c r="G133" t="n">
         <v>-0.01322826573375516</v>
       </c>
-      <c r="F133" t="s">
-        <v>36</v>
-      </c>
-      <c r="G133" t="n">
-        <v>-0.040958607678906384</v>
-      </c>
-      <c r="H133" t="n">
+      <c r="H133" t="s">
+        <v>45</v>
+      </c>
+      <c r="I133" t="s">
+        <v>46</v>
+      </c>
+      <c r="J133" t="n">
+        <v>20497.0</v>
+      </c>
+      <c r="K133" t="n">
+        <v>-0.025198057023805672</v>
+      </c>
+      <c r="L133" t="n">
+        <v>-0.08018397435650118</v>
+      </c>
+      <c r="M133" t="n">
+        <v>0.0301891917641467</v>
+      </c>
+      <c r="N133" t="n">
+        <v>0.36525953593556565</v>
+      </c>
+      <c r="O133" t="n">
         <v>1.0</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="B134" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="C134" t="n">
-        <v>174.0</v>
+        <v>108.0</v>
       </c>
       <c r="D134" t="n">
-        <v>0.0716344174557431</v>
+        <v>0.044462741869081925</v>
       </c>
       <c r="E134" t="n">
+        <v>-0.11350927482751812</v>
+      </c>
+      <c r="F134" t="s">
+        <v>43</v>
+      </c>
+      <c r="G134" t="n">
         <v>0.35602585719312263</v>
       </c>
-      <c r="F134" t="s">
-        <v>35</v>
-      </c>
-      <c r="G134" t="n">
-        <v>-0.11350927482751812</v>
-      </c>
-      <c r="H134" t="n">
+      <c r="H134" t="s">
+        <v>45</v>
+      </c>
+      <c r="I134" t="s">
+        <v>46</v>
+      </c>
+      <c r="J134" t="n">
+        <v>4175.5</v>
+      </c>
+      <c r="K134" t="n">
+        <v>-0.4699312357807939</v>
+      </c>
+      <c r="L134" t="n">
+        <v>-0.6108857181224336</v>
+      </c>
+      <c r="M134" t="n">
+        <v>-0.34712895687421363</v>
+      </c>
+      <c r="N134" t="n">
+        <v>4.443089012290037E-15</v>
+      </c>
+      <c r="O134" t="n">
         <v>1.2440649234412104E-13</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="B135" t="s">
-        <v>24</v>
+        <v>42</v>
       </c>
       <c r="C135" t="n">
-        <v>158.0</v>
+        <v>108.0</v>
       </c>
       <c r="D135" t="n">
-        <v>0.06504734458624949</v>
+        <v>0.044462741869081925</v>
       </c>
       <c r="E135" t="n">
+        <v>-0.11350927482751812</v>
+      </c>
+      <c r="F135" t="s">
+        <v>30</v>
+      </c>
+      <c r="G135" t="n">
         <v>0.021189299069938092</v>
       </c>
-      <c r="F135" t="s">
-        <v>35</v>
-      </c>
-      <c r="G135" t="n">
-        <v>-0.11350927482751812</v>
-      </c>
-      <c r="H135" t="n">
+      <c r="H135" t="s">
+        <v>45</v>
+      </c>
+      <c r="I135" t="s">
+        <v>46</v>
+      </c>
+      <c r="J135" t="n">
+        <v>6029.0</v>
+      </c>
+      <c r="K135" t="n">
+        <v>-0.13602078419976843</v>
+      </c>
+      <c r="L135" t="n">
+        <v>-0.20319066867362753</v>
+      </c>
+      <c r="M135" t="n">
+        <v>-0.07363109211018735</v>
+      </c>
+      <c r="N135" t="n">
+        <v>4.867693334412396E-5</v>
+      </c>
+      <c r="O135" t="n">
         <v>0.0013629541336354707</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="B136" t="s">
-        <v>19</v>
+        <v>42</v>
       </c>
       <c r="C136" t="n">
-        <v>336.0</v>
+        <v>108.0</v>
       </c>
       <c r="D136" t="n">
-        <v>0.138328530259366</v>
+        <v>0.044462741869081925</v>
       </c>
       <c r="E136" t="n">
+        <v>-0.11350927482751812</v>
+      </c>
+      <c r="F136" t="s">
+        <v>27</v>
+      </c>
+      <c r="G136" t="n">
         <v>-0.01322826573375516</v>
       </c>
-      <c r="F136" t="s">
-        <v>35</v>
-      </c>
-      <c r="G136" t="n">
-        <v>-0.11350927482751812</v>
-      </c>
-      <c r="H136" t="n">
+      <c r="H136" t="s">
+        <v>45</v>
+      </c>
+      <c r="I136" t="s">
+        <v>46</v>
+      </c>
+      <c r="J136" t="n">
+        <v>14402.5</v>
+      </c>
+      <c r="K136" t="n">
+        <v>-0.09743427901327611</v>
+      </c>
+      <c r="L136" t="n">
+        <v>-0.1541418622465177</v>
+      </c>
+      <c r="M136" t="n">
+        <v>-0.03911239542583562</v>
+      </c>
+      <c r="N136" t="n">
+        <v>0.0012584805434737757</v>
+      </c>
+      <c r="O136" t="n">
         <v>0.03523745521726572</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="B137" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="C137" t="n">
-        <v>95.0</v>
+        <v>108.0</v>
       </c>
       <c r="D137" t="n">
-        <v>0.03911074516261836</v>
+        <v>0.044462741869081925</v>
       </c>
       <c r="E137" t="n">
+        <v>-0.11350927482751812</v>
+      </c>
+      <c r="F137" t="s">
+        <v>44</v>
+      </c>
+      <c r="G137" t="n">
         <v>0.029383777685209667</v>
       </c>
-      <c r="F137" t="s">
-        <v>35</v>
-      </c>
-      <c r="G137" t="n">
-        <v>-0.11350927482751812</v>
-      </c>
-      <c r="H137" t="n">
+      <c r="H137" t="s">
+        <v>45</v>
+      </c>
+      <c r="I137" t="s">
+        <v>46</v>
+      </c>
+      <c r="J137" t="n">
+        <v>3787.5</v>
+      </c>
+      <c r="K137" t="n">
+        <v>-0.1440060974545084</v>
+      </c>
+      <c r="L137" t="n">
+        <v>-0.23558642904389654</v>
+      </c>
+      <c r="M137" t="n">
+        <v>-0.05436711720611003</v>
+      </c>
+      <c r="N137" t="n">
+        <v>0.0013099449857726232</v>
+      </c>
+      <c r="O137" t="n">
         <v>0.03667845960163345</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="B138" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C138" t="n">
-        <v>174.0</v>
+        <v>158.0</v>
       </c>
       <c r="D138" t="n">
-        <v>0.0716344174557431</v>
+        <v>0.06504734458624949</v>
       </c>
       <c r="E138" t="n">
+        <v>0.021189299069938092</v>
+      </c>
+      <c r="F138" t="s">
+        <v>43</v>
+      </c>
+      <c r="G138" t="n">
         <v>0.35602585719312263</v>
       </c>
-      <c r="F138" t="s">
-        <v>24</v>
-      </c>
-      <c r="G138" t="n">
-        <v>0.021189299069938092</v>
-      </c>
-      <c r="H138" t="n">
+      <c r="H138" t="s">
+        <v>45</v>
+      </c>
+      <c r="I138" t="s">
+        <v>46</v>
+      </c>
+      <c r="J138" t="n">
+        <v>8236.5</v>
+      </c>
+      <c r="K138" t="n">
+        <v>-0.32760166053323303</v>
+      </c>
+      <c r="L138" t="n">
+        <v>-0.4489451597161655</v>
+      </c>
+      <c r="M138" t="n">
+        <v>-0.21653680350512214</v>
+      </c>
+      <c r="N138" t="n">
+        <v>2.8340982471678587E-10</v>
+      </c>
+      <c r="O138" t="n">
         <v>7.935475092070004E-9</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="B139" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="C139" t="n">
-        <v>95.0</v>
+        <v>158.0</v>
       </c>
       <c r="D139" t="n">
-        <v>0.03911074516261836</v>
+        <v>0.06504734458624949</v>
       </c>
       <c r="E139" t="n">
+        <v>0.021189299069938092</v>
+      </c>
+      <c r="F139" t="s">
+        <v>44</v>
+      </c>
+      <c r="G139" t="n">
         <v>0.029383777685209667</v>
       </c>
-      <c r="F139" t="s">
-        <v>24</v>
-      </c>
-      <c r="G139" t="n">
-        <v>0.021189299069938092</v>
-      </c>
-      <c r="H139" t="n">
+      <c r="H139" t="s">
+        <v>45</v>
+      </c>
+      <c r="I139" t="s">
+        <v>46</v>
+      </c>
+      <c r="J139" t="n">
+        <v>7459.5</v>
+      </c>
+      <c r="K139" t="n">
+        <v>-8.560877644951487E-5</v>
+      </c>
+      <c r="L139" t="n">
+        <v>-0.08579659986797636</v>
+      </c>
+      <c r="M139" t="n">
+        <v>0.07506978095173941</v>
+      </c>
+      <c r="N139" t="n">
+        <v>0.9363623184528415</v>
+      </c>
+      <c r="O139" t="n">
         <v>1.0</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="B140" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="C140" t="n">
-        <v>336.0</v>
+        <v>158.0</v>
       </c>
       <c r="D140" t="n">
-        <v>0.138328530259366</v>
+        <v>0.06504734458624949</v>
       </c>
       <c r="E140" t="n">
+        <v>0.021189299069938092</v>
+      </c>
+      <c r="F140" t="s">
+        <v>27</v>
+      </c>
+      <c r="G140" t="n">
         <v>-0.01322826573375516</v>
       </c>
-      <c r="F140" t="s">
-        <v>24</v>
-      </c>
-      <c r="G140" t="n">
-        <v>0.021189299069938092</v>
-      </c>
-      <c r="H140" t="n">
+      <c r="H140" t="s">
+        <v>45</v>
+      </c>
+      <c r="I140" t="s">
+        <v>46</v>
+      </c>
+      <c r="J140" t="n">
+        <v>29033.5</v>
+      </c>
+      <c r="K140" t="n">
+        <v>0.040913402255490214</v>
+      </c>
+      <c r="L140" t="n">
+        <v>-0.008152240752679363</v>
+      </c>
+      <c r="M140" t="n">
+        <v>0.09052097644487071</v>
+      </c>
+      <c r="N140" t="n">
+        <v>0.09254482353565338</v>
+      </c>
+      <c r="O140" t="n">
         <v>1.0</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="B141" t="s">
-        <v>19</v>
+        <v>43</v>
       </c>
       <c r="C141" t="n">
-        <v>336.0</v>
+        <v>174.0</v>
       </c>
       <c r="D141" t="n">
-        <v>0.138328530259366</v>
+        <v>0.0716344174557431</v>
       </c>
       <c r="E141" t="n">
+        <v>0.35602585719312263</v>
+      </c>
+      <c r="F141" t="s">
+        <v>27</v>
+      </c>
+      <c r="G141" t="n">
         <v>-0.01322826573375516</v>
       </c>
-      <c r="F141" t="s">
-        <v>34</v>
-      </c>
-      <c r="G141" t="n">
-        <v>0.35602585719312263</v>
-      </c>
-      <c r="H141" t="n">
+      <c r="H141" t="s">
+        <v>45</v>
+      </c>
+      <c r="I141" t="s">
+        <v>46</v>
+      </c>
+      <c r="J141" t="n">
+        <v>42568.5</v>
+      </c>
+      <c r="K141" t="n">
+        <v>0.3805289770198767</v>
+      </c>
+      <c r="L141" t="n">
+        <v>0.2839996897560427</v>
+      </c>
+      <c r="M141" t="n">
+        <v>0.48745605013252175</v>
+      </c>
+      <c r="N141" t="n">
+        <v>2.8503532189334964E-17</v>
+      </c>
+      <c r="O141" t="n">
         <v>7.98098901301379E-16</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="B142" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="C142" t="n">
-        <v>95.0</v>
+        <v>174.0</v>
       </c>
       <c r="D142" t="n">
-        <v>0.03911074516261836</v>
+        <v>0.0716344174557431</v>
       </c>
       <c r="E142" t="n">
+        <v>0.35602585719312263</v>
+      </c>
+      <c r="F142" t="s">
+        <v>44</v>
+      </c>
+      <c r="G142" t="n">
         <v>0.029383777685209667</v>
       </c>
-      <c r="F142" t="s">
-        <v>34</v>
-      </c>
-      <c r="G142" t="n">
-        <v>0.35602585719312263</v>
-      </c>
-      <c r="H142" t="n">
+      <c r="H142" t="s">
+        <v>45</v>
+      </c>
+      <c r="I142" t="s">
+        <v>46</v>
+      </c>
+      <c r="J142" t="n">
+        <v>11356.5</v>
+      </c>
+      <c r="K142" t="n">
+        <v>0.33382488648240144</v>
+      </c>
+      <c r="L142" t="n">
+        <v>0.201411614500614</v>
+      </c>
+      <c r="M142" t="n">
+        <v>0.488816443756687</v>
+      </c>
+      <c r="N142" t="n">
+        <v>4.007071705896391E-7</v>
+      </c>
+      <c r="O142" t="n">
         <v>1.1219800776509896E-5</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="B143" t="s">
-        <v>19</v>
+        <v>44</v>
       </c>
       <c r="C143" t="n">
-        <v>336.0</v>
+        <v>95.0</v>
       </c>
       <c r="D143" t="n">
-        <v>0.138328530259366</v>
+        <v>0.03911074516261836</v>
       </c>
       <c r="E143" t="n">
+        <v>0.029383777685209667</v>
+      </c>
+      <c r="F143" t="s">
+        <v>27</v>
+      </c>
+      <c r="G143" t="n">
         <v>-0.01322826573375516</v>
       </c>
-      <c r="F143" t="s">
-        <v>37</v>
-      </c>
-      <c r="G143" t="n">
-        <v>0.029383777685209667</v>
-      </c>
-      <c r="H143" t="n">
+      <c r="H143" t="s">
+        <v>45</v>
+      </c>
+      <c r="I143" t="s">
+        <v>46</v>
+      </c>
+      <c r="J143" t="n">
+        <v>17335.5</v>
+      </c>
+      <c r="K143" t="n">
+        <v>0.046658339201337475</v>
+      </c>
+      <c r="L143" t="n">
+        <v>-0.024138152111898743</v>
+      </c>
+      <c r="M143" t="n">
+        <v>0.12175784753783604</v>
+      </c>
+      <c r="N143" t="n">
+        <v>0.19955851429921556</v>
+      </c>
+      <c r="O143" t="n">
         <v>1.0</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="B144" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="C144" t="n">
-        <v>394.0</v>
+        <v>336.0</v>
       </c>
       <c r="D144" t="n">
-        <v>0.16220666941128037</v>
+        <v>0.138328530259366</v>
       </c>
       <c r="E144" t="n">
+        <v>-0.01322826573375516</v>
+      </c>
+      <c r="F144" t="s">
+        <v>21</v>
+      </c>
+      <c r="G144" t="n">
         <v>0.012837224705172217</v>
       </c>
-      <c r="F144" t="s">
-        <v>19</v>
-      </c>
-      <c r="G144" t="n">
-        <v>-0.01322826573375516</v>
-      </c>
-      <c r="H144" t="n">
+      <c r="H144" t="s">
+        <v>45</v>
+      </c>
+      <c r="I144" t="s">
+        <v>46</v>
+      </c>
+      <c r="J144" t="n">
+        <v>61658.0</v>
+      </c>
+      <c r="K144" t="n">
+        <v>-0.03032086117200064</v>
+      </c>
+      <c r="L144" t="n">
+        <v>-0.06808357761290613</v>
+      </c>
+      <c r="M144" t="n">
+        <v>0.008224894691031699</v>
+      </c>
+      <c r="N144" t="n">
+        <v>0.11036107900412086</v>
+      </c>
+      <c r="O144" t="n">
         <v>1.0</v>
       </c>
     </row>

--- a/results/figures/table_S2.xlsx
+++ b/results/figures/table_S2.xlsx
@@ -264,13 +264,13 @@
         <v>0.01514596311225113</v>
       </c>
       <c r="E2" t="n">
-        <v>-0.12493873660829993</v>
+        <v>0.75</v>
       </c>
       <c r="F2" t="s">
         <v>23</v>
       </c>
       <c r="G2" t="n">
-        <v>0.9105651195868222</v>
+        <v>8.13888888888889</v>
       </c>
       <c r="H2" t="s">
         <v>45</v>
@@ -282,13 +282,13 @@
         <v>8165.5</v>
       </c>
       <c r="K2" t="n">
-        <v>-0.977277964809728</v>
+        <v>-6.611101236092208</v>
       </c>
       <c r="L2" t="n">
-        <v>-1.0889823470224063</v>
+        <v>-8.611166417661074</v>
       </c>
       <c r="M2" t="n">
-        <v>-0.8691917029551821</v>
+        <v>-4.888908188473689</v>
       </c>
       <c r="N2" t="n">
         <v>2.467362939192017E-42</v>
@@ -311,13 +311,13 @@
         <v>0.01514596311225113</v>
       </c>
       <c r="E3" t="n">
-        <v>-0.12493873660829993</v>
+        <v>0.75</v>
       </c>
       <c r="F3" t="s">
         <v>26</v>
       </c>
       <c r="G3" t="n">
-        <v>0.9840269740235865</v>
+        <v>9.63888888888889</v>
       </c>
       <c r="H3" t="s">
         <v>45</v>
@@ -329,13 +329,13 @@
         <v>76582.5</v>
       </c>
       <c r="K3" t="n">
-        <v>-1.0372111444625587</v>
+        <v>-7.944490906291392</v>
       </c>
       <c r="L3" t="n">
-        <v>-1.1929527940181635</v>
+        <v>-12.111174061717124</v>
       </c>
       <c r="M3" t="n">
-        <v>-0.8830466193646129</v>
+        <v>-5.333278884487107</v>
       </c>
       <c r="N3" t="n">
         <v>2.0748632002512937E-36</v>
@@ -358,13 +358,13 @@
         <v>0.01514596311225113</v>
       </c>
       <c r="E4" t="n">
-        <v>-0.12493873660829993</v>
+        <v>0.75</v>
       </c>
       <c r="F4" t="s">
         <v>22</v>
       </c>
       <c r="G4" t="n">
-        <v>0.3413245905231541</v>
+        <v>2.194444444444444</v>
       </c>
       <c r="H4" t="s">
         <v>45</v>
@@ -376,13 +376,13 @@
         <v>7841.0</v>
       </c>
       <c r="K4" t="n">
-        <v>-0.43193622229924533</v>
+        <v>-1.222233926876146</v>
       </c>
       <c r="L4" t="n">
-        <v>-0.5098755193978151</v>
+        <v>-1.6111042681347723</v>
       </c>
       <c r="M4" t="n">
-        <v>-0.34542724518923273</v>
+        <v>-0.9444849301798067</v>
       </c>
       <c r="N4" t="n">
         <v>3.6842593950552733E-19</v>
@@ -405,13 +405,13 @@
         <v>0.01514596311225113</v>
       </c>
       <c r="E5" t="n">
-        <v>-0.12493873660829993</v>
+        <v>0.75</v>
       </c>
       <c r="F5" t="s">
         <v>24</v>
       </c>
       <c r="G5" t="n">
-        <v>0.49677594271613246</v>
+        <v>3.138888888888889</v>
       </c>
       <c r="H5" t="s">
         <v>45</v>
@@ -423,13 +423,13 @@
         <v>83988.5</v>
       </c>
       <c r="K5" t="n">
-        <v>-0.5771516335831163</v>
+        <v>-2.0000578002734084</v>
       </c>
       <c r="L5" t="n">
-        <v>-0.724693483021346</v>
+        <v>-3.1110627970914635</v>
       </c>
       <c r="M5" t="n">
-        <v>-0.4366955644794255</v>
+        <v>-1.27772280304675</v>
       </c>
       <c r="N5" t="n">
         <v>9.243088401023627E-19</v>
@@ -452,13 +452,13 @@
         <v>0.01514596311225113</v>
       </c>
       <c r="E6" t="n">
-        <v>-0.12493873660829993</v>
+        <v>0.75</v>
       </c>
       <c r="F6" t="s">
         <v>25</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.19457466474969434</v>
+        <v>0.638888888888889</v>
       </c>
       <c r="H6" t="s">
         <v>45</v>
@@ -470,13 +470,13 @@
         <v>18439.0</v>
       </c>
       <c r="K6" t="n">
-        <v>0.08714565184302003</v>
+        <v>0.11110407737651892</v>
       </c>
       <c r="L6" t="n">
-        <v>-0.02558373896699996</v>
+        <v>-0.055527199834291545</v>
       </c>
       <c r="M6" t="n">
-        <v>0.1890291862784291</v>
+        <v>0.22222717413632842</v>
       </c>
       <c r="N6" t="n">
         <v>0.1358626474193736</v>
@@ -499,13 +499,13 @@
         <v>0.0348112861854159</v>
       </c>
       <c r="E7" t="n">
-        <v>0.3413245905231541</v>
+        <v>2.194444444444444</v>
       </c>
       <c r="F7" t="s">
         <v>23</v>
       </c>
       <c r="G7" t="n">
-        <v>0.9105651195868222</v>
+        <v>8.13888888888889</v>
       </c>
       <c r="H7" t="s">
         <v>45</v>
@@ -517,13 +517,13 @@
         <v>41315.5</v>
       </c>
       <c r="K7" t="n">
-        <v>-0.5642339176110133</v>
+        <v>-4.888833217990335</v>
       </c>
       <c r="L7" t="n">
-        <v>-0.6502329404489474</v>
+        <v>-6.388811301511455</v>
       </c>
       <c r="M7" t="n">
-        <v>-0.4771925106682333</v>
+        <v>-3.722259961142826</v>
       </c>
       <c r="N7" t="n">
         <v>1.2425289389915409E-34</v>
@@ -546,13 +546,13 @@
         <v>0.0348112861854159</v>
       </c>
       <c r="E8" t="n">
-        <v>0.3413245905231541</v>
+        <v>2.194444444444444</v>
       </c>
       <c r="F8" t="s">
         <v>26</v>
       </c>
       <c r="G8" t="n">
-        <v>0.9840269740235865</v>
+        <v>9.63888888888889</v>
       </c>
       <c r="H8" t="s">
         <v>45</v>
@@ -564,13 +564,13 @@
         <v>306064.5</v>
       </c>
       <c r="K8" t="n">
-        <v>-0.6328928408299445</v>
+        <v>-6.333396170196966</v>
       </c>
       <c r="L8" t="n">
-        <v>-0.7382843040611572</v>
+        <v>-8.83336587696403</v>
       </c>
       <c r="M8" t="n">
-        <v>-0.5271175654733727</v>
+        <v>-4.444456457064978</v>
       </c>
       <c r="N8" t="n">
         <v>9.239836219266599E-32</v>
@@ -593,13 +593,13 @@
         <v>0.0348112861854159</v>
       </c>
       <c r="E9" t="n">
-        <v>0.3413245905231541</v>
+        <v>2.194444444444444</v>
       </c>
       <c r="F9" t="s">
         <v>25</v>
       </c>
       <c r="G9" t="n">
-        <v>-0.19457466474969434</v>
+        <v>0.638888888888889</v>
       </c>
       <c r="H9" t="s">
         <v>45</v>
@@ -611,13 +611,13 @@
         <v>54358.5</v>
       </c>
       <c r="K9" t="n">
-        <v>0.4852977339769989</v>
+        <v>1.055605773409737</v>
       </c>
       <c r="L9" t="n">
-        <v>0.3888339166135335</v>
+        <v>0.833303977162648</v>
       </c>
       <c r="M9" t="n">
-        <v>0.5798104041388487</v>
+        <v>1.333366127738555</v>
       </c>
       <c r="N9" t="n">
         <v>2.089180205233107E-16</v>
@@ -640,13 +640,13 @@
         <v>0.0348112861854159</v>
       </c>
       <c r="E10" t="n">
-        <v>0.3413245905231541</v>
+        <v>2.194444444444444</v>
       </c>
       <c r="F10" t="s">
         <v>27</v>
       </c>
       <c r="G10" t="n">
-        <v>0.03476210625921191</v>
+        <v>1.0833333333333333</v>
       </c>
       <c r="H10" t="s">
         <v>45</v>
@@ -658,13 +658,13 @@
         <v>124386.0</v>
       </c>
       <c r="K10" t="n">
-        <v>0.26529996530688127</v>
+        <v>0.7777525697002632</v>
       </c>
       <c r="L10" t="n">
-        <v>0.19480477983791725</v>
+        <v>0.5555181195752489</v>
       </c>
       <c r="M10" t="n">
-        <v>0.3335643011366611</v>
+        <v>0.9999984351797364</v>
       </c>
       <c r="N10" t="n">
         <v>2.4776706053677667E-12</v>
@@ -687,13 +687,13 @@
         <v>0.0348112861854159</v>
       </c>
       <c r="E11" t="n">
-        <v>0.3413245905231541</v>
+        <v>2.194444444444444</v>
       </c>
       <c r="F11" t="s">
         <v>24</v>
       </c>
       <c r="G11" t="n">
-        <v>0.49677594271613246</v>
+        <v>3.138888888888889</v>
       </c>
       <c r="H11" t="s">
         <v>45</v>
@@ -705,13 +705,13 @@
         <v>314919.5</v>
       </c>
       <c r="K11" t="n">
-        <v>-0.18370605117782668</v>
+        <v>-0.7222647324207931</v>
       </c>
       <c r="L11" t="n">
-        <v>-0.28626411784794303</v>
+        <v>-1.3888548290639602</v>
       </c>
       <c r="M11" t="n">
-        <v>-0.08496259162822395</v>
+        <v>-0.27782002413469037</v>
       </c>
       <c r="N11" t="n">
         <v>1.8741140585072131E-4</v>
@@ -734,13 +734,13 @@
         <v>0.07243190423842677</v>
       </c>
       <c r="E12" t="n">
-        <v>0.9105651195868222</v>
+        <v>8.13888888888889</v>
       </c>
       <c r="F12" t="s">
         <v>27</v>
       </c>
       <c r="G12" t="n">
-        <v>0.03476210625921191</v>
+        <v>1.0833333333333333</v>
       </c>
       <c r="H12" t="s">
         <v>45</v>
@@ -752,13 +752,13 @@
         <v>322240.0</v>
       </c>
       <c r="K12" t="n">
-        <v>0.805604585780902</v>
+        <v>5.277729992198314</v>
       </c>
       <c r="L12" t="n">
-        <v>0.7335233622298298</v>
+        <v>4.388901148947659</v>
       </c>
       <c r="M12" t="n">
-        <v>0.8783508735075045</v>
+        <v>6.388850639147299</v>
       </c>
       <c r="N12" t="n">
         <v>1.9828434387603752E-76</v>
@@ -781,13 +781,13 @@
         <v>0.07243190423842677</v>
       </c>
       <c r="E13" t="n">
-        <v>0.9105651195868222</v>
+        <v>8.13888888888889</v>
       </c>
       <c r="F13" t="s">
         <v>25</v>
       </c>
       <c r="G13" t="n">
-        <v>-0.19457466474969434</v>
+        <v>0.638888888888889</v>
       </c>
       <c r="H13" t="s">
         <v>45</v>
@@ -799,13 +799,13 @@
         <v>131095.0</v>
       </c>
       <c r="K13" t="n">
-        <v>1.0091478733788282</v>
+        <v>5.333339402651527</v>
       </c>
       <c r="L13" t="n">
-        <v>0.9072272119021084</v>
+        <v>4.277860554999487</v>
       </c>
       <c r="M13" t="n">
-        <v>1.1139376518620037</v>
+        <v>6.777843459679591</v>
       </c>
       <c r="N13" t="n">
         <v>1.7861593062927984E-49</v>
@@ -828,13 +828,13 @@
         <v>0.07243190423842677</v>
       </c>
       <c r="E14" t="n">
-        <v>0.9105651195868222</v>
+        <v>8.13888888888889</v>
       </c>
       <c r="F14" t="s">
         <v>24</v>
       </c>
       <c r="G14" t="n">
-        <v>0.49677594271613246</v>
+        <v>3.138888888888889</v>
       </c>
       <c r="H14" t="s">
         <v>45</v>
@@ -846,13 +846,13 @@
         <v>916193.0</v>
       </c>
       <c r="K14" t="n">
-        <v>0.3454729076974495</v>
+        <v>2.1666097009844285</v>
       </c>
       <c r="L14" t="n">
-        <v>0.2638468208643333</v>
+        <v>1.6110795968237146</v>
       </c>
       <c r="M14" t="n">
-        <v>0.42642342956591356</v>
+        <v>2.7222806592913082</v>
       </c>
       <c r="N14" t="n">
         <v>1.5396550347501198E-15</v>
@@ -875,13 +875,13 @@
         <v>0.07243190423842677</v>
       </c>
       <c r="E15" t="n">
-        <v>0.9105651195868222</v>
+        <v>8.13888888888889</v>
       </c>
       <c r="F15" t="s">
         <v>26</v>
       </c>
       <c r="G15" t="n">
-        <v>0.9840269740235865</v>
+        <v>9.63888888888889</v>
       </c>
       <c r="H15" t="s">
         <v>45</v>
@@ -893,13 +893,13 @@
         <v>1050135.5</v>
       </c>
       <c r="K15" t="n">
-        <v>-0.06062527663483362</v>
+        <v>-0.5000561307662791</v>
       </c>
       <c r="L15" t="n">
-        <v>-0.14113226894785963</v>
+        <v>-1.4444511737478818</v>
       </c>
       <c r="M15" t="n">
-        <v>0.019775052199080843</v>
+        <v>0.16661758403548022</v>
       </c>
       <c r="N15" t="n">
         <v>0.14154038668442293</v>
@@ -922,13 +922,13 @@
         <v>0.3119579821668499</v>
       </c>
       <c r="E16" t="n">
-        <v>0.49677594271613246</v>
+        <v>3.138888888888889</v>
       </c>
       <c r="F16" t="s">
         <v>26</v>
       </c>
       <c r="G16" t="n">
-        <v>0.9840269740235865</v>
+        <v>9.63888888888889</v>
       </c>
       <c r="H16" t="s">
         <v>45</v>
@@ -940,13 +940,13 @@
         <v>3771470.0</v>
       </c>
       <c r="K16" t="n">
-        <v>-0.3565731893678759</v>
+        <v>-2.0555937016874983</v>
       </c>
       <c r="L16" t="n">
-        <v>-0.4087222115345463</v>
+        <v>-2.611125851927347</v>
       </c>
       <c r="M16" t="n">
-        <v>-0.3058612457338713</v>
+        <v>-1.611141699167511</v>
       </c>
       <c r="N16" t="n">
         <v>3.0912815870264123E-40</v>
@@ -969,13 +969,13 @@
         <v>0.3119579821668499</v>
       </c>
       <c r="E17" t="n">
-        <v>0.49677594271613246</v>
+        <v>3.138888888888889</v>
       </c>
       <c r="F17" t="s">
         <v>27</v>
       </c>
       <c r="G17" t="n">
-        <v>0.03476210625921191</v>
+        <v>1.0833333333333333</v>
       </c>
       <c r="H17" t="s">
         <v>45</v>
@@ -987,13 +987,13 @@
         <v>1131458.5</v>
       </c>
       <c r="K17" t="n">
-        <v>0.4171909983718535</v>
+        <v>1.2777943945304424</v>
       </c>
       <c r="L17" t="n">
-        <v>0.34841614171680085</v>
+        <v>0.9444641979575479</v>
       </c>
       <c r="M17" t="n">
-        <v>0.488537945222249</v>
+        <v>1.722219057780014</v>
       </c>
       <c r="N17" t="n">
         <v>2.1480696304275928E-34</v>
@@ -1016,13 +1016,13 @@
         <v>0.3119579821668499</v>
       </c>
       <c r="E18" t="n">
-        <v>0.49677594271613246</v>
+        <v>3.138888888888889</v>
       </c>
       <c r="F18" t="s">
         <v>25</v>
       </c>
       <c r="G18" t="n">
-        <v>-0.19457466474969434</v>
+        <v>0.638888888888889</v>
       </c>
       <c r="H18" t="s">
         <v>45</v>
@@ -1034,13 +1034,13 @@
         <v>494981.0</v>
       </c>
       <c r="K18" t="n">
-        <v>0.6272041324996057</v>
+        <v>1.5555709994570635</v>
       </c>
       <c r="L18" t="n">
-        <v>0.5195545519577376</v>
+        <v>1.0555975873016177</v>
       </c>
       <c r="M18" t="n">
-        <v>0.7351937312041407</v>
+        <v>2.1666926412482264</v>
       </c>
       <c r="N18" t="n">
         <v>8.162785603479468E-31</v>
@@ -1063,13 +1063,13 @@
         <v>0.0332234029559057</v>
       </c>
       <c r="E19" t="n">
-        <v>-0.19457466474969434</v>
+        <v>0.638888888888889</v>
       </c>
       <c r="F19" t="s">
         <v>26</v>
       </c>
       <c r="G19" t="n">
-        <v>0.9840269740235865</v>
+        <v>9.63888888888889</v>
       </c>
       <c r="H19" t="s">
         <v>45</v>
@@ -1081,13 +1081,13 @@
         <v>210002.5</v>
       </c>
       <c r="K19" t="n">
-        <v>-1.0268375600558666</v>
+        <v>-6.444496339293481</v>
       </c>
       <c r="L19" t="n">
-        <v>-1.1445012771026903</v>
+        <v>-8.72228372421962</v>
       </c>
       <c r="M19" t="n">
-        <v>-0.9107432122593404</v>
+        <v>-4.666668420081851</v>
       </c>
       <c r="N19" t="n">
         <v>1.3410685093641284E-57</v>
@@ -1110,13 +1110,13 @@
         <v>0.0332234029559057</v>
       </c>
       <c r="E20" t="n">
-        <v>-0.19457466474969434</v>
+        <v>0.638888888888889</v>
       </c>
       <c r="F20" t="s">
         <v>27</v>
       </c>
       <c r="G20" t="n">
-        <v>0.03476210625921191</v>
+        <v>1.0833333333333333</v>
       </c>
       <c r="H20" t="s">
         <v>45</v>
@@ -1128,13 +1128,13 @@
         <v>73387.5</v>
       </c>
       <c r="K20" t="n">
-        <v>-0.22188117789005204</v>
+        <v>-0.2778005181460692</v>
       </c>
       <c r="L20" t="n">
-        <v>-0.3135905510432545</v>
+        <v>-0.44440273249152307</v>
       </c>
       <c r="M20" t="n">
-        <v>-0.13471398714301164</v>
+        <v>-0.16666919159909327</v>
       </c>
       <c r="N20" t="n">
         <v>7.287954897974332E-7</v>
@@ -1157,13 +1157,13 @@
         <v>0.44949309881519484</v>
       </c>
       <c r="E21" t="n">
-        <v>0.9840269740235865</v>
+        <v>9.63888888888889</v>
       </c>
       <c r="F21" t="s">
         <v>27</v>
       </c>
       <c r="G21" t="n">
-        <v>0.03476210625921191</v>
+        <v>1.0833333333333333</v>
       </c>
       <c r="H21" t="s">
         <v>45</v>
@@ -1175,13 +1175,13 @@
         <v>1896483.0</v>
       </c>
       <c r="K21" t="n">
-        <v>0.8451617691597779</v>
+        <v>6.388891760994697</v>
       </c>
       <c r="L21" t="n">
-        <v>0.7700836556359751</v>
+        <v>5.166642803844784</v>
       </c>
       <c r="M21" t="n">
-        <v>0.920451277947754</v>
+        <v>7.833370806380926</v>
       </c>
       <c r="N21" t="n">
         <v>2.525695504035462E-102</v>
@@ -1204,13 +1204,13 @@
         <v>0.08293636252595578</v>
       </c>
       <c r="E22" t="n">
-        <v>0.03476210625921191</v>
+        <v>1.0833333333333333</v>
       </c>
       <c r="F22" t="s">
         <v>21</v>
       </c>
       <c r="G22" t="n">
-        <v>-0.12493873660829993</v>
+        <v>0.75</v>
       </c>
       <c r="H22" t="s">
         <v>45</v>
@@ -1222,13 +1222,13 @@
         <v>50610.0</v>
       </c>
       <c r="K22" t="n">
-        <v>0.15256406312674337</v>
+        <v>0.2777091641669542</v>
       </c>
       <c r="L22" t="n">
-        <v>0.06962972165629755</v>
+        <v>0.1111515630888267</v>
       </c>
       <c r="M22" t="n">
-        <v>0.23554086875840605</v>
+        <v>0.44451218138320636</v>
       </c>
       <c r="N22" t="n">
         <v>3.3760637576605754E-4</v>
@@ -1251,13 +1251,13 @@
         <v>0.01487603305785124</v>
       </c>
       <c r="E23" t="n">
-        <v>0.0233306647794598</v>
+        <v>1.0555555555555554</v>
       </c>
       <c r="F23" t="s">
         <v>23</v>
       </c>
       <c r="G23" t="n">
-        <v>0.829303772831025</v>
+        <v>6.75</v>
       </c>
       <c r="H23" t="s">
         <v>45</v>
@@ -1269,13 +1269,13 @@
         <v>2406.5</v>
       </c>
       <c r="K23" t="n">
-        <v>-0.8451077971997719</v>
+        <v>-5.55557547476865</v>
       </c>
       <c r="L23" t="n">
-        <v>-1.1032789998976336</v>
+        <v>-12.722172252249397</v>
       </c>
       <c r="M23" t="n">
-        <v>-0.599365342768094</v>
+        <v>-2.8332990509500817</v>
       </c>
       <c r="N23" t="n">
         <v>1.4055339495364513E-14</v>
@@ -1298,13 +1298,13 @@
         <v>0.01487603305785124</v>
       </c>
       <c r="E24" t="n">
-        <v>0.0233306647794598</v>
+        <v>1.0555555555555554</v>
       </c>
       <c r="F24" t="s">
         <v>26</v>
       </c>
       <c r="G24" t="n">
-        <v>0.43046923349895755</v>
+        <v>2.694444444444444</v>
       </c>
       <c r="H24" t="s">
         <v>45</v>
@@ -1316,13 +1316,13 @@
         <v>26482.0</v>
       </c>
       <c r="K24" t="n">
-        <v>-0.4404552529096499</v>
+        <v>-1.6111391008717857</v>
       </c>
       <c r="L24" t="n">
-        <v>-0.5706662755009718</v>
+        <v>-2.499973473764634</v>
       </c>
       <c r="M24" t="n">
-        <v>-0.32552601315869667</v>
+        <v>-1.0000085417754085</v>
       </c>
       <c r="N24" t="n">
         <v>6.107326428822533E-14</v>
@@ -1345,13 +1345,13 @@
         <v>0.01487603305785124</v>
       </c>
       <c r="E25" t="n">
-        <v>0.0233306647794598</v>
+        <v>1.0555555555555554</v>
       </c>
       <c r="F25" t="s">
         <v>24</v>
       </c>
       <c r="G25" t="n">
-        <v>0.3413245905231541</v>
+        <v>2.194444444444444</v>
       </c>
       <c r="H25" t="s">
         <v>45</v>
@@ -1363,13 +1363,13 @@
         <v>18309.0</v>
       </c>
       <c r="K25" t="n">
-        <v>-0.3203530058879741</v>
+        <v>-1.0555000554115086</v>
       </c>
       <c r="L25" t="n">
-        <v>-0.4217946877223727</v>
+        <v>-1.5000426464920744</v>
       </c>
       <c r="M25" t="n">
-        <v>-0.22373659445509692</v>
+        <v>-0.6666228051453358</v>
       </c>
       <c r="N25" t="n">
         <v>1.2043550302414292E-10</v>
@@ -1392,13 +1392,13 @@
         <v>0.01487603305785124</v>
       </c>
       <c r="E26" t="n">
-        <v>0.0233306647794598</v>
+        <v>1.0555555555555554</v>
       </c>
       <c r="F26" t="s">
         <v>25</v>
       </c>
       <c r="G26" t="n">
-        <v>-0.09390450286833116</v>
+        <v>0.8055555555555556</v>
       </c>
       <c r="H26" t="s">
         <v>45</v>
@@ -1410,13 +1410,13 @@
         <v>31491.5</v>
       </c>
       <c r="K26" t="n">
-        <v>0.1286881856047724</v>
+        <v>0.2222616040057407</v>
       </c>
       <c r="L26" t="n">
-        <v>0.052114405036401676</v>
+        <v>0.11108473886636841</v>
       </c>
       <c r="M26" t="n">
-        <v>0.19630730998946228</v>
+        <v>0.38892888578360413</v>
       </c>
       <c r="N26" t="n">
         <v>0.001062874842055345</v>
@@ -1439,13 +1439,13 @@
         <v>0.01487603305785124</v>
       </c>
       <c r="E27" t="n">
-        <v>0.0233306647794598</v>
+        <v>1.0555555555555554</v>
       </c>
       <c r="F27" t="s">
         <v>31</v>
       </c>
       <c r="G27" t="n">
-        <v>-0.06494080693301456</v>
+        <v>0.8611111111111112</v>
       </c>
       <c r="H27" t="s">
         <v>45</v>
@@ -1457,13 +1457,13 @@
         <v>5428.5</v>
       </c>
       <c r="K27" t="n">
-        <v>0.10695061348618279</v>
+        <v>0.22222972789838175</v>
       </c>
       <c r="L27" t="n">
-        <v>0.028942016006025723</v>
+        <v>0.05554846310238415</v>
       </c>
       <c r="M27" t="n">
-        <v>0.18680616097372676</v>
+        <v>0.38887893546254576</v>
       </c>
       <c r="N27" t="n">
         <v>0.011745850439663428</v>
@@ -1486,13 +1486,13 @@
         <v>0.01487603305785124</v>
       </c>
       <c r="E28" t="n">
-        <v>0.0233306647794598</v>
+        <v>1.0555555555555554</v>
       </c>
       <c r="F28" t="s">
         <v>28</v>
       </c>
       <c r="G28" t="n">
-        <v>0.01189922329970769</v>
+        <v>1.0277777777777777</v>
       </c>
       <c r="H28" t="s">
         <v>45</v>
@@ -1504,13 +1504,13 @@
         <v>15359.0</v>
       </c>
       <c r="K28" t="n">
-        <v>-4.306211292792921E-5</v>
+        <v>-7.894981140679995E-6</v>
       </c>
       <c r="L28" t="n">
-        <v>-0.09542285587389684</v>
+        <v>-0.22218165324789013</v>
       </c>
       <c r="M28" t="n">
-        <v>0.0857102987255503</v>
+        <v>0.16671137976499786</v>
       </c>
       <c r="N28" t="n">
         <v>0.9157275552216846</v>
@@ -1533,13 +1533,13 @@
         <v>0.01487603305785124</v>
       </c>
       <c r="E29" t="n">
-        <v>0.0233306647794598</v>
+        <v>1.0555555555555554</v>
       </c>
       <c r="F29" t="s">
         <v>29</v>
       </c>
       <c r="G29" t="n">
-        <v>0.07716595481229925</v>
+        <v>1.1944444444444444</v>
       </c>
       <c r="H29" t="s">
         <v>45</v>
@@ -1551,13 +1551,13 @@
         <v>12337.0</v>
       </c>
       <c r="K29" t="n">
-        <v>-0.08713812092844382</v>
+        <v>-0.22220444058805638</v>
       </c>
       <c r="L29" t="n">
-        <v>-0.18165828485335062</v>
+        <v>-0.4443844081442511</v>
       </c>
       <c r="M29" t="n">
-        <v>-2.01301382556304E-5</v>
+        <v>-5.245427998709762E-5</v>
       </c>
       <c r="N29" t="n">
         <v>0.04934667036329719</v>
@@ -1580,13 +1580,13 @@
         <v>0.01487603305785124</v>
       </c>
       <c r="E30" t="n">
-        <v>0.0233306647794598</v>
+        <v>1.0555555555555554</v>
       </c>
       <c r="F30" t="s">
         <v>30</v>
       </c>
       <c r="G30" t="n">
-        <v>0.07716595481229925</v>
+        <v>1.1944444444444444</v>
       </c>
       <c r="H30" t="s">
         <v>45</v>
@@ -1598,13 +1598,13 @@
         <v>6736.5</v>
       </c>
       <c r="K30" t="n">
-        <v>-0.05671726506457042</v>
+        <v>-0.1420509576892406</v>
       </c>
       <c r="L30" t="n">
-        <v>-0.13057713728110248</v>
+        <v>-0.3333207123263983</v>
       </c>
       <c r="M30" t="n">
-        <v>0.021730157668238187</v>
+        <v>0.055483331997208965</v>
       </c>
       <c r="N30" t="n">
         <v>0.1518017122541419</v>
@@ -1627,13 +1627,13 @@
         <v>0.036570247933884296</v>
       </c>
       <c r="E31" t="n">
-        <v>0.829303772831025</v>
+        <v>6.75</v>
       </c>
       <c r="F31" t="s">
         <v>25</v>
       </c>
       <c r="G31" t="n">
-        <v>-0.09390450286833116</v>
+        <v>0.8055555555555556</v>
       </c>
       <c r="H31" t="s">
         <v>45</v>
@@ -1645,13 +1645,13 @@
         <v>105606.5</v>
       </c>
       <c r="K31" t="n">
-        <v>0.9642263267342887</v>
+        <v>5.722206006022028</v>
       </c>
       <c r="L31" t="n">
-        <v>0.8161318506681947</v>
+        <v>4.055632703130669</v>
       </c>
       <c r="M31" t="n">
-        <v>1.1199125538331125</v>
+        <v>9.055581567518558</v>
       </c>
       <c r="N31" t="n">
         <v>5.225283792279959E-45</v>
@@ -1674,13 +1674,13 @@
         <v>0.036570247933884296</v>
       </c>
       <c r="E32" t="n">
-        <v>0.829303772831025</v>
+        <v>6.75</v>
       </c>
       <c r="F32" t="s">
         <v>27</v>
       </c>
       <c r="G32" t="n">
-        <v>0.01189922329970769</v>
+        <v>1.0277777777777777</v>
       </c>
       <c r="H32" t="s">
         <v>45</v>
@@ -1692,13 +1692,13 @@
         <v>34520.5</v>
       </c>
       <c r="K32" t="n">
-        <v>0.8400871395837158</v>
+        <v>5.500071787281414</v>
       </c>
       <c r="L32" t="n">
-        <v>0.6614323283899659</v>
+        <v>3.49996818250518</v>
       </c>
       <c r="M32" t="n">
-        <v>1.0209233432632536</v>
+        <v>9.666696579176957</v>
       </c>
       <c r="N32" t="n">
         <v>9.821097879042933E-27</v>
@@ -1721,13 +1721,13 @@
         <v>0.036570247933884296</v>
       </c>
       <c r="E33" t="n">
-        <v>0.829303772831025</v>
+        <v>6.75</v>
       </c>
       <c r="F33" t="s">
         <v>28</v>
       </c>
       <c r="G33" t="n">
-        <v>0.01189922329970769</v>
+        <v>1.0277777777777777</v>
       </c>
       <c r="H33" t="s">
         <v>45</v>
@@ -1739,13 +1739,13 @@
         <v>58835.0</v>
       </c>
       <c r="K33" t="n">
-        <v>0.7532812648028346</v>
+        <v>5.000066246296498</v>
       </c>
       <c r="L33" t="n">
-        <v>0.6010382837096095</v>
+        <v>2.9443786158132257</v>
       </c>
       <c r="M33" t="n">
-        <v>0.9152188033135011</v>
+        <v>8.111110827424248</v>
       </c>
       <c r="N33" t="n">
         <v>3.54559711172822E-26</v>
@@ -1768,13 +1768,13 @@
         <v>0.036570247933884296</v>
       </c>
       <c r="E34" t="n">
-        <v>0.829303772831025</v>
+        <v>6.75</v>
       </c>
       <c r="F34" t="s">
         <v>31</v>
       </c>
       <c r="G34" t="n">
-        <v>-0.06494080693301456</v>
+        <v>0.8611111111111112</v>
       </c>
       <c r="H34" t="s">
         <v>45</v>
@@ -1786,13 +1786,13 @@
         <v>18455.0</v>
       </c>
       <c r="K34" t="n">
-        <v>0.9339424257028615</v>
+        <v>5.722271067689006</v>
       </c>
       <c r="L34" t="n">
-        <v>0.727656028925632</v>
+        <v>3.222269088002391</v>
       </c>
       <c r="M34" t="n">
-        <v>1.1498322727110668</v>
+        <v>11.611095145756037</v>
       </c>
       <c r="N34" t="n">
         <v>7.73838186672255E-24</v>
@@ -1815,13 +1815,13 @@
         <v>0.036570247933884296</v>
       </c>
       <c r="E35" t="n">
-        <v>0.829303772831025</v>
+        <v>6.75</v>
       </c>
       <c r="F35" t="s">
         <v>30</v>
       </c>
       <c r="G35" t="n">
-        <v>0.07716595481229925</v>
+        <v>1.1944444444444444</v>
       </c>
       <c r="H35" t="s">
         <v>45</v>
@@ -1833,13 +1833,13 @@
         <v>29169.5</v>
       </c>
       <c r="K35" t="n">
-        <v>0.791930356273263</v>
+        <v>5.333334371063995</v>
       </c>
       <c r="L35" t="n">
-        <v>0.6139243074771479</v>
+        <v>3.1666883675688986</v>
       </c>
       <c r="M35" t="n">
-        <v>0.981025101343767</v>
+        <v>9.611124944065878</v>
       </c>
       <c r="N35" t="n">
         <v>1.4286920180244712E-21</v>
@@ -1862,13 +1862,13 @@
         <v>0.036570247933884296</v>
       </c>
       <c r="E36" t="n">
-        <v>0.829303772831025</v>
+        <v>6.75</v>
       </c>
       <c r="F36" t="s">
         <v>29</v>
       </c>
       <c r="G36" t="n">
-        <v>0.07716595481229925</v>
+        <v>1.1944444444444444</v>
       </c>
       <c r="H36" t="s">
         <v>45</v>
@@ -1880,13 +1880,13 @@
         <v>52952.5</v>
       </c>
       <c r="K36" t="n">
-        <v>0.688171226885648</v>
+        <v>4.722263301913722</v>
       </c>
       <c r="L36" t="n">
-        <v>0.5315286203507685</v>
+        <v>2.7221855553007215</v>
       </c>
       <c r="M36" t="n">
-        <v>0.8450701913214991</v>
+        <v>7.611149368852251</v>
       </c>
       <c r="N36" t="n">
         <v>3.796879741720433E-21</v>
@@ -1909,13 +1909,13 @@
         <v>0.036570247933884296</v>
       </c>
       <c r="E37" t="n">
-        <v>0.829303772831025</v>
+        <v>6.75</v>
       </c>
       <c r="F37" t="s">
         <v>24</v>
       </c>
       <c r="G37" t="n">
-        <v>0.3413245905231541</v>
+        <v>2.194444444444444</v>
       </c>
       <c r="H37" t="s">
         <v>45</v>
@@ -1927,13 +1927,13 @@
         <v>110475.5</v>
       </c>
       <c r="K37" t="n">
-        <v>0.483722675032677</v>
+        <v>3.6667025006253366</v>
       </c>
       <c r="L37" t="n">
-        <v>0.34379327111717245</v>
+        <v>1.8889177437514615</v>
       </c>
       <c r="M37" t="n">
-        <v>0.6292728798287899</v>
+        <v>5.944440801922173</v>
       </c>
       <c r="N37" t="n">
         <v>9.54908329745799E-13</v>
@@ -1956,13 +1956,13 @@
         <v>0.036570247933884296</v>
       </c>
       <c r="E38" t="n">
-        <v>0.829303772831025</v>
+        <v>6.75</v>
       </c>
       <c r="F38" t="s">
         <v>26</v>
       </c>
       <c r="G38" t="n">
-        <v>0.43046923349895755</v>
+        <v>2.694444444444444</v>
       </c>
       <c r="H38" t="s">
         <v>45</v>
@@ -1974,13 +1974,13 @@
         <v>168505.5</v>
       </c>
       <c r="K38" t="n">
-        <v>0.3416897829253042</v>
+        <v>2.3333753356195075</v>
       </c>
       <c r="L38" t="n">
-        <v>0.20968429386877863</v>
+        <v>1.0000347999738552</v>
       </c>
       <c r="M38" t="n">
-        <v>0.47718100206724806</v>
+        <v>4.499960052939754</v>
       </c>
       <c r="N38" t="n">
         <v>2.7502980802501176E-7</v>
@@ -2003,13 +2003,13 @@
         <v>0.19276859504132232</v>
       </c>
       <c r="E39" t="n">
-        <v>0.3413245905231541</v>
+        <v>2.194444444444444</v>
       </c>
       <c r="F39" t="s">
         <v>25</v>
       </c>
       <c r="G39" t="n">
-        <v>-0.09390450286833116</v>
+        <v>0.8055555555555556</v>
       </c>
       <c r="H39" t="s">
         <v>45</v>
@@ -2021,13 +2021,13 @@
         <v>512875.5</v>
       </c>
       <c r="K39" t="n">
-        <v>0.44738299679411664</v>
+        <v>1.2222527899334965</v>
       </c>
       <c r="L39" t="n">
-        <v>0.4045193713398213</v>
+        <v>1.0556023481169816</v>
       </c>
       <c r="M39" t="n">
-        <v>0.4933204830539903</v>
+        <v>1.3888936642053062</v>
       </c>
       <c r="N39" t="n">
         <v>1.1589175612396227E-81</v>
@@ -2050,13 +2050,13 @@
         <v>0.19276859504132232</v>
       </c>
       <c r="E40" t="n">
-        <v>0.3413245905231541</v>
+        <v>2.194444444444444</v>
       </c>
       <c r="F40" t="s">
         <v>27</v>
       </c>
       <c r="G40" t="n">
-        <v>0.01189922329970769</v>
+        <v>1.0277777777777777</v>
       </c>
       <c r="H40" t="s">
         <v>45</v>
@@ -2068,13 +2068,13 @@
         <v>162504.0</v>
       </c>
       <c r="K40" t="n">
-        <v>0.32257880062505484</v>
+        <v>1.0000288952842262</v>
       </c>
       <c r="L40" t="n">
-        <v>0.2644919142236093</v>
+        <v>0.7778275841385036</v>
       </c>
       <c r="M40" t="n">
-        <v>0.3823381952014047</v>
+        <v>1.277782212600199</v>
       </c>
       <c r="N40" t="n">
         <v>5.203157607696326E-26</v>
@@ -2097,13 +2097,13 @@
         <v>0.19276859504132232</v>
       </c>
       <c r="E41" t="n">
-        <v>0.3413245905231541</v>
+        <v>2.194444444444444</v>
       </c>
       <c r="F41" t="s">
         <v>28</v>
       </c>
       <c r="G41" t="n">
-        <v>0.01189922329970769</v>
+        <v>1.0277777777777777</v>
       </c>
       <c r="H41" t="s">
         <v>45</v>
@@ -2115,13 +2115,13 @@
         <v>268826.5</v>
       </c>
       <c r="K41" t="n">
-        <v>0.29432917589596125</v>
+        <v>0.833331199349072</v>
       </c>
       <c r="L41" t="n">
-        <v>0.24131724338062693</v>
+        <v>0.6111664362155027</v>
       </c>
       <c r="M41" t="n">
-        <v>0.3512573254228104</v>
+        <v>1.0000499320721756</v>
       </c>
       <c r="N41" t="n">
         <v>5.2488532159746215E-24</v>
@@ -2144,13 +2144,13 @@
         <v>0.19276859504132232</v>
       </c>
       <c r="E42" t="n">
-        <v>0.3413245905231541</v>
+        <v>2.194444444444444</v>
       </c>
       <c r="F42" t="s">
         <v>31</v>
       </c>
       <c r="G42" t="n">
-        <v>-0.06494080693301456</v>
+        <v>0.8611111111111112</v>
       </c>
       <c r="H42" t="s">
         <v>45</v>
@@ -2162,13 +2162,13 @@
         <v>89719.5</v>
       </c>
       <c r="K42" t="n">
-        <v>0.4227055998939472</v>
+        <v>1.2221663513475143</v>
       </c>
       <c r="L42" t="n">
-        <v>0.3462185594634475</v>
+        <v>0.8889208144404281</v>
       </c>
       <c r="M42" t="n">
-        <v>0.5038639281412856</v>
+        <v>1.5555790206474567</v>
       </c>
       <c r="N42" t="n">
         <v>1.852605225647785E-23</v>
@@ -2191,13 +2191,13 @@
         <v>0.19276859504132232</v>
       </c>
       <c r="E43" t="n">
-        <v>0.3413245905231541</v>
+        <v>2.194444444444444</v>
       </c>
       <c r="F43" t="s">
         <v>30</v>
       </c>
       <c r="G43" t="n">
-        <v>0.07716595481229925</v>
+        <v>1.1944444444444444</v>
       </c>
       <c r="H43" t="s">
         <v>45</v>
@@ -2209,13 +2209,13 @@
         <v>133852.5</v>
       </c>
       <c r="K43" t="n">
-        <v>0.2688079625983262</v>
+        <v>0.8888557037933358</v>
       </c>
       <c r="L43" t="n">
-        <v>0.20337686327708604</v>
+        <v>0.6111569062171907</v>
       </c>
       <c r="M43" t="n">
-        <v>0.3340058380970786</v>
+        <v>1.1666536693616905</v>
       </c>
       <c r="N43" t="n">
         <v>2.9980904696548704E-16</v>
@@ -2238,13 +2238,13 @@
         <v>0.19276859504132232</v>
       </c>
       <c r="E44" t="n">
-        <v>0.3413245905231541</v>
+        <v>2.194444444444444</v>
       </c>
       <c r="F44" t="s">
         <v>29</v>
       </c>
       <c r="G44" t="n">
-        <v>0.07716595481229925</v>
+        <v>1.1944444444444444</v>
       </c>
       <c r="H44" t="s">
         <v>45</v>
@@ -2256,13 +2256,13 @@
         <v>234379.0</v>
       </c>
       <c r="K44" t="n">
-        <v>0.21829864147171</v>
+        <v>0.6111577959551486</v>
       </c>
       <c r="L44" t="n">
-        <v>0.15976995905076163</v>
+        <v>0.44447012555334664</v>
       </c>
       <c r="M44" t="n">
-        <v>0.27619715859231664</v>
+        <v>0.833339262136994</v>
       </c>
       <c r="N44" t="n">
         <v>2.2314220390196305E-13</v>
@@ -2285,13 +2285,13 @@
         <v>0.19276859504132232</v>
       </c>
       <c r="E45" t="n">
-        <v>0.3413245905231541</v>
+        <v>2.194444444444444</v>
       </c>
       <c r="F45" t="s">
         <v>26</v>
       </c>
       <c r="G45" t="n">
-        <v>0.43046923349895755</v>
+        <v>2.694444444444444</v>
       </c>
       <c r="H45" t="s">
         <v>45</v>
@@ -2303,13 +2303,13 @@
         <v>631928.5</v>
       </c>
       <c r="K45" t="n">
-        <v>-0.12062182899506095</v>
+        <v>-0.4444804882197068</v>
       </c>
       <c r="L45" t="n">
-        <v>-0.16827323992781038</v>
+        <v>-0.6666190606566418</v>
       </c>
       <c r="M45" t="n">
-        <v>-0.07331526324689597</v>
+        <v>-0.27775825669349613</v>
       </c>
       <c r="N45" t="n">
         <v>4.431849564369491E-7</v>
@@ -2332,13 +2332,13 @@
         <v>0.1464876033057851</v>
       </c>
       <c r="E46" t="n">
-        <v>-0.09390450286833116</v>
+        <v>0.8055555555555556</v>
       </c>
       <c r="F46" t="s">
         <v>26</v>
       </c>
       <c r="G46" t="n">
-        <v>0.43046923349895755</v>
+        <v>2.694444444444444</v>
       </c>
       <c r="H46" t="s">
         <v>45</v>
@@ -2350,13 +2350,13 @@
         <v>214400.0</v>
       </c>
       <c r="K46" t="n">
-        <v>-0.5689692021180403</v>
+        <v>-1.7777605087762625</v>
       </c>
       <c r="L46" t="n">
-        <v>-0.6173839027813295</v>
+        <v>-2.05551294213181</v>
       </c>
       <c r="M46" t="n">
-        <v>-0.5205057122190204</v>
+        <v>-1.5555248478077601</v>
       </c>
       <c r="N46" t="n">
         <v>6.410956236766719E-119</v>
@@ -2379,13 +2379,13 @@
         <v>0.1464876033057851</v>
       </c>
       <c r="E47" t="n">
-        <v>-0.09390450286833116</v>
+        <v>0.8055555555555556</v>
       </c>
       <c r="F47" t="s">
         <v>29</v>
       </c>
       <c r="G47" t="n">
-        <v>0.07716595481229925</v>
+        <v>1.1944444444444444</v>
       </c>
       <c r="H47" t="s">
         <v>45</v>
@@ -2397,13 +2397,13 @@
         <v>97704.0</v>
       </c>
       <c r="K47" t="n">
-        <v>-0.22182271114803492</v>
+        <v>-0.444411381507635</v>
       </c>
       <c r="L47" t="n">
-        <v>-0.26886637620588627</v>
+        <v>-0.500059185489751</v>
       </c>
       <c r="M47" t="n">
-        <v>-0.16917142851594416</v>
+        <v>-0.3332805670612146</v>
       </c>
       <c r="N47" t="n">
         <v>4.419538690579893E-18</v>
@@ -2426,13 +2426,13 @@
         <v>0.1464876033057851</v>
       </c>
       <c r="E48" t="n">
-        <v>-0.09390450286833116</v>
+        <v>0.8055555555555556</v>
       </c>
       <c r="F48" t="s">
         <v>30</v>
       </c>
       <c r="G48" t="n">
-        <v>0.07716595481229925</v>
+        <v>1.1944444444444444</v>
       </c>
       <c r="H48" t="s">
         <v>45</v>
@@ -2444,13 +2444,13 @@
         <v>51925.0</v>
       </c>
       <c r="K48" t="n">
-        <v>-0.18230041896029262</v>
+        <v>-0.38881926651574217</v>
       </c>
       <c r="L48" t="n">
-        <v>-0.23190273612405743</v>
+        <v>-0.49996362680391543</v>
       </c>
       <c r="M48" t="n">
-        <v>-0.1296544452904708</v>
+        <v>-0.27775446865815556</v>
       </c>
       <c r="N48" t="n">
         <v>1.4415528403026272E-11</v>
@@ -2473,13 +2473,13 @@
         <v>0.1464876033057851</v>
       </c>
       <c r="E49" t="n">
-        <v>-0.09390450286833116</v>
+        <v>0.8055555555555556</v>
       </c>
       <c r="F49" t="s">
         <v>28</v>
       </c>
       <c r="G49" t="n">
-        <v>0.01189922329970769</v>
+        <v>1.0277777777777777</v>
       </c>
       <c r="H49" t="s">
         <v>45</v>
@@ -2491,13 +2491,13 @@
         <v>121939.0</v>
       </c>
       <c r="K49" t="n">
-        <v>-0.1368781275254284</v>
+        <v>-0.22225655472233494</v>
       </c>
       <c r="L49" t="n">
-        <v>-0.18565327857347258</v>
+        <v>-0.33331024763667105</v>
       </c>
       <c r="M49" t="n">
-        <v>-0.08716673733582705</v>
+        <v>-0.16663686504550076</v>
       </c>
       <c r="N49" t="n">
         <v>1.4344457599129518E-8</v>
@@ -2520,13 +2520,13 @@
         <v>0.1464876033057851</v>
       </c>
       <c r="E50" t="n">
-        <v>-0.09390450286833116</v>
+        <v>0.8055555555555556</v>
       </c>
       <c r="F50" t="s">
         <v>27</v>
       </c>
       <c r="G50" t="n">
-        <v>0.01189922329970769</v>
+        <v>1.0277777777777777</v>
       </c>
       <c r="H50" t="s">
         <v>45</v>
@@ -2538,13 +2538,13 @@
         <v>66880.5</v>
       </c>
       <c r="K50" t="n">
-        <v>-0.12191255174631668</v>
+        <v>-0.2222371141561891</v>
       </c>
       <c r="L50" t="n">
-        <v>-0.16914635269896916</v>
+        <v>-0.33328748001164177</v>
       </c>
       <c r="M50" t="n">
-        <v>-0.07743194712171206</v>
+        <v>-0.16663104725893563</v>
       </c>
       <c r="N50" t="n">
         <v>2.936034717661335E-7</v>
@@ -2567,13 +2567,13 @@
         <v>0.1464876033057851</v>
       </c>
       <c r="E51" t="n">
-        <v>-0.09390450286833116</v>
+        <v>0.8055555555555556</v>
       </c>
       <c r="F51" t="s">
         <v>31</v>
       </c>
       <c r="G51" t="n">
-        <v>-0.06494080693301456</v>
+        <v>0.8611111111111112</v>
       </c>
       <c r="H51" t="s">
         <v>45</v>
@@ -2585,13 +2585,13 @@
         <v>42285.0</v>
       </c>
       <c r="K51" t="n">
-        <v>-0.02069637408551101</v>
+        <v>-0.05555446874337709</v>
       </c>
       <c r="L51" t="n">
-        <v>-0.08502235231592813</v>
+        <v>-0.16661713072529297</v>
       </c>
       <c r="M51" t="n">
-        <v>0.04342417869075421</v>
+        <v>0.05561771543533217</v>
       </c>
       <c r="N51" t="n">
         <v>0.49839479937867925</v>
@@ -2614,13 +2614,13 @@
         <v>0.3183884297520661</v>
       </c>
       <c r="E52" t="n">
-        <v>0.43046923349895755</v>
+        <v>2.694444444444444</v>
       </c>
       <c r="F52" t="s">
         <v>28</v>
       </c>
       <c r="G52" t="n">
-        <v>0.01189922329970769</v>
+        <v>1.0277777777777777</v>
       </c>
       <c r="H52" t="s">
         <v>45</v>
@@ -2632,13 +2632,13 @@
         <v>469705.5</v>
       </c>
       <c r="K52" t="n">
-        <v>0.4075342837547527</v>
+        <v>1.2778357836970216</v>
       </c>
       <c r="L52" t="n">
-        <v>0.34846571438971474</v>
+        <v>1.0000327630618335</v>
       </c>
       <c r="M52" t="n">
-        <v>0.4682707328432225</v>
+        <v>1.5555652752492688</v>
       </c>
       <c r="N52" t="n">
         <v>3.802105934232744E-40</v>
@@ -2661,13 +2661,13 @@
         <v>0.3183884297520661</v>
       </c>
       <c r="E53" t="n">
-        <v>0.43046923349895755</v>
+        <v>2.694444444444444</v>
       </c>
       <c r="F53" t="s">
         <v>27</v>
       </c>
       <c r="G53" t="n">
-        <v>0.01189922329970769</v>
+        <v>1.0277777777777777</v>
       </c>
       <c r="H53" t="s">
         <v>45</v>
@@ -2679,13 +2679,13 @@
         <v>281507.5</v>
       </c>
       <c r="K53" t="n">
-        <v>0.4416763202218636</v>
+        <v>1.5555657066140767</v>
       </c>
       <c r="L53" t="n">
-        <v>0.37197944914911824</v>
+        <v>1.222166335870716</v>
       </c>
       <c r="M53" t="n">
-        <v>0.5134894875172703</v>
+        <v>2.000015215832237</v>
       </c>
       <c r="N53" t="n">
         <v>2.5459708447388405E-37</v>
@@ -2708,13 +2708,13 @@
         <v>0.3183884297520661</v>
       </c>
       <c r="E54" t="n">
-        <v>0.43046923349895755</v>
+        <v>2.694444444444444</v>
       </c>
       <c r="F54" t="s">
         <v>31</v>
       </c>
       <c r="G54" t="n">
-        <v>-0.06494080693301456</v>
+        <v>0.8611111111111112</v>
       </c>
       <c r="H54" t="s">
         <v>45</v>
@@ -2726,13 +2726,13 @@
         <v>153631.5</v>
       </c>
       <c r="K54" t="n">
-        <v>0.5428051670270938</v>
+        <v>1.777702190933994</v>
       </c>
       <c r="L54" t="n">
-        <v>0.44894501724626795</v>
+        <v>1.3332708923128878</v>
       </c>
       <c r="M54" t="n">
-        <v>0.6424418557571151</v>
+        <v>2.3888938740523047</v>
       </c>
       <c r="N54" t="n">
         <v>1.6713429844671472E-29</v>
@@ -2755,13 +2755,13 @@
         <v>0.3183884297520661</v>
       </c>
       <c r="E55" t="n">
-        <v>0.43046923349895755</v>
+        <v>2.694444444444444</v>
       </c>
       <c r="F55" t="s">
         <v>29</v>
       </c>
       <c r="G55" t="n">
-        <v>0.07716595481229925</v>
+        <v>1.1944444444444444</v>
       </c>
       <c r="H55" t="s">
         <v>45</v>
@@ -2773,13 +2773,13 @@
         <v>414635.0</v>
       </c>
       <c r="K55" t="n">
-        <v>0.33101330612719176</v>
+        <v>1.1110771842286495</v>
       </c>
       <c r="L55" t="n">
-        <v>0.27173108098774545</v>
+        <v>0.8333531255987295</v>
       </c>
       <c r="M55" t="n">
-        <v>0.3935955344316165</v>
+        <v>1.3889435265176417</v>
       </c>
       <c r="N55" t="n">
         <v>4.368132236398206E-26</v>
@@ -2802,13 +2802,13 @@
         <v>0.3183884297520661</v>
       </c>
       <c r="E56" t="n">
-        <v>0.43046923349895755</v>
+        <v>2.694444444444444</v>
       </c>
       <c r="F56" t="s">
         <v>30</v>
       </c>
       <c r="G56" t="n">
-        <v>0.07716595481229925</v>
+        <v>1.1944444444444444</v>
       </c>
       <c r="H56" t="s">
         <v>45</v>
@@ -2820,13 +2820,13 @@
         <v>234443.5</v>
       </c>
       <c r="K56" t="n">
-        <v>0.3899157781958633</v>
+        <v>1.4443973014125613</v>
       </c>
       <c r="L56" t="n">
-        <v>0.3146232301269324</v>
+        <v>1.0555279823893873</v>
       </c>
       <c r="M56" t="n">
-        <v>0.46967874284846045</v>
+        <v>1.8888485805196846</v>
       </c>
       <c r="N56" t="n">
         <v>1.8404507224860606E-25</v>
@@ -2849,13 +2849,13 @@
         <v>0.08884297520661157</v>
       </c>
       <c r="E57" t="n">
-        <v>0.01189922329970769</v>
+        <v>1.0277777777777777</v>
       </c>
       <c r="F57" t="s">
         <v>31</v>
       </c>
       <c r="G57" t="n">
-        <v>-0.06494080693301456</v>
+        <v>0.8611111111111112</v>
       </c>
       <c r="H57" t="s">
         <v>45</v>
@@ -2867,13 +2867,13 @@
         <v>31335.5</v>
       </c>
       <c r="K57" t="n">
-        <v>0.11499612569683251</v>
+        <v>0.22220245817347464</v>
       </c>
       <c r="L57" t="n">
-        <v>0.03952441531733779</v>
+        <v>0.05558956201570912</v>
       </c>
       <c r="M57" t="n">
-        <v>0.18914923741470413</v>
+        <v>0.33336357574659325</v>
       </c>
       <c r="N57" t="n">
         <v>0.0028988572561038143</v>
@@ -2896,13 +2896,13 @@
         <v>0.08884297520661157</v>
       </c>
       <c r="E58" t="n">
-        <v>0.01189922329970769</v>
+        <v>1.0277777777777777</v>
       </c>
       <c r="F58" t="s">
         <v>29</v>
       </c>
       <c r="G58" t="n">
-        <v>0.07716595481229925</v>
+        <v>1.1944444444444444</v>
       </c>
       <c r="H58" t="s">
         <v>45</v>
@@ -2914,13 +2914,13 @@
         <v>77292.5</v>
       </c>
       <c r="K58" t="n">
-        <v>-0.07981406702750272</v>
+        <v>-0.16662545177673194</v>
       </c>
       <c r="L58" t="n">
-        <v>-0.13938855246293397</v>
+        <v>-0.2778227926976373</v>
       </c>
       <c r="M58" t="n">
-        <v>-0.019744411761685877</v>
+        <v>-0.05550666001014877</v>
       </c>
       <c r="N58" t="n">
         <v>0.009847911812716582</v>
@@ -2943,13 +2943,13 @@
         <v>0.08884297520661157</v>
       </c>
       <c r="E59" t="n">
-        <v>0.01189922329970769</v>
+        <v>1.0277777777777777</v>
       </c>
       <c r="F59" t="s">
         <v>30</v>
       </c>
       <c r="G59" t="n">
-        <v>0.07716595481229925</v>
+        <v>1.1944444444444444</v>
       </c>
       <c r="H59" t="s">
         <v>45</v>
@@ -2961,13 +2961,13 @@
         <v>42225.5</v>
       </c>
       <c r="K59" t="n">
-        <v>-0.04708282725049846</v>
+        <v>-0.11109486767598917</v>
       </c>
       <c r="L59" t="n">
-        <v>-0.10912543466738336</v>
+        <v>-0.2222665021739528</v>
       </c>
       <c r="M59" t="n">
-        <v>0.019790940799771194</v>
+        <v>0.05554030442891073</v>
       </c>
       <c r="N59" t="n">
         <v>0.1541058790448918</v>
@@ -2990,13 +2990,13 @@
         <v>0.08884297520661157</v>
       </c>
       <c r="E60" t="n">
-        <v>0.01189922329970769</v>
+        <v>1.0277777777777777</v>
       </c>
       <c r="F60" t="s">
         <v>27</v>
       </c>
       <c r="G60" t="n">
-        <v>0.01189922329970769</v>
+        <v>1.0277777777777777</v>
       </c>
       <c r="H60" t="s">
         <v>45</v>
@@ -3008,13 +3008,13 @@
         <v>52723.5</v>
       </c>
       <c r="K60" t="n">
-        <v>4.673859023853985E-5</v>
+        <v>1.2895118460490079E-5</v>
       </c>
       <c r="L60" t="n">
-        <v>-0.04968355012025019</v>
+        <v>-0.11107024026207607</v>
       </c>
       <c r="M60" t="n">
-        <v>0.068763451053479</v>
+        <v>0.11114319885971083</v>
       </c>
       <c r="N60" t="n">
         <v>0.7741389383137218</v>
@@ -3037,13 +3037,13 @@
         <v>0.08285123966942148</v>
       </c>
       <c r="E61" t="n">
-        <v>0.07716595481229925</v>
+        <v>1.1944444444444444</v>
       </c>
       <c r="F61" t="s">
         <v>31</v>
       </c>
       <c r="G61" t="n">
-        <v>-0.06494080693301456</v>
+        <v>0.8611111111111112</v>
       </c>
       <c r="H61" t="s">
         <v>45</v>
@@ -3055,13 +3055,13 @@
         <v>32170.5</v>
       </c>
       <c r="K61" t="n">
-        <v>0.1962423207428443</v>
+        <v>0.38895274173092337</v>
       </c>
       <c r="L61" t="n">
-        <v>0.11919246684873407</v>
+        <v>0.22224962805328458</v>
       </c>
       <c r="M61" t="n">
-        <v>0.27449820855978346</v>
+        <v>0.5555888329441716</v>
       </c>
       <c r="N61" t="n">
         <v>7.357560907183128E-7</v>
@@ -3084,13 +3084,13 @@
         <v>0.08285123966942148</v>
       </c>
       <c r="E62" t="n">
-        <v>0.07716595481229925</v>
+        <v>1.1944444444444444</v>
       </c>
       <c r="F62" t="s">
         <v>27</v>
       </c>
       <c r="G62" t="n">
-        <v>0.01189922329970769</v>
+        <v>1.0277777777777777</v>
       </c>
       <c r="H62" t="s">
         <v>45</v>
@@ -3102,13 +3102,13 @@
         <v>55445.0</v>
       </c>
       <c r="K62" t="n">
-        <v>0.09040186995529106</v>
+        <v>0.222186922259807</v>
       </c>
       <c r="L62" t="n">
-        <v>0.031004060102825144</v>
+        <v>0.05556429742871288</v>
       </c>
       <c r="M62" t="n">
-        <v>0.15188683866468317</v>
+        <v>0.3333830118372726</v>
       </c>
       <c r="N62" t="n">
         <v>0.0024072205338393216</v>
@@ -3131,13 +3131,13 @@
         <v>0.08285123966942148</v>
       </c>
       <c r="E63" t="n">
-        <v>0.07716595481229925</v>
+        <v>1.1944444444444444</v>
       </c>
       <c r="F63" t="s">
         <v>30</v>
       </c>
       <c r="G63" t="n">
-        <v>0.07716595481229925</v>
+        <v>1.1944444444444444</v>
       </c>
       <c r="H63" t="s">
         <v>45</v>
@@ -3149,13 +3149,13 @@
         <v>44647.0</v>
       </c>
       <c r="K63" t="n">
-        <v>0.036985554093784456</v>
+        <v>0.11108385507173005</v>
       </c>
       <c r="L63" t="n">
-        <v>-0.027193166153260985</v>
+        <v>-0.05560317044577344</v>
       </c>
       <c r="M63" t="n">
-        <v>0.10386852965957935</v>
+        <v>0.22228378531322027</v>
       </c>
       <c r="N63" t="n">
         <v>0.26003998282472784</v>
@@ -3178,13 +3178,13 @@
         <v>0.04359504132231405</v>
       </c>
       <c r="E64" t="n">
-        <v>0.07716595481229925</v>
+        <v>1.1944444444444444</v>
       </c>
       <c r="F64" t="s">
         <v>31</v>
       </c>
       <c r="G64" t="n">
-        <v>-0.06494080693301456</v>
+        <v>0.8611111111111112</v>
       </c>
       <c r="H64" t="s">
         <v>45</v>
@@ -3196,13 +3196,13 @@
         <v>16902.0</v>
       </c>
       <c r="K64" t="n">
-        <v>0.16109235760082344</v>
+        <v>0.3333395816238003</v>
       </c>
       <c r="L64" t="n">
-        <v>0.09343528081106175</v>
+        <v>0.22221824163727294</v>
       </c>
       <c r="M64" t="n">
-        <v>0.2299046091529467</v>
+        <v>0.49994225685804294</v>
       </c>
       <c r="N64" t="n">
         <v>8.032097871446184E-6</v>
@@ -3225,13 +3225,13 @@
         <v>0.04359504132231405</v>
       </c>
       <c r="E65" t="n">
-        <v>0.07716595481229925</v>
+        <v>1.1944444444444444</v>
       </c>
       <c r="F65" t="s">
         <v>27</v>
       </c>
       <c r="G65" t="n">
-        <v>0.01189922329970769</v>
+        <v>1.0277777777777777</v>
       </c>
       <c r="H65" t="s">
         <v>45</v>
@@ -3243,13 +3243,13 @@
         <v>28376.0</v>
       </c>
       <c r="K65" t="n">
-        <v>0.059302238458621696</v>
+        <v>0.16665967235821308</v>
       </c>
       <c r="L65" t="n">
-        <v>4.6166267034661505E-5</v>
+        <v>1.2571958054169701E-5</v>
       </c>
       <c r="M65" t="n">
-        <v>0.10917818267812114</v>
+        <v>0.27777250415743643</v>
       </c>
       <c r="N65" t="n">
         <v>0.040626952709887046</v>
@@ -3272,13 +3272,13 @@
         <v>0.0256198347107438</v>
       </c>
       <c r="E66" t="n">
-        <v>-0.06494080693301456</v>
+        <v>0.8611111111111112</v>
       </c>
       <c r="F66" t="s">
         <v>27</v>
       </c>
       <c r="G66" t="n">
-        <v>0.01189922329970769</v>
+        <v>1.0277777777777777</v>
       </c>
       <c r="H66" t="s">
         <v>45</v>
@@ -3290,13 +3290,13 @@
         <v>12013.5</v>
       </c>
       <c r="K66" t="n">
-        <v>-0.10269194456504889</v>
+        <v>-0.22222046061897222</v>
       </c>
       <c r="L66" t="n">
-        <v>-0.16919746080735487</v>
+        <v>-0.3332684416759948</v>
       </c>
       <c r="M66" t="n">
-        <v>-0.03949806204052675</v>
+        <v>-0.0555652754383711</v>
       </c>
       <c r="N66" t="n">
         <v>0.001791920113231525</v>
@@ -3319,13 +3319,13 @@
         <v>0.05</v>
       </c>
       <c r="E67" t="n">
-        <v>0.01189922329970769</v>
+        <v>1.0277777777777777</v>
       </c>
       <c r="F67" t="s">
         <v>21</v>
       </c>
       <c r="G67" t="n">
-        <v>0.0233306647794598</v>
+        <v>1.0555555555555554</v>
       </c>
       <c r="H67" t="s">
         <v>45</v>
@@ -3337,13 +3337,13 @@
         <v>8653.5</v>
       </c>
       <c r="K67" t="n">
-        <v>-1.8993724285013624E-5</v>
+        <v>-1.7906721215004264E-5</v>
       </c>
       <c r="L67" t="n">
-        <v>-0.07110224606073547</v>
+        <v>-0.1667058803362046</v>
       </c>
       <c r="M67" t="n">
-        <v>0.06874716790840309</v>
+        <v>0.16662308090916506</v>
       </c>
       <c r="N67" t="n">
         <v>0.9316204034661192</v>
@@ -3366,13 +3366,13 @@
         <v>0.14689265536723164</v>
       </c>
       <c r="E68" t="n">
-        <v>-0.027152246043614825</v>
+        <v>0.9393939393939393</v>
       </c>
       <c r="F68" t="s">
         <v>35</v>
       </c>
       <c r="G68" t="n">
-        <v>2.3987989740013247</v>
+        <v>250.4949494949495</v>
       </c>
       <c r="H68" t="s">
         <v>45</v>
@@ -3384,13 +3384,13 @@
         <v>40.0</v>
       </c>
       <c r="K68" t="n">
-        <v>-2.422507415908728</v>
+        <v>-249.55557516635645</v>
       </c>
       <c r="L68" t="n">
-        <v>-2.579952777414392</v>
+        <v>-358.28286928318283</v>
       </c>
       <c r="M68" t="n">
-        <v>-2.2321141936946978</v>
+        <v>-201.35349218243292</v>
       </c>
       <c r="N68" t="n">
         <v>1.9369021002517134E-24</v>
@@ -3413,13 +3413,13 @@
         <v>0.14689265536723164</v>
       </c>
       <c r="E69" t="n">
-        <v>-0.027152246043614825</v>
+        <v>0.9393939393939393</v>
       </c>
       <c r="F69" t="s">
         <v>32</v>
       </c>
       <c r="G69" t="n">
-        <v>1.9671601752596832</v>
+        <v>92.71717171717172</v>
       </c>
       <c r="H69" t="s">
         <v>45</v>
@@ -3431,13 +3431,13 @@
         <v>164.0</v>
       </c>
       <c r="K69" t="n">
-        <v>-1.9819786200675849</v>
+        <v>-91.64317434262983</v>
       </c>
       <c r="L69" t="n">
-        <v>-2.1190644942533448</v>
+        <v>-109.03030335294338</v>
       </c>
       <c r="M69" t="n">
-        <v>-1.8193552869313503</v>
+        <v>-71.39389652586448</v>
       </c>
       <c r="N69" t="n">
         <v>7.114875182198938E-24</v>
@@ -3460,13 +3460,13 @@
         <v>0.14689265536723164</v>
       </c>
       <c r="E70" t="n">
-        <v>-0.027152246043614825</v>
+        <v>0.9393939393939393</v>
       </c>
       <c r="F70" t="s">
         <v>34</v>
       </c>
       <c r="G70" t="n">
-        <v>0.8297909231702731</v>
+        <v>6.757575757575758</v>
       </c>
       <c r="H70" t="s">
         <v>45</v>
@@ -3478,13 +3478,13 @@
         <v>1119.0</v>
       </c>
       <c r="K70" t="n">
-        <v>-0.9644689715672534</v>
+        <v>-5.5225323241159305</v>
       </c>
       <c r="L70" t="n">
-        <v>-2.018580092794297</v>
+        <v>-147.57574184152926</v>
       </c>
       <c r="M70" t="n">
-        <v>-0.5632302250379028</v>
+        <v>-1.7373215038507805</v>
       </c>
       <c r="N70" t="n">
         <v>3.1564374127766623E-9</v>
@@ -3507,13 +3507,13 @@
         <v>0.14689265536723164</v>
       </c>
       <c r="E71" t="n">
-        <v>-0.027152246043614825</v>
+        <v>0.9393939393939393</v>
       </c>
       <c r="F71" t="s">
         <v>33</v>
       </c>
       <c r="G71" t="n">
-        <v>-0.10357628636608832</v>
+        <v>0.7878787878787878</v>
       </c>
       <c r="H71" t="s">
         <v>45</v>
@@ -3525,13 +3525,13 @@
         <v>6753.5</v>
       </c>
       <c r="K71" t="n">
-        <v>0.08981699001643081</v>
+        <v>0.1616150727849429</v>
       </c>
       <c r="L71" t="n">
-        <v>-4.0960698871898437E-5</v>
+        <v>-3.151483683124195E-5</v>
       </c>
       <c r="M71" t="n">
-        <v>0.18144353338703192</v>
+        <v>0.3433856360546571</v>
       </c>
       <c r="N71" t="n">
         <v>0.05596537222596104</v>
@@ -3554,13 +3554,13 @@
         <v>0.14124293785310735</v>
       </c>
       <c r="E72" t="n">
-        <v>1.9671601752596832</v>
+        <v>92.71717171717172</v>
       </c>
       <c r="F72" t="s">
         <v>33</v>
       </c>
       <c r="G72" t="n">
-        <v>-0.10357628636608832</v>
+        <v>0.7878787878787878</v>
       </c>
       <c r="H72" t="s">
         <v>45</v>
@@ -3572,13 +3572,13 @@
         <v>11011.5</v>
       </c>
       <c r="K72" t="n">
-        <v>2.070295172428799</v>
+        <v>91.82879801225339</v>
       </c>
       <c r="L72" t="n">
-        <v>1.9471145375943315</v>
+        <v>73.15148784582644</v>
       </c>
       <c r="M72" t="n">
-        <v>2.1917133831580067</v>
+        <v>106.74746656185027</v>
       </c>
       <c r="N72" t="n">
         <v>1.2439742793132583E-31</v>
@@ -3601,13 +3601,13 @@
         <v>0.14124293785310735</v>
       </c>
       <c r="E73" t="n">
-        <v>1.9671601752596832</v>
+        <v>92.71717171717172</v>
       </c>
       <c r="F73" t="s">
         <v>27</v>
       </c>
       <c r="G73" t="n">
-        <v>0.025554104472388227</v>
+        <v>1.0606060606060608</v>
       </c>
       <c r="H73" t="s">
         <v>45</v>
@@ -3619,13 +3619,13 @@
         <v>6858.0</v>
       </c>
       <c r="K73" t="n">
-        <v>1.9483502430970567</v>
+        <v>91.6565307185993</v>
       </c>
       <c r="L73" t="n">
-        <v>1.8203775046529476</v>
+        <v>71.57568490420499</v>
       </c>
       <c r="M73" t="n">
-        <v>2.0842562698479488</v>
+        <v>107.61618742442113</v>
       </c>
       <c r="N73" t="n">
         <v>5.34492161282192E-26</v>
@@ -3648,13 +3648,13 @@
         <v>0.14124293785310735</v>
       </c>
       <c r="E74" t="n">
-        <v>1.9671601752596832</v>
+        <v>92.71717171717172</v>
       </c>
       <c r="F74" t="s">
         <v>35</v>
       </c>
       <c r="G74" t="n">
-        <v>2.3987989740013247</v>
+        <v>250.4949494949495</v>
       </c>
       <c r="H74" t="s">
         <v>45</v>
@@ -3666,13 +3666,13 @@
         <v>1501.5</v>
       </c>
       <c r="K74" t="n">
-        <v>-0.4497699166328988</v>
+        <v>-150.90907809279932</v>
       </c>
       <c r="L74" t="n">
-        <v>-0.6421246470200217</v>
+        <v>-241.09099511228413</v>
       </c>
       <c r="M74" t="n">
-        <v>-0.26460336790008665</v>
+        <v>-61.07070141271727</v>
       </c>
       <c r="N74" t="n">
         <v>3.6364511951914434E-5</v>
@@ -3695,13 +3695,13 @@
         <v>0.14124293785310735</v>
       </c>
       <c r="E75" t="n">
-        <v>1.9671601752596832</v>
+        <v>92.71717171717172</v>
       </c>
       <c r="F75" t="s">
         <v>34</v>
       </c>
       <c r="G75" t="n">
-        <v>0.8297909231702731</v>
+        <v>6.757575757575758</v>
       </c>
       <c r="H75" t="s">
         <v>45</v>
@@ -3713,13 +3713,13 @@
         <v>2874.0</v>
       </c>
       <c r="K75" t="n">
-        <v>0.5195561160575541</v>
+        <v>8.080828814303453</v>
       </c>
       <c r="L75" t="n">
-        <v>-0.12056636154792669</v>
+        <v>-5.434354425623979</v>
       </c>
       <c r="M75" t="n">
-        <v>1.206606114246895</v>
+        <v>55.51516653280243</v>
       </c>
       <c r="N75" t="n">
         <v>0.14014844291770362</v>
@@ -3742,13 +3742,13 @@
         <v>0.2824858757062147</v>
       </c>
       <c r="E76" t="n">
-        <v>-0.10357628636608832</v>
+        <v>0.7878787878787878</v>
       </c>
       <c r="F76" t="s">
         <v>35</v>
       </c>
       <c r="G76" t="n">
-        <v>2.3987989740013247</v>
+        <v>250.4949494949495</v>
       </c>
       <c r="H76" t="s">
         <v>45</v>
@@ -3760,13 +3760,13 @@
         <v>60.0</v>
       </c>
       <c r="K76" t="n">
-        <v>-2.514453528985412</v>
+        <v>-249.70726021054384</v>
       </c>
       <c r="L76" t="n">
-        <v>-2.6557060676861166</v>
+        <v>-356.6868816515656</v>
       </c>
       <c r="M76" t="n">
-        <v>-2.3525205634879174</v>
+        <v>-202.989924524966</v>
       </c>
       <c r="N76" t="n">
         <v>3.275333477554596E-31</v>
@@ -3789,13 +3789,13 @@
         <v>0.2824858757062147</v>
       </c>
       <c r="E77" t="n">
-        <v>-0.10357628636608832</v>
+        <v>0.7878787878787878</v>
       </c>
       <c r="F77" t="s">
         <v>34</v>
       </c>
       <c r="G77" t="n">
-        <v>0.8297909231702731</v>
+        <v>6.757575757575758</v>
       </c>
       <c r="H77" t="s">
         <v>45</v>
@@ -3807,13 +3807,13 @@
         <v>1778.0</v>
       </c>
       <c r="K77" t="n">
-        <v>-1.0698754719749535</v>
+        <v>-5.737402538153468</v>
       </c>
       <c r="L77" t="n">
-        <v>-2.079575603124322</v>
+        <v>-145.9596271235801</v>
       </c>
       <c r="M77" t="n">
-        <v>-0.6820872452462576</v>
+        <v>-2.3837780568169307</v>
       </c>
       <c r="N77" t="n">
         <v>2.990240119189427E-14</v>
@@ -3836,13 +3836,13 @@
         <v>0.2824858757062147</v>
       </c>
       <c r="E78" t="n">
-        <v>-0.10357628636608832</v>
+        <v>0.7878787878787878</v>
       </c>
       <c r="F78" t="s">
         <v>27</v>
       </c>
       <c r="G78" t="n">
-        <v>0.025554104472388227</v>
+        <v>1.0606060606060608</v>
       </c>
       <c r="H78" t="s">
         <v>45</v>
@@ -3854,13 +3854,13 @@
         <v>5475.0</v>
       </c>
       <c r="K78" t="n">
-        <v>-0.11533851768951187</v>
+        <v>-0.22217913474383433</v>
       </c>
       <c r="L78" t="n">
-        <v>-0.19440337705161367</v>
+        <v>-0.36358094604971053</v>
       </c>
       <c r="M78" t="n">
-        <v>-0.04073371662054055</v>
+        <v>-0.08080610754708603</v>
       </c>
       <c r="N78" t="n">
         <v>0.0033354413017219336</v>
@@ -3883,13 +3883,13 @@
         <v>0.12617702448210924</v>
       </c>
       <c r="E79" t="n">
-        <v>0.8297909231702731</v>
+        <v>6.757575757575758</v>
       </c>
       <c r="F79" t="s">
         <v>27</v>
       </c>
       <c r="G79" t="n">
-        <v>0.025554104472388227</v>
+        <v>1.0606060606060608</v>
       </c>
       <c r="H79" t="s">
         <v>45</v>
@@ -3901,13 +3901,13 @@
         <v>4914.0</v>
       </c>
       <c r="K79" t="n">
-        <v>0.9076924984267379</v>
+        <v>5.494894401914984</v>
       </c>
       <c r="L79" t="n">
-        <v>0.5145408172765168</v>
+        <v>1.8989505572801464</v>
       </c>
       <c r="M79" t="n">
-        <v>2.032546369501545</v>
+        <v>147.1313506084018</v>
       </c>
       <c r="N79" t="n">
         <v>1.4330458664110134E-9</v>
@@ -3930,13 +3930,13 @@
         <v>0.12617702448210924</v>
       </c>
       <c r="E80" t="n">
-        <v>0.8297909231702731</v>
+        <v>6.757575757575758</v>
       </c>
       <c r="F80" t="s">
         <v>35</v>
       </c>
       <c r="G80" t="n">
-        <v>2.3987989740013247</v>
+        <v>250.4949494949495</v>
       </c>
       <c r="H80" t="s">
         <v>45</v>
@@ -3948,13 +3948,13 @@
         <v>1351.0</v>
       </c>
       <c r="K80" t="n">
-        <v>-0.9659671162124726</v>
+        <v>-99.71712821267015</v>
       </c>
       <c r="L80" t="n">
-        <v>-1.6548378067800942</v>
+        <v>-215.69694533326626</v>
       </c>
       <c r="M80" t="n">
-        <v>-0.3523768548648359</v>
+        <v>-30.585885980645944</v>
       </c>
       <c r="N80" t="n">
         <v>7.074874791863647E-5</v>
@@ -3977,13 +3977,13 @@
         <v>0.12617702448210924</v>
       </c>
       <c r="E81" t="n">
-        <v>2.3987989740013247</v>
+        <v>250.4949494949495</v>
       </c>
       <c r="F81" t="s">
         <v>27</v>
       </c>
       <c r="G81" t="n">
-        <v>0.025554104472388227</v>
+        <v>1.0606060606060608</v>
       </c>
       <c r="H81" t="s">
         <v>45</v>
@@ -3995,13 +3995,13 @@
         <v>6247.0</v>
       </c>
       <c r="K81" t="n">
-        <v>2.393346786735045</v>
+        <v>249.4343722086574</v>
       </c>
       <c r="L81" t="n">
-        <v>2.224527080353541</v>
+        <v>202.16159754249838</v>
       </c>
       <c r="M81" t="n">
-        <v>2.54896248095851</v>
+        <v>357.8384326358824</v>
       </c>
       <c r="N81" t="n">
         <v>2.3228684637635536E-26</v>
@@ -4024,13 +4024,13 @@
         <v>0.17702448210922786</v>
       </c>
       <c r="E82" t="n">
-        <v>0.025554104472388227</v>
+        <v>1.0606060606060608</v>
       </c>
       <c r="F82" t="s">
         <v>21</v>
       </c>
       <c r="G82" t="n">
-        <v>-0.027152246043614825</v>
+        <v>0.9393939393939393</v>
       </c>
       <c r="H82" t="s">
         <v>45</v>
@@ -4042,13 +4042,13 @@
         <v>3827.0</v>
       </c>
       <c r="K82" t="n">
-        <v>0.02713541204167177</v>
+        <v>0.060588150330435214</v>
       </c>
       <c r="L82" t="n">
-        <v>-0.07496426913167302</v>
+        <v>-0.16156133618550939</v>
       </c>
       <c r="M82" t="n">
-        <v>0.13022016515252263</v>
+        <v>0.24243218252506282</v>
       </c>
       <c r="N82" t="n">
         <v>0.6215024313697044</v>
@@ -4071,13 +4071,13 @@
         <v>0.08600742196027068</v>
       </c>
       <c r="E83" t="n">
-        <v>0.012837224705172217</v>
+        <v>1.03</v>
       </c>
       <c r="F83" t="s">
         <v>32</v>
       </c>
       <c r="G83" t="n">
-        <v>1.9188155824516362</v>
+        <v>82.95</v>
       </c>
       <c r="H83" t="s">
         <v>45</v>
@@ -4089,13 +4089,13 @@
         <v>7421.0</v>
       </c>
       <c r="K83" t="n">
-        <v>-1.8518828787629895</v>
+        <v>-81.47994749635086</v>
       </c>
       <c r="L83" t="n">
-        <v>-1.9000484905611066</v>
+        <v>-89.57993502814492</v>
       </c>
       <c r="M83" t="n">
-        <v>-1.8017407602848632</v>
+        <v>-72.93996907519846</v>
       </c>
       <c r="N83" t="n">
         <v>1.0705290194367086E-189</v>
@@ -4118,13 +4118,13 @@
         <v>0.08600742196027068</v>
       </c>
       <c r="E84" t="n">
-        <v>0.012837224705172217</v>
+        <v>1.03</v>
       </c>
       <c r="F84" t="s">
         <v>35</v>
       </c>
       <c r="G84" t="n">
-        <v>0.9185545305502735</v>
+        <v>8.29</v>
       </c>
       <c r="H84" t="s">
         <v>45</v>
@@ -4136,13 +4136,13 @@
         <v>91053.0</v>
       </c>
       <c r="K84" t="n">
-        <v>-0.8981377474307619</v>
+        <v>-6.899956043154693</v>
       </c>
       <c r="L84" t="n">
-        <v>-1.011683114976437</v>
+        <v>-9.439998473999236</v>
       </c>
       <c r="M84" t="n">
-        <v>-0.7933387089527951</v>
+        <v>-4.940023327522844</v>
       </c>
       <c r="N84" t="n">
         <v>1.4579889767353456E-110</v>
@@ -4165,13 +4165,13 @@
         <v>0.08600742196027068</v>
       </c>
       <c r="E85" t="n">
-        <v>0.012837224705172217</v>
+        <v>1.03</v>
       </c>
       <c r="F85" t="s">
         <v>38</v>
       </c>
       <c r="G85" t="n">
-        <v>2.255224246809487</v>
+        <v>179.98</v>
       </c>
       <c r="H85" t="s">
         <v>45</v>
@@ -4183,13 +4183,13 @@
         <v>17.0</v>
       </c>
       <c r="K85" t="n">
-        <v>-2.20808780071147</v>
+        <v>-178.92004738644832</v>
       </c>
       <c r="L85" t="n">
-        <v>-2.2811697927110335</v>
+        <v>-202.4400132962191</v>
       </c>
       <c r="M85" t="n">
-        <v>-2.132238862873949</v>
+        <v>-155.3999770773467</v>
       </c>
       <c r="N85" t="n">
         <v>1.5447315019648325E-49</v>
@@ -4212,13 +4212,13 @@
         <v>0.08600742196027068</v>
       </c>
       <c r="E86" t="n">
-        <v>0.012837224705172217</v>
+        <v>1.03</v>
       </c>
       <c r="F86" t="s">
         <v>37</v>
       </c>
       <c r="G86" t="n">
-        <v>2.090538950389023</v>
+        <v>123.26</v>
       </c>
       <c r="H86" t="s">
         <v>45</v>
@@ -4230,13 +4230,13 @@
         <v>2940.0</v>
       </c>
       <c r="K86" t="n">
-        <v>-1.99772784763114</v>
+        <v>-118.48000313921</v>
       </c>
       <c r="L86" t="n">
-        <v>-2.104883791942705</v>
+        <v>-150.24006445532865</v>
       </c>
       <c r="M86" t="n">
-        <v>-1.8723093755915448</v>
+        <v>-99.1199568327425</v>
       </c>
       <c r="N86" t="n">
         <v>2.4304684007857462E-32</v>
@@ -4259,13 +4259,13 @@
         <v>0.08600742196027068</v>
       </c>
       <c r="E87" t="n">
-        <v>0.012837224705172217</v>
+        <v>1.03</v>
       </c>
       <c r="F87" t="s">
         <v>33</v>
       </c>
       <c r="G87" t="n">
-        <v>-0.031517051446064856</v>
+        <v>0.93</v>
       </c>
       <c r="H87" t="s">
         <v>45</v>
@@ -4277,13 +4277,13 @@
         <v>73224.5</v>
       </c>
       <c r="K87" t="n">
-        <v>0.05739366476149231</v>
+        <v>0.1199911895245784</v>
       </c>
       <c r="L87" t="n">
-        <v>0.015661123726651637</v>
+        <v>0.03996547643180532</v>
       </c>
       <c r="M87" t="n">
-        <v>0.09848298958210477</v>
+        <v>0.20006321479615619</v>
       </c>
       <c r="N87" t="n">
         <v>0.006888573707471122</v>
@@ -4306,13 +4306,13 @@
         <v>0.08600742196027068</v>
       </c>
       <c r="E88" t="n">
-        <v>0.012837224705172217</v>
+        <v>1.03</v>
       </c>
       <c r="F88" t="s">
         <v>36</v>
       </c>
       <c r="G88" t="n">
-        <v>0.053078443483419765</v>
+        <v>1.1300000000000001</v>
       </c>
       <c r="H88" t="s">
         <v>45</v>
@@ -4324,13 +4324,13 @@
         <v>61283.0</v>
       </c>
       <c r="K88" t="n">
-        <v>-0.03263145934182196</v>
+        <v>-0.0799830148638842</v>
       </c>
       <c r="L88" t="n">
-        <v>-0.07431086991660389</v>
+        <v>-0.17995107245499636</v>
       </c>
       <c r="M88" t="n">
-        <v>0.009841885873824651</v>
+        <v>0.020040816484560978</v>
       </c>
       <c r="N88" t="n">
         <v>0.1259062860220125</v>
@@ -4353,13 +4353,13 @@
         <v>0.07269155206286837</v>
       </c>
       <c r="E89" t="n">
-        <v>0.053078443483419765</v>
+        <v>1.1300000000000001</v>
       </c>
       <c r="F89" t="s">
         <v>32</v>
       </c>
       <c r="G89" t="n">
-        <v>1.9188155824516362</v>
+        <v>82.95</v>
       </c>
       <c r="H89" t="s">
         <v>45</v>
@@ -4371,13 +4371,13 @@
         <v>14624.5</v>
       </c>
       <c r="K89" t="n">
-        <v>-1.8037727293896149</v>
+        <v>-79.4599731990736</v>
       </c>
       <c r="L89" t="n">
-        <v>-1.8602888221996556</v>
+        <v>-87.7799389578438</v>
       </c>
       <c r="M89" t="n">
-        <v>-1.7445995889851351</v>
+        <v>-70.74009441022551</v>
       </c>
       <c r="N89" t="n">
         <v>4.976508782465732E-154</v>
@@ -4400,13 +4400,13 @@
         <v>0.07269155206286837</v>
       </c>
       <c r="E90" t="n">
-        <v>0.053078443483419765</v>
+        <v>1.1300000000000001</v>
       </c>
       <c r="F90" t="s">
         <v>35</v>
       </c>
       <c r="G90" t="n">
-        <v>0.9185545305502735</v>
+        <v>8.29</v>
       </c>
       <c r="H90" t="s">
         <v>45</v>
@@ -4418,13 +4418,13 @@
         <v>95103.0</v>
       </c>
       <c r="K90" t="n">
-        <v>-0.8409433105977272</v>
+        <v>-6.179981070872065</v>
       </c>
       <c r="L90" t="n">
-        <v>-0.9571833291600389</v>
+        <v>-8.760059839364065</v>
       </c>
       <c r="M90" t="n">
-        <v>-0.7335670598301066</v>
+        <v>-4.259941806801477</v>
       </c>
       <c r="N90" t="n">
         <v>3.390224986073378E-80</v>
@@ -4447,13 +4447,13 @@
         <v>0.07269155206286837</v>
       </c>
       <c r="E91" t="n">
-        <v>0.053078443483419765</v>
+        <v>1.1300000000000001</v>
       </c>
       <c r="F91" t="s">
         <v>38</v>
       </c>
       <c r="G91" t="n">
-        <v>2.255224246809487</v>
+        <v>179.98</v>
       </c>
       <c r="H91" t="s">
         <v>45</v>
@@ -4465,13 +4465,13 @@
         <v>280.0</v>
       </c>
       <c r="K91" t="n">
-        <v>-2.1698711165598126</v>
+        <v>-178.27997204881527</v>
       </c>
       <c r="L91" t="n">
-        <v>-2.2502260441121957</v>
+        <v>-201.9199917679731</v>
       </c>
       <c r="M91" t="n">
-        <v>-2.0827366048245053</v>
+        <v>-153.84004335268503</v>
       </c>
       <c r="N91" t="n">
         <v>2.5272231136151075E-46</v>
@@ -4494,13 +4494,13 @@
         <v>0.07269155206286837</v>
       </c>
       <c r="E92" t="n">
-        <v>0.053078443483419765</v>
+        <v>1.1300000000000001</v>
       </c>
       <c r="F92" t="s">
         <v>37</v>
       </c>
       <c r="G92" t="n">
-        <v>2.090538950389023</v>
+        <v>123.26</v>
       </c>
       <c r="H92" t="s">
         <v>45</v>
@@ -4512,13 +4512,13 @@
         <v>2919.0</v>
       </c>
       <c r="K92" t="n">
-        <v>-1.9445896352367615</v>
+        <v>-117.49998045564979</v>
       </c>
       <c r="L92" t="n">
-        <v>-2.063117135008315</v>
+        <v>-149.19992746532463</v>
       </c>
       <c r="M92" t="n">
-        <v>-1.7979965487140384</v>
+        <v>-98.0600243748089</v>
       </c>
       <c r="N92" t="n">
         <v>3.574305988808808E-29</v>
@@ -4541,13 +4541,13 @@
         <v>0.07269155206286837</v>
       </c>
       <c r="E93" t="n">
-        <v>0.053078443483419765</v>
+        <v>1.1300000000000001</v>
       </c>
       <c r="F93" t="s">
         <v>33</v>
       </c>
       <c r="G93" t="n">
-        <v>-0.031517051446064856</v>
+        <v>0.93</v>
       </c>
       <c r="H93" t="s">
         <v>45</v>
@@ -4559,13 +4559,13 @@
         <v>64438.5</v>
       </c>
       <c r="K93" t="n">
-        <v>0.08965931615537509</v>
+        <v>0.19994529532536348</v>
       </c>
       <c r="L93" t="n">
-        <v>0.042343002095821924</v>
+        <v>0.08008522395048256</v>
       </c>
       <c r="M93" t="n">
-        <v>0.13898474859438725</v>
+        <v>0.2999896795937681</v>
       </c>
       <c r="N93" t="n">
         <v>2.9145812941376445E-4</v>
@@ -4588,13 +4588,13 @@
         <v>0.07269155206286837</v>
       </c>
       <c r="E94" t="n">
-        <v>0.053078443483419765</v>
+        <v>1.1300000000000001</v>
       </c>
       <c r="F94" t="s">
         <v>27</v>
       </c>
       <c r="G94" t="n">
-        <v>-0.01322826573375516</v>
+        <v>0.97</v>
       </c>
       <c r="H94" t="s">
         <v>45</v>
@@ -4606,13 +4606,13 @@
         <v>63007.0</v>
       </c>
       <c r="K94" t="n">
-        <v>0.06473964504778133</v>
+        <v>0.14000295165861956</v>
       </c>
       <c r="L94" t="n">
-        <v>0.019207571061386677</v>
+        <v>0.040048236189879266</v>
       </c>
       <c r="M94" t="n">
-        <v>0.107954024374177</v>
+        <v>0.24005382472162753</v>
       </c>
       <c r="N94" t="n">
         <v>0.004715124287559814</v>
@@ -4635,13 +4635,13 @@
         <v>0.2933857236411264</v>
       </c>
       <c r="E95" t="n">
-        <v>1.9188155824516362</v>
+        <v>82.95</v>
       </c>
       <c r="F95" t="s">
         <v>27</v>
       </c>
       <c r="G95" t="n">
-        <v>-0.01322826573375516</v>
+        <v>0.97</v>
       </c>
       <c r="H95" t="s">
         <v>45</v>
@@ -4653,13 +4653,13 @@
         <v>442911.5</v>
       </c>
       <c r="K95" t="n">
-        <v>1.8835285145031395</v>
+        <v>80.840050783145</v>
       </c>
       <c r="L95" t="n">
-        <v>1.829083535373696</v>
+        <v>71.91995691977931</v>
       </c>
       <c r="M95" t="n">
-        <v>1.936058247084272</v>
+        <v>89.44001604583056</v>
       </c>
       <c r="N95" t="n">
         <v>4.4415824063845985E-164</v>
@@ -4682,13 +4682,13 @@
         <v>0.2933857236411264</v>
       </c>
       <c r="E96" t="n">
-        <v>1.9188155824516362</v>
+        <v>82.95</v>
       </c>
       <c r="F96" t="s">
         <v>33</v>
       </c>
       <c r="G96" t="n">
-        <v>-0.031517051446064856</v>
+        <v>0.93</v>
       </c>
       <c r="H96" t="s">
         <v>45</v>
@@ -4700,13 +4700,13 @@
         <v>436230.0</v>
       </c>
       <c r="K96" t="n">
-        <v>1.8964791146250226</v>
+        <v>80.24001020157527</v>
       </c>
       <c r="L96" t="n">
-        <v>1.8389675859255437</v>
+        <v>71.3200312474569</v>
       </c>
       <c r="M96" t="n">
-        <v>1.9516253933980896</v>
+        <v>88.72002156333143</v>
       </c>
       <c r="N96" t="n">
         <v>7.227279766677778E-159</v>
@@ -4729,13 +4729,13 @@
         <v>0.2933857236411264</v>
       </c>
       <c r="E97" t="n">
-        <v>1.9188155824516362</v>
+        <v>82.95</v>
       </c>
       <c r="F97" t="s">
         <v>35</v>
       </c>
       <c r="G97" t="n">
-        <v>0.9185545305502735</v>
+        <v>8.29</v>
       </c>
       <c r="H97" t="s">
         <v>45</v>
@@ -4747,13 +4747,13 @@
         <v>1656583.5</v>
       </c>
       <c r="K97" t="n">
-        <v>0.79760993677286</v>
+        <v>45.21994894684593</v>
       </c>
       <c r="L97" t="n">
-        <v>0.7272186614667295</v>
+        <v>40.18004363486795</v>
       </c>
       <c r="M97" t="n">
-        <v>0.867942344599372</v>
+        <v>50.82000366640975</v>
       </c>
       <c r="N97" t="n">
         <v>2.891764041696828E-113</v>
@@ -4776,13 +4776,13 @@
         <v>0.2933857236411264</v>
       </c>
       <c r="E98" t="n">
-        <v>1.9188155824516362</v>
+        <v>82.95</v>
       </c>
       <c r="F98" t="s">
         <v>38</v>
       </c>
       <c r="G98" t="n">
-        <v>2.255224246809487</v>
+        <v>179.98</v>
       </c>
       <c r="H98" t="s">
         <v>45</v>
@@ -4794,13 +4794,13 @@
         <v>34067.0</v>
       </c>
       <c r="K98" t="n">
-        <v>-0.34222743120247623</v>
+        <v>-89.07993398244889</v>
       </c>
       <c r="L98" t="n">
-        <v>-0.4414154723005046</v>
+        <v>-114.19996561490686</v>
       </c>
       <c r="M98" t="n">
-        <v>-0.24706468624760783</v>
+        <v>-63.440009082663636</v>
       </c>
       <c r="N98" t="n">
         <v>3.7927223056835904E-12</v>
@@ -4823,13 +4823,13 @@
         <v>0.2933857236411264</v>
       </c>
       <c r="E99" t="n">
-        <v>1.9188155824516362</v>
+        <v>82.95</v>
       </c>
       <c r="F99" t="s">
         <v>37</v>
       </c>
       <c r="G99" t="n">
-        <v>2.090538950389023</v>
+        <v>123.26</v>
       </c>
       <c r="H99" t="s">
         <v>45</v>
@@ -4841,13 +4841,13 @@
         <v>50167.5</v>
       </c>
       <c r="K99" t="n">
-        <v>-0.10475200210609319</v>
+        <v>-21.260003524577204</v>
       </c>
       <c r="L99" t="n">
-        <v>-0.22133177818894256</v>
+        <v>-47.44000159136235</v>
       </c>
       <c r="M99" t="n">
-        <v>0.01535830178837519</v>
+        <v>1.780072069449377</v>
       </c>
       <c r="N99" t="n">
         <v>0.08675786291651644</v>
@@ -4870,13 +4870,13 @@
         <v>0.0183366077275704</v>
       </c>
       <c r="E100" t="n">
-        <v>2.090538950389023</v>
+        <v>123.26</v>
       </c>
       <c r="F100" t="s">
         <v>33</v>
       </c>
       <c r="G100" t="n">
-        <v>-0.031517051446064856</v>
+        <v>0.93</v>
       </c>
       <c r="H100" t="s">
         <v>45</v>
@@ -4888,13 +4888,13 @@
         <v>25597.0</v>
       </c>
       <c r="K100" t="n">
-        <v>2.035584924811531</v>
+        <v>117.92006741209566</v>
       </c>
       <c r="L100" t="n">
-        <v>1.8990776275829795</v>
+        <v>98.7399209911845</v>
       </c>
       <c r="M100" t="n">
-        <v>2.156881628167989</v>
+        <v>149.94002647324976</v>
       </c>
       <c r="N100" t="n">
         <v>6.062413738308164E-32</v>
@@ -4917,13 +4917,13 @@
         <v>0.0183366077275704</v>
       </c>
       <c r="E101" t="n">
-        <v>2.090538950389023</v>
+        <v>123.26</v>
       </c>
       <c r="F101" t="s">
         <v>27</v>
       </c>
       <c r="G101" t="n">
-        <v>-0.01322826573375516</v>
+        <v>0.97</v>
       </c>
       <c r="H101" t="s">
         <v>45</v>
@@ -4935,13 +4935,13 @@
         <v>25780.0</v>
       </c>
       <c r="K101" t="n">
-        <v>2.026894984570942</v>
+        <v>118.0999560975611</v>
       </c>
       <c r="L101" t="n">
-        <v>1.8959180932780413</v>
+        <v>98.95995011697482</v>
       </c>
       <c r="M101" t="n">
-        <v>2.137694399569797</v>
+        <v>150.13998761531877</v>
       </c>
       <c r="N101" t="n">
         <v>9.38697204853095E-32</v>
@@ -4964,13 +4964,13 @@
         <v>0.0183366077275704</v>
       </c>
       <c r="E102" t="n">
-        <v>2.090538950389023</v>
+        <v>123.26</v>
       </c>
       <c r="F102" t="s">
         <v>35</v>
       </c>
       <c r="G102" t="n">
-        <v>0.9185545305502735</v>
+        <v>8.29</v>
       </c>
       <c r="H102" t="s">
         <v>45</v>
@@ -4982,13 +4982,13 @@
         <v>99910.0</v>
       </c>
       <c r="K102" t="n">
-        <v>0.7854174329862569</v>
+        <v>71.59375858899841</v>
       </c>
       <c r="L102" t="n">
-        <v>0.5191162758993599</v>
+        <v>46.16001827809387</v>
       </c>
       <c r="M102" t="n">
-        <v>1.0511272146634834</v>
+        <v>101.51999935587452</v>
       </c>
       <c r="N102" t="n">
         <v>3.7955084967975926E-11</v>
@@ -5011,13 +5011,13 @@
         <v>0.0183366077275704</v>
       </c>
       <c r="E103" t="n">
-        <v>2.090538950389023</v>
+        <v>123.26</v>
       </c>
       <c r="F103" t="s">
         <v>38</v>
       </c>
       <c r="G103" t="n">
-        <v>2.255224246809487</v>
+        <v>179.98</v>
       </c>
       <c r="H103" t="s">
         <v>45</v>
@@ -5029,13 +5029,13 @@
         <v>2725.0</v>
       </c>
       <c r="K103" t="n">
-        <v>-0.20675008437055756</v>
+        <v>-62.44824960398448</v>
       </c>
       <c r="L103" t="n">
-        <v>-0.3614807174707758</v>
+        <v>-102.43999460188323</v>
       </c>
       <c r="M103" t="n">
-        <v>-0.07936557900447537</v>
+        <v>-21.81995090706342</v>
       </c>
       <c r="N103" t="n">
         <v>0.0014940740428166165</v>
@@ -5058,13 +5058,13 @@
         <v>0.07269155206286837</v>
       </c>
       <c r="E104" t="n">
-        <v>-0.031517051446064856</v>
+        <v>0.93</v>
       </c>
       <c r="F104" t="s">
         <v>35</v>
       </c>
       <c r="G104" t="n">
-        <v>0.9185545305502735</v>
+        <v>8.29</v>
       </c>
       <c r="H104" t="s">
         <v>45</v>
@@ -5076,13 +5076,13 @@
         <v>75807.0</v>
       </c>
       <c r="K104" t="n">
-        <v>-0.9301162421897922</v>
+        <v>-6.5400421578412775</v>
       </c>
       <c r="L104" t="n">
-        <v>-1.0456886163271122</v>
+        <v>-9.219973763547117</v>
       </c>
       <c r="M104" t="n">
-        <v>-0.8235379976767249</v>
+        <v>-4.579979256318479</v>
       </c>
       <c r="N104" t="n">
         <v>1.2452051497658856E-97</v>
@@ -5105,13 +5105,13 @@
         <v>0.07269155206286837</v>
       </c>
       <c r="E105" t="n">
-        <v>-0.031517051446064856</v>
+        <v>0.93</v>
       </c>
       <c r="F105" t="s">
         <v>38</v>
       </c>
       <c r="G105" t="n">
-        <v>2.255224246809487</v>
+        <v>179.98</v>
       </c>
       <c r="H105" t="s">
         <v>45</v>
@@ -5123,13 +5123,13 @@
         <v>216.0</v>
       </c>
       <c r="K105" t="n">
-        <v>-2.260722063443258</v>
+        <v>-178.65999893764675</v>
       </c>
       <c r="L105" t="n">
-        <v>-2.343607851663786</v>
+        <v>-202.22000800905926</v>
       </c>
       <c r="M105" t="n">
-        <v>-2.173784589320046</v>
+        <v>-154.7199544215135</v>
       </c>
       <c r="N105" t="n">
         <v>1.031428125499475E-46</v>
@@ -5152,13 +5152,13 @@
         <v>0.07269155206286837</v>
       </c>
       <c r="E106" t="n">
-        <v>-0.031517051446064856</v>
+        <v>0.93</v>
       </c>
       <c r="F106" t="s">
         <v>27</v>
       </c>
       <c r="G106" t="n">
-        <v>-0.01322826573375516</v>
+        <v>0.97</v>
       </c>
       <c r="H106" t="s">
         <v>45</v>
@@ -5170,13 +5170,13 @@
         <v>53177.0</v>
       </c>
       <c r="K106" t="n">
-        <v>-0.024431477513919355</v>
+        <v>-0.04001053369389777</v>
       </c>
       <c r="L106" t="n">
-        <v>-0.06796475318016351</v>
+        <v>-0.1399462908870574</v>
       </c>
       <c r="M106" t="n">
-        <v>0.01832333381052171</v>
+        <v>0.0399676276905742</v>
       </c>
       <c r="N106" t="n">
         <v>0.2683138977446207</v>
@@ -5199,13 +5199,13 @@
         <v>0.019646365422396856</v>
       </c>
       <c r="E107" t="n">
-        <v>2.255224246809487</v>
+        <v>179.98</v>
       </c>
       <c r="F107" t="s">
         <v>27</v>
       </c>
       <c r="G107" t="n">
-        <v>-0.01322826573375516</v>
+        <v>0.97</v>
       </c>
       <c r="H107" t="s">
         <v>45</v>
@@ -5217,13 +5217,13 @@
         <v>30120.0</v>
       </c>
       <c r="K107" t="n">
-        <v>2.239028008592033</v>
+        <v>178.8399812703632</v>
       </c>
       <c r="L107" t="n">
-        <v>2.1614873486043518</v>
+        <v>155.0199716056942</v>
       </c>
       <c r="M107" t="n">
-        <v>2.315668367609943</v>
+        <v>202.32003477608004</v>
       </c>
       <c r="N107" t="n">
         <v>2.1479963434622582E-47</v>
@@ -5246,13 +5246,13 @@
         <v>0.019646365422396856</v>
       </c>
       <c r="E108" t="n">
-        <v>2.255224246809487</v>
+        <v>179.98</v>
       </c>
       <c r="F108" t="s">
         <v>35</v>
       </c>
       <c r="G108" t="n">
-        <v>0.9185545305502735</v>
+        <v>8.29</v>
       </c>
       <c r="H108" t="s">
         <v>45</v>
@@ -5264,13 +5264,13 @@
         <v>129047.0</v>
       </c>
       <c r="K108" t="n">
-        <v>1.2135268459215387</v>
+        <v>138.81996074984033</v>
       </c>
       <c r="L108" t="n">
-        <v>1.0045758244235108</v>
+        <v>118.1800133905405</v>
       </c>
       <c r="M108" t="n">
-        <v>1.4102451286994064</v>
+        <v>163.24003774266853</v>
       </c>
       <c r="N108" t="n">
         <v>9.874072236611186E-31</v>
@@ -5293,13 +5293,13 @@
         <v>0.36389434621261735</v>
       </c>
       <c r="E109" t="n">
-        <v>0.9185545305502735</v>
+        <v>8.29</v>
       </c>
       <c r="F109" t="s">
         <v>27</v>
       </c>
       <c r="G109" t="n">
-        <v>-0.01322826573375516</v>
+        <v>0.97</v>
       </c>
       <c r="H109" t="s">
         <v>45</v>
@@ -5311,13 +5311,13 @@
         <v>485665.5</v>
       </c>
       <c r="K109" t="n">
-        <v>0.9266843028861472</v>
+        <v>6.759923129596829</v>
       </c>
       <c r="L109" t="n">
-        <v>0.814101742174673</v>
+        <v>4.740013963882565</v>
       </c>
       <c r="M109" t="n">
-        <v>1.0486226994038779</v>
+        <v>9.440044185717623</v>
       </c>
       <c r="N109" t="n">
         <v>2.705007214772672E-100</v>
@@ -5340,13 +5340,13 @@
         <v>0.0733464309102816</v>
       </c>
       <c r="E110" t="n">
-        <v>-0.01322826573375516</v>
+        <v>0.97</v>
       </c>
       <c r="F110" t="s">
         <v>21</v>
       </c>
       <c r="G110" t="n">
-        <v>0.012837224705172217</v>
+        <v>1.03</v>
       </c>
       <c r="H110" t="s">
         <v>45</v>
@@ -5358,13 +5358,13 @@
         <v>61658.0</v>
       </c>
       <c r="K110" t="n">
-        <v>-0.03032086117200064</v>
+        <v>-0.060036928582766234</v>
       </c>
       <c r="L110" t="n">
-        <v>-0.06808357761290613</v>
+        <v>-0.1400297536913539</v>
       </c>
       <c r="M110" t="n">
-        <v>0.008224894691031699</v>
+        <v>0.019957451270265346</v>
       </c>
       <c r="N110" t="n">
         <v>0.11036107900412086</v>
@@ -5387,13 +5387,13 @@
         <v>0.19696969696969696</v>
       </c>
       <c r="E111" t="n">
-        <v>-0.027152246043614825</v>
+        <v>0.9393939393939393</v>
       </c>
       <c r="F111" t="s">
         <v>39</v>
       </c>
       <c r="G111" t="n">
-        <v>1.1324408180711654</v>
+        <v>13.565656565656566</v>
       </c>
       <c r="H111" t="s">
         <v>45</v>
@@ -5405,13 +5405,13 @@
         <v>1108.0</v>
       </c>
       <c r="K111" t="n">
-        <v>-1.2060694992348828</v>
+        <v>-12.686868857183924</v>
       </c>
       <c r="L111" t="n">
-        <v>-1.3597679872220052</v>
+        <v>-19.151520266820416</v>
       </c>
       <c r="M111" t="n">
-        <v>-1.0597180137303093</v>
+        <v>-9.656554135438965</v>
       </c>
       <c r="N111" t="n">
         <v>4.366328731575549E-28</v>
@@ -5434,13 +5434,13 @@
         <v>0.19696969696969696</v>
       </c>
       <c r="E112" t="n">
-        <v>-0.027152246043614825</v>
+        <v>0.9393939393939393</v>
       </c>
       <c r="F112" t="s">
         <v>40</v>
       </c>
       <c r="G112" t="n">
-        <v>1.0824589558088609</v>
+        <v>12.090909090909092</v>
       </c>
       <c r="H112" t="s">
         <v>45</v>
@@ -5452,13 +5452,13 @@
         <v>483.0</v>
       </c>
       <c r="K112" t="n">
-        <v>-1.0352179537315762</v>
+        <v>-11.037842664832805</v>
       </c>
       <c r="L112" t="n">
-        <v>-1.331196354042428</v>
+        <v>-19.494866927867182</v>
       </c>
       <c r="M112" t="n">
-        <v>-0.570752618603164</v>
+        <v>-1.4545386988581905</v>
       </c>
       <c r="N112" t="n">
         <v>1.0958930510488775E-6</v>
@@ -5481,13 +5481,13 @@
         <v>0.48737373737373735</v>
       </c>
       <c r="E113" t="n">
-        <v>1.1324408180711654</v>
+        <v>13.565656565656566</v>
       </c>
       <c r="F113" t="s">
         <v>27</v>
       </c>
       <c r="G113" t="n">
-        <v>0.025554104472388227</v>
+        <v>1.0606060606060608</v>
       </c>
       <c r="H113" t="s">
         <v>45</v>
@@ -5499,13 +5499,13 @@
         <v>16802.5</v>
       </c>
       <c r="K113" t="n">
-        <v>1.180785713650641</v>
+        <v>12.72729726716533</v>
       </c>
       <c r="L113" t="n">
-        <v>1.0404046954463644</v>
+        <v>9.939433899872837</v>
       </c>
       <c r="M113" t="n">
-        <v>1.3154902684244922</v>
+        <v>18.868742268562002</v>
       </c>
       <c r="N113" t="n">
         <v>1.0509854559254977E-31</v>
@@ -5528,13 +5528,13 @@
         <v>0.48737373737373735</v>
       </c>
       <c r="E114" t="n">
-        <v>1.1324408180711654</v>
+        <v>13.565656565656566</v>
       </c>
       <c r="F114" t="s">
         <v>40</v>
       </c>
       <c r="G114" t="n">
-        <v>1.0824589558088609</v>
+        <v>12.090909090909092</v>
       </c>
       <c r="H114" t="s">
         <v>45</v>
@@ -5546,13 +5546,13 @@
         <v>3412.0</v>
       </c>
       <c r="K114" t="n">
-        <v>0.2229414789536317</v>
+        <v>2.5656929243733004</v>
       </c>
       <c r="L114" t="n">
-        <v>-0.11844423923831664</v>
+        <v>-1.8585130076034622</v>
       </c>
       <c r="M114" t="n">
-        <v>0.5986384855788773</v>
+        <v>8.969640632077128</v>
       </c>
       <c r="N114" t="n">
         <v>0.2098497091105936</v>
@@ -5575,13 +5575,13 @@
         <v>0.07828282828282829</v>
       </c>
       <c r="E115" t="n">
-        <v>1.0824589558088609</v>
+        <v>12.090909090909092</v>
       </c>
       <c r="F115" t="s">
         <v>27</v>
       </c>
       <c r="G115" t="n">
-        <v>0.025554104472388227</v>
+        <v>1.0606060606060608</v>
       </c>
       <c r="H115" t="s">
         <v>45</v>
@@ -5593,13 +5593,13 @@
         <v>2306.5</v>
       </c>
       <c r="K115" t="n">
-        <v>1.0243172271161007</v>
+        <v>11.030336464776898</v>
       </c>
       <c r="L115" t="n">
-        <v>0.5378056980997044</v>
+        <v>1.4748200692013071</v>
       </c>
       <c r="M115" t="n">
-        <v>1.3112683903434756</v>
+        <v>19.616135006361965</v>
       </c>
       <c r="N115" t="n">
         <v>1.2096033094904328E-6</v>
@@ -5622,13 +5622,13 @@
         <v>0.23737373737373738</v>
       </c>
       <c r="E116" t="n">
-        <v>0.025554104472388227</v>
+        <v>1.0606060606060608</v>
       </c>
       <c r="F116" t="s">
         <v>21</v>
       </c>
       <c r="G116" t="n">
-        <v>-0.027152246043614825</v>
+        <v>0.9393939393939393</v>
       </c>
       <c r="H116" t="s">
         <v>45</v>
@@ -5640,13 +5640,13 @@
         <v>3827.0</v>
       </c>
       <c r="K116" t="n">
-        <v>0.02713541204167177</v>
+        <v>0.060588150330435214</v>
       </c>
       <c r="L116" t="n">
-        <v>-0.07496426913167302</v>
+        <v>-0.16156133618550939</v>
       </c>
       <c r="M116" t="n">
-        <v>0.13022016515252263</v>
+        <v>0.24243218252506282</v>
       </c>
       <c r="N116" t="n">
         <v>0.6215024313697044</v>
@@ -5669,13 +5669,13 @@
         <v>0.16220666941128037</v>
       </c>
       <c r="E117" t="n">
-        <v>0.012837224705172217</v>
+        <v>1.03</v>
       </c>
       <c r="F117" t="s">
         <v>39</v>
       </c>
       <c r="G117" t="n">
-        <v>0.26245108973042947</v>
+        <v>1.83</v>
       </c>
       <c r="H117" t="s">
         <v>45</v>
@@ -5687,13 +5687,13 @@
         <v>128606.0</v>
       </c>
       <c r="K117" t="n">
-        <v>-0.24026732145659416</v>
+        <v>-0.6999609565949014</v>
       </c>
       <c r="L117" t="n">
-        <v>-0.2858332897229084</v>
+        <v>-0.8599798402673278</v>
       </c>
       <c r="M117" t="n">
-        <v>-0.19635811203713183</v>
+        <v>-0.540005169344117</v>
       </c>
       <c r="N117" t="n">
         <v>3.422714040943628E-27</v>
@@ -5716,13 +5716,13 @@
         <v>0.16220666941128037</v>
       </c>
       <c r="E118" t="n">
-        <v>0.012837224705172217</v>
+        <v>1.03</v>
       </c>
       <c r="F118" t="s">
         <v>43</v>
       </c>
       <c r="G118" t="n">
-        <v>0.35602585719312263</v>
+        <v>2.2699999999999996</v>
       </c>
       <c r="H118" t="s">
         <v>45</v>
@@ -5734,13 +5734,13 @@
         <v>19589.5</v>
       </c>
       <c r="K118" t="n">
-        <v>-0.34719340128327625</v>
+        <v>-1.0999820403445713</v>
       </c>
       <c r="L118" t="n">
-        <v>-0.45101179247385825</v>
+        <v>-1.5799892182572974</v>
       </c>
       <c r="M118" t="n">
-        <v>-0.25307935751302296</v>
+        <v>-0.7199492043149486</v>
       </c>
       <c r="N118" t="n">
         <v>3.7281350550277635E-16</v>
@@ -5763,13 +5763,13 @@
         <v>0.16220666941128037</v>
       </c>
       <c r="E119" t="n">
-        <v>0.012837224705172217</v>
+        <v>1.03</v>
       </c>
       <c r="F119" t="s">
         <v>42</v>
       </c>
       <c r="G119" t="n">
-        <v>-0.11350927482751812</v>
+        <v>0.77</v>
       </c>
       <c r="H119" t="s">
         <v>45</v>
@@ -5781,13 +5781,13 @@
         <v>27102.5</v>
       </c>
       <c r="K119" t="n">
-        <v>0.1267683763214048</v>
+        <v>0.2400267907235763</v>
       </c>
       <c r="L119" t="n">
-        <v>0.07089892105919313</v>
+        <v>0.13996077557247566</v>
       </c>
       <c r="M119" t="n">
-        <v>0.18438459669498652</v>
+        <v>0.3599631929963222</v>
       </c>
       <c r="N119" t="n">
         <v>1.2841918941056522E-5</v>
@@ -5810,13 +5810,13 @@
         <v>0.16220666941128037</v>
       </c>
       <c r="E120" t="n">
-        <v>0.012837224705172217</v>
+        <v>1.03</v>
       </c>
       <c r="F120" t="s">
         <v>41</v>
       </c>
       <c r="G120" t="n">
-        <v>-0.040958607678906384</v>
+        <v>0.91</v>
       </c>
       <c r="H120" t="s">
         <v>45</v>
@@ -5828,13 +5828,13 @@
         <v>28464.5</v>
       </c>
       <c r="K120" t="n">
-        <v>0.056064817106210064</v>
+        <v>0.119975611631113</v>
       </c>
       <c r="L120" t="n">
-        <v>2.1732920252697505E-7</v>
+        <v>3.8148316298669576E-5</v>
       </c>
       <c r="M120" t="n">
-        <v>0.11007317668196515</v>
+        <v>0.22003733255574592</v>
       </c>
       <c r="N120" t="n">
         <v>0.040540285305224535</v>
@@ -5857,13 +5857,13 @@
         <v>0.16220666941128037</v>
       </c>
       <c r="E121" t="n">
-        <v>0.012837224705172217</v>
+        <v>1.03</v>
       </c>
       <c r="F121" t="s">
         <v>30</v>
       </c>
       <c r="G121" t="n">
-        <v>0.021189299069938092</v>
+        <v>1.05</v>
       </c>
       <c r="H121" t="s">
         <v>45</v>
@@ -5875,13 +5875,13 @@
         <v>30295.5</v>
       </c>
       <c r="K121" t="n">
-        <v>-0.011168536795780129</v>
+        <v>-0.02002413843077715</v>
       </c>
       <c r="L121" t="n">
-        <v>-0.05835268799118769</v>
+        <v>-0.1399673642778307</v>
       </c>
       <c r="M121" t="n">
-        <v>0.03520913064689762</v>
+        <v>0.07999728110933826</v>
       </c>
       <c r="N121" t="n">
         <v>0.6240712061893525</v>
@@ -5904,13 +5904,13 @@
         <v>0.16220666941128037</v>
       </c>
       <c r="E122" t="n">
-        <v>0.012837224705172217</v>
+        <v>1.03</v>
       </c>
       <c r="F122" t="s">
         <v>44</v>
       </c>
       <c r="G122" t="n">
-        <v>0.029383777685209667</v>
+        <v>1.07</v>
       </c>
       <c r="H122" t="s">
         <v>45</v>
@@ -5922,13 +5922,13 @@
         <v>18149.0</v>
       </c>
       <c r="K122" t="n">
-        <v>-0.016538220579850573</v>
+        <v>-0.03996312880780417</v>
       </c>
       <c r="L122" t="n">
-        <v>-0.08614909193298897</v>
+        <v>-0.18002771570225287</v>
       </c>
       <c r="M122" t="n">
-        <v>0.05076077257545301</v>
+        <v>0.11998423325932396</v>
       </c>
       <c r="N122" t="n">
         <v>0.6473372524570647</v>
@@ -5951,13 +5951,13 @@
         <v>0.4261012762453685</v>
       </c>
       <c r="E123" t="n">
-        <v>0.26245108973042947</v>
+        <v>1.83</v>
       </c>
       <c r="F123" t="s">
         <v>27</v>
       </c>
       <c r="G123" t="n">
-        <v>-0.01322826573375516</v>
+        <v>0.97</v>
       </c>
       <c r="H123" t="s">
         <v>45</v>
@@ -5969,13 +5969,13 @@
         <v>244698.0</v>
       </c>
       <c r="K123" t="n">
-        <v>0.27396307854419594</v>
+        <v>0.7599390468191958</v>
       </c>
       <c r="L123" t="n">
-        <v>0.22565790908731997</v>
+        <v>0.6000330510093442</v>
       </c>
       <c r="M123" t="n">
-        <v>0.3215109202772978</v>
+        <v>0.9200418726683375</v>
       </c>
       <c r="N123" t="n">
         <v>2.8662525285608894E-29</v>
@@ -5998,13 +5998,13 @@
         <v>0.4261012762453685</v>
       </c>
       <c r="E124" t="n">
-        <v>0.26245108973042947</v>
+        <v>1.83</v>
       </c>
       <c r="F124" t="s">
         <v>42</v>
       </c>
       <c r="G124" t="n">
-        <v>-0.11350927482751812</v>
+        <v>0.77</v>
       </c>
       <c r="H124" t="s">
         <v>45</v>
@@ -6016,13 +6016,13 @@
         <v>85070.0</v>
       </c>
       <c r="K124" t="n">
-        <v>0.36617946634674875</v>
+        <v>0.9200433168933643</v>
       </c>
       <c r="L124" t="n">
-        <v>0.29020300579481206</v>
+        <v>0.6800334409676807</v>
       </c>
       <c r="M124" t="n">
-        <v>0.4453181499497252</v>
+        <v>1.2000616131070252</v>
       </c>
       <c r="N124" t="n">
         <v>3.9316582606164374E-19</v>
@@ -6045,13 +6045,13 @@
         <v>0.4261012762453685</v>
       </c>
       <c r="E125" t="n">
-        <v>0.26245108973042947</v>
+        <v>1.83</v>
       </c>
       <c r="F125" t="s">
         <v>41</v>
       </c>
       <c r="G125" t="n">
-        <v>-0.040958607678906384</v>
+        <v>0.91</v>
       </c>
       <c r="H125" t="s">
         <v>45</v>
@@ -6063,13 +6063,13 @@
         <v>94860.5</v>
       </c>
       <c r="K125" t="n">
-        <v>0.29711104011023304</v>
+        <v>0.7800595995773962</v>
       </c>
       <c r="L125" t="n">
-        <v>0.22185314455737926</v>
+        <v>0.560059437034517</v>
       </c>
       <c r="M125" t="n">
-        <v>0.371234313964079</v>
+        <v>1.0400498744354527</v>
       </c>
       <c r="N125" t="n">
         <v>5.912983374450396E-15</v>
@@ -6092,13 +6092,13 @@
         <v>0.4261012762453685</v>
       </c>
       <c r="E126" t="n">
-        <v>0.26245108973042947</v>
+        <v>1.83</v>
       </c>
       <c r="F126" t="s">
         <v>30</v>
       </c>
       <c r="G126" t="n">
-        <v>0.021189299069938092</v>
+        <v>1.05</v>
       </c>
       <c r="H126" t="s">
         <v>45</v>
@@ -6110,13 +6110,13 @@
         <v>109955.5</v>
       </c>
       <c r="K126" t="n">
-        <v>0.22754418482224126</v>
+        <v>0.6599411630375338</v>
       </c>
       <c r="L126" t="n">
-        <v>0.16412103494126823</v>
+        <v>0.44002540539342516</v>
       </c>
       <c r="M126" t="n">
-        <v>0.29232734545984396</v>
+        <v>0.899947264880392</v>
       </c>
       <c r="N126" t="n">
         <v>2.7750791409893518E-12</v>
@@ -6139,13 +6139,13 @@
         <v>0.4261012762453685</v>
       </c>
       <c r="E127" t="n">
-        <v>0.26245108973042947</v>
+        <v>1.83</v>
       </c>
       <c r="F127" t="s">
         <v>44</v>
       </c>
       <c r="G127" t="n">
-        <v>0.029383777685209667</v>
+        <v>1.07</v>
       </c>
       <c r="H127" t="s">
         <v>45</v>
@@ -6157,13 +6157,13 @@
         <v>63877.5</v>
       </c>
       <c r="K127" t="n">
-        <v>0.2199642150553197</v>
+        <v>0.5999625941820345</v>
       </c>
       <c r="L127" t="n">
-        <v>0.1312363840531739</v>
+        <v>0.33995230051365505</v>
       </c>
       <c r="M127" t="n">
-        <v>0.3101642976809</v>
+        <v>0.8999444961549321</v>
       </c>
       <c r="N127" t="n">
         <v>1.3400739161758882E-6</v>
@@ -6186,13 +6186,13 @@
         <v>0.4261012762453685</v>
       </c>
       <c r="E128" t="n">
-        <v>0.26245108973042947</v>
+        <v>1.83</v>
       </c>
       <c r="F128" t="s">
         <v>43</v>
       </c>
       <c r="G128" t="n">
-        <v>0.35602585719312263</v>
+        <v>2.2699999999999996</v>
       </c>
       <c r="H128" t="s">
         <v>45</v>
@@ -6204,13 +6204,13 @@
         <v>79349.5</v>
       </c>
       <c r="K128" t="n">
-        <v>-0.11949058312879389</v>
+        <v>-0.3600178448984486</v>
       </c>
       <c r="L128" t="n">
-        <v>-0.21719928588094875</v>
+        <v>-0.7200718787480354</v>
       </c>
       <c r="M128" t="n">
-        <v>-0.02610892391289497</v>
+        <v>-0.0800626991633681</v>
       </c>
       <c r="N128" t="n">
         <v>0.012079550371857777</v>
@@ -6233,13 +6233,13 @@
         <v>0.0531082750102923</v>
       </c>
       <c r="E129" t="n">
-        <v>-0.040958607678906384</v>
+        <v>0.91</v>
       </c>
       <c r="F129" t="s">
         <v>43</v>
       </c>
       <c r="G129" t="n">
-        <v>0.35602585719312263</v>
+        <v>2.2699999999999996</v>
       </c>
       <c r="H129" t="s">
         <v>45</v>
@@ -6251,13 +6251,13 @@
         <v>5979.0</v>
       </c>
       <c r="K129" t="n">
-        <v>-0.40479544004078094</v>
+        <v>-1.1399816161145517</v>
       </c>
       <c r="L129" t="n">
-        <v>-0.542874011404572</v>
+        <v>-1.7400082930194807</v>
       </c>
       <c r="M129" t="n">
-        <v>-0.2784614679207482</v>
+        <v>-0.6999704924737646</v>
       </c>
       <c r="N129" t="n">
         <v>3.5521228098291057E-12</v>
@@ -6280,13 +6280,13 @@
         <v>0.0531082750102923</v>
       </c>
       <c r="E130" t="n">
-        <v>-0.040958607678906384</v>
+        <v>0.91</v>
       </c>
       <c r="F130" t="s">
         <v>30</v>
       </c>
       <c r="G130" t="n">
-        <v>0.021189299069938092</v>
+        <v>1.05</v>
       </c>
       <c r="H130" t="s">
         <v>45</v>
@@ -6298,13 +6298,13 @@
         <v>8720.0</v>
       </c>
       <c r="K130" t="n">
-        <v>-0.06579317611973011</v>
+        <v>-0.14003048821101854</v>
       </c>
       <c r="L130" t="n">
-        <v>-0.128991330239404</v>
+        <v>-0.2799152035220472</v>
       </c>
       <c r="M130" t="n">
-        <v>-0.005718957525624154</v>
+        <v>-0.01999959888218555</v>
       </c>
       <c r="N130" t="n">
         <v>0.035489489590031266</v>
@@ -6327,13 +6327,13 @@
         <v>0.0531082750102923</v>
       </c>
       <c r="E131" t="n">
-        <v>-0.040958607678906384</v>
+        <v>0.91</v>
       </c>
       <c r="F131" t="s">
         <v>42</v>
       </c>
       <c r="G131" t="n">
-        <v>-0.11350927482751812</v>
+        <v>0.77</v>
       </c>
       <c r="H131" t="s">
         <v>45</v>
@@ -6345,13 +6345,13 @@
         <v>7999.0</v>
       </c>
       <c r="K131" t="n">
-        <v>0.0696193899959739</v>
+        <v>0.12006680663795605</v>
       </c>
       <c r="L131" t="n">
-        <v>6.70144953883967E-5</v>
+        <v>5.048308852982895E-5</v>
       </c>
       <c r="M131" t="n">
-        <v>0.14252035592811113</v>
+        <v>0.25997963012906716</v>
       </c>
       <c r="N131" t="n">
         <v>0.04946561849054176</v>
@@ -6374,13 +6374,13 @@
         <v>0.0531082750102923</v>
       </c>
       <c r="E132" t="n">
-        <v>-0.040958607678906384</v>
+        <v>0.91</v>
       </c>
       <c r="F132" t="s">
         <v>44</v>
       </c>
       <c r="G132" t="n">
-        <v>0.029383777685209667</v>
+        <v>1.07</v>
       </c>
       <c r="H132" t="s">
         <v>45</v>
@@ -6392,13 +6392,13 @@
         <v>5365.5</v>
       </c>
       <c r="K132" t="n">
-        <v>-0.07126472253582282</v>
+        <v>-0.1400493149510549</v>
       </c>
       <c r="L132" t="n">
-        <v>-0.16219584892966707</v>
+        <v>-0.3399460577873069</v>
       </c>
       <c r="M132" t="n">
-        <v>0.01600078881418566</v>
+        <v>0.02001813941660061</v>
       </c>
       <c r="N132" t="n">
         <v>0.112108747268069</v>
@@ -6421,13 +6421,13 @@
         <v>0.0531082750102923</v>
       </c>
       <c r="E133" t="n">
-        <v>-0.040958607678906384</v>
+        <v>0.91</v>
       </c>
       <c r="F133" t="s">
         <v>27</v>
       </c>
       <c r="G133" t="n">
-        <v>-0.01322826573375516</v>
+        <v>0.97</v>
       </c>
       <c r="H133" t="s">
         <v>45</v>
@@ -6439,13 +6439,13 @@
         <v>20497.0</v>
       </c>
       <c r="K133" t="n">
-        <v>-0.025198057023805672</v>
+        <v>-0.059989481185828336</v>
       </c>
       <c r="L133" t="n">
-        <v>-0.08018397435650118</v>
+        <v>-0.16006551776206318</v>
       </c>
       <c r="M133" t="n">
-        <v>0.0301891917641467</v>
+        <v>0.060019557303546564</v>
       </c>
       <c r="N133" t="n">
         <v>0.36525953593556565</v>
@@ -6468,13 +6468,13 @@
         <v>0.044462741869081925</v>
       </c>
       <c r="E134" t="n">
-        <v>-0.11350927482751812</v>
+        <v>0.77</v>
       </c>
       <c r="F134" t="s">
         <v>43</v>
       </c>
       <c r="G134" t="n">
-        <v>0.35602585719312263</v>
+        <v>2.2699999999999996</v>
       </c>
       <c r="H134" t="s">
         <v>45</v>
@@ -6486,13 +6486,13 @@
         <v>4175.5</v>
       </c>
       <c r="K134" t="n">
-        <v>-0.4699312357807939</v>
+        <v>-1.3000148317673375</v>
       </c>
       <c r="L134" t="n">
-        <v>-0.6108857181224336</v>
+        <v>-1.9799363825477916</v>
       </c>
       <c r="M134" t="n">
-        <v>-0.34712895687421363</v>
+        <v>-0.819968804167424</v>
       </c>
       <c r="N134" t="n">
         <v>4.443089012290037E-15</v>
@@ -6515,13 +6515,13 @@
         <v>0.044462741869081925</v>
       </c>
       <c r="E135" t="n">
-        <v>-0.11350927482751812</v>
+        <v>0.77</v>
       </c>
       <c r="F135" t="s">
         <v>30</v>
       </c>
       <c r="G135" t="n">
-        <v>0.021189299069938092</v>
+        <v>1.05</v>
       </c>
       <c r="H135" t="s">
         <v>45</v>
@@ -6533,13 +6533,13 @@
         <v>6029.0</v>
       </c>
       <c r="K135" t="n">
-        <v>-0.13602078419976843</v>
+        <v>-0.2600578558780958</v>
       </c>
       <c r="L135" t="n">
-        <v>-0.20319066867362753</v>
+        <v>-0.38005955016420556</v>
       </c>
       <c r="M135" t="n">
-        <v>-0.07363109211018735</v>
+        <v>-0.14004893749399416</v>
       </c>
       <c r="N135" t="n">
         <v>4.867693334412396E-5</v>
@@ -6562,13 +6562,13 @@
         <v>0.044462741869081925</v>
       </c>
       <c r="E136" t="n">
-        <v>-0.11350927482751812</v>
+        <v>0.77</v>
       </c>
       <c r="F136" t="s">
         <v>27</v>
       </c>
       <c r="G136" t="n">
-        <v>-0.01322826573375516</v>
+        <v>0.97</v>
       </c>
       <c r="H136" t="s">
         <v>45</v>
@@ -6580,13 +6580,13 @@
         <v>14402.5</v>
       </c>
       <c r="K136" t="n">
-        <v>-0.09743427901327611</v>
+        <v>-0.1799990818558125</v>
       </c>
       <c r="L136" t="n">
-        <v>-0.1541418622465177</v>
+        <v>-0.2800207400778861</v>
       </c>
       <c r="M136" t="n">
-        <v>-0.03911239542583562</v>
+        <v>-0.07998028726599843</v>
       </c>
       <c r="N136" t="n">
         <v>0.0012584805434737757</v>
@@ -6609,13 +6609,13 @@
         <v>0.044462741869081925</v>
       </c>
       <c r="E137" t="n">
-        <v>-0.11350927482751812</v>
+        <v>0.77</v>
       </c>
       <c r="F137" t="s">
         <v>44</v>
       </c>
       <c r="G137" t="n">
-        <v>0.029383777685209667</v>
+        <v>1.07</v>
       </c>
       <c r="H137" t="s">
         <v>45</v>
@@ -6627,13 +6627,13 @@
         <v>3787.5</v>
       </c>
       <c r="K137" t="n">
-        <v>-0.1440060974545084</v>
+        <v>-0.2600594025374586</v>
       </c>
       <c r="L137" t="n">
-        <v>-0.23558642904389654</v>
+        <v>-0.45995187244644165</v>
       </c>
       <c r="M137" t="n">
-        <v>-0.05436711720611003</v>
+        <v>-0.09993113899989567</v>
       </c>
       <c r="N137" t="n">
         <v>0.0013099449857726232</v>
@@ -6656,13 +6656,13 @@
         <v>0.06504734458624949</v>
       </c>
       <c r="E138" t="n">
-        <v>0.021189299069938092</v>
+        <v>1.05</v>
       </c>
       <c r="F138" t="s">
         <v>43</v>
       </c>
       <c r="G138" t="n">
-        <v>0.35602585719312263</v>
+        <v>2.2699999999999996</v>
       </c>
       <c r="H138" t="s">
         <v>45</v>
@@ -6674,13 +6674,13 @@
         <v>8236.5</v>
       </c>
       <c r="K138" t="n">
-        <v>-0.32760166053323303</v>
+        <v>-1.016612329029945</v>
       </c>
       <c r="L138" t="n">
-        <v>-0.4489451597161655</v>
+        <v>-1.6000749187150776</v>
       </c>
       <c r="M138" t="n">
-        <v>-0.21653680350512214</v>
+        <v>-0.5800178327391491</v>
       </c>
       <c r="N138" t="n">
         <v>2.8340982471678587E-10</v>
@@ -6703,13 +6703,13 @@
         <v>0.06504734458624949</v>
       </c>
       <c r="E139" t="n">
-        <v>0.021189299069938092</v>
+        <v>1.05</v>
       </c>
       <c r="F139" t="s">
         <v>44</v>
       </c>
       <c r="G139" t="n">
-        <v>0.029383777685209667</v>
+        <v>1.07</v>
       </c>
       <c r="H139" t="s">
         <v>45</v>
@@ -6721,13 +6721,13 @@
         <v>7459.5</v>
       </c>
       <c r="K139" t="n">
-        <v>-8.560877644951487E-5</v>
+        <v>-1.8479440143861628E-5</v>
       </c>
       <c r="L139" t="n">
-        <v>-0.08579659986797636</v>
+        <v>-0.1999412998217715</v>
       </c>
       <c r="M139" t="n">
-        <v>0.07506978095173941</v>
+        <v>0.15995896761174286</v>
       </c>
       <c r="N139" t="n">
         <v>0.9363623184528415</v>
@@ -6750,13 +6750,13 @@
         <v>0.06504734458624949</v>
       </c>
       <c r="E140" t="n">
-        <v>0.021189299069938092</v>
+        <v>1.05</v>
       </c>
       <c r="F140" t="s">
         <v>27</v>
       </c>
       <c r="G140" t="n">
-        <v>-0.01322826573375516</v>
+        <v>0.97</v>
       </c>
       <c r="H140" t="s">
         <v>45</v>
@@ -6768,13 +6768,13 @@
         <v>29033.5</v>
       </c>
       <c r="K140" t="n">
-        <v>0.040913402255490214</v>
+        <v>0.09994848830572955</v>
       </c>
       <c r="L140" t="n">
-        <v>-0.008152240752679363</v>
+        <v>-0.019981281804251613</v>
       </c>
       <c r="M140" t="n">
-        <v>0.09052097644487071</v>
+        <v>0.19997223950742288</v>
       </c>
       <c r="N140" t="n">
         <v>0.09254482353565338</v>
@@ -6797,13 +6797,13 @@
         <v>0.0716344174557431</v>
       </c>
       <c r="E141" t="n">
-        <v>0.35602585719312263</v>
+        <v>2.2699999999999996</v>
       </c>
       <c r="F141" t="s">
         <v>27</v>
       </c>
       <c r="G141" t="n">
-        <v>-0.01322826573375516</v>
+        <v>0.97</v>
       </c>
       <c r="H141" t="s">
         <v>45</v>
@@ -6815,13 +6815,13 @@
         <v>42568.5</v>
       </c>
       <c r="K141" t="n">
-        <v>0.3805289770198767</v>
+        <v>1.139937466481079</v>
       </c>
       <c r="L141" t="n">
-        <v>0.2839996897560427</v>
+        <v>0.7599895805834547</v>
       </c>
       <c r="M141" t="n">
-        <v>0.48745605013252175</v>
+        <v>1.620018968834123</v>
       </c>
       <c r="N141" t="n">
         <v>2.8503532189334964E-17</v>
@@ -6844,13 +6844,13 @@
         <v>0.0716344174557431</v>
       </c>
       <c r="E142" t="n">
-        <v>0.35602585719312263</v>
+        <v>2.2699999999999996</v>
       </c>
       <c r="F142" t="s">
         <v>44</v>
       </c>
       <c r="G142" t="n">
-        <v>0.029383777685209667</v>
+        <v>1.07</v>
       </c>
       <c r="H142" t="s">
         <v>45</v>
@@ -6862,13 +6862,13 @@
         <v>11356.5</v>
       </c>
       <c r="K142" t="n">
-        <v>0.33382488648240144</v>
+        <v>0.9600462460435718</v>
       </c>
       <c r="L142" t="n">
-        <v>0.201411614500614</v>
+        <v>0.5000233370681028</v>
       </c>
       <c r="M142" t="n">
-        <v>0.488816443756687</v>
+        <v>1.6800202395083281</v>
       </c>
       <c r="N142" t="n">
         <v>4.007071705896391E-7</v>
@@ -6891,13 +6891,13 @@
         <v>0.03911074516261836</v>
       </c>
       <c r="E143" t="n">
-        <v>0.029383777685209667</v>
+        <v>1.07</v>
       </c>
       <c r="F143" t="s">
         <v>27</v>
       </c>
       <c r="G143" t="n">
-        <v>-0.01322826573375516</v>
+        <v>0.97</v>
       </c>
       <c r="H143" t="s">
         <v>45</v>
@@ -6909,13 +6909,13 @@
         <v>17335.5</v>
       </c>
       <c r="K143" t="n">
-        <v>0.046658339201337475</v>
+        <v>0.09994329836004985</v>
       </c>
       <c r="L143" t="n">
-        <v>-0.024138152111898743</v>
+        <v>-0.05993224915743608</v>
       </c>
       <c r="M143" t="n">
-        <v>0.12175784753783604</v>
+        <v>0.26005053764020675</v>
       </c>
       <c r="N143" t="n">
         <v>0.19955851429921556</v>
@@ -6938,13 +6938,13 @@
         <v>0.138328530259366</v>
       </c>
       <c r="E144" t="n">
-        <v>-0.01322826573375516</v>
+        <v>0.97</v>
       </c>
       <c r="F144" t="s">
         <v>21</v>
       </c>
       <c r="G144" t="n">
-        <v>0.012837224705172217</v>
+        <v>1.03</v>
       </c>
       <c r="H144" t="s">
         <v>45</v>
@@ -6956,13 +6956,13 @@
         <v>61658.0</v>
       </c>
       <c r="K144" t="n">
-        <v>-0.03032086117200064</v>
+        <v>-0.060036928582766234</v>
       </c>
       <c r="L144" t="n">
-        <v>-0.06808357761290613</v>
+        <v>-0.1400297536913539</v>
       </c>
       <c r="M144" t="n">
-        <v>0.008224894691031699</v>
+        <v>0.019957451270265346</v>
       </c>
       <c r="N144" t="n">
         <v>0.11036107900412086</v>
